--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F1402-EB9D-BF4E-A50A-20ACAA59C91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B84B99-D404-4A4C-B5C7-9A100184D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="1580" windowWidth="27640" windowHeight="15380" xr2:uid="{93DBDC58-52F5-3346-9276-82DE21EEBAF4}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C1463-38FF-4141-B284-2C2DAE383D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF384DA-CD56-1641-891A-55A68D1D5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15380" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>phone</t>
-  </si>
-  <si>
-    <t>קישור להצטרפות לקבוצת ווצאפ של העסק/השירות</t>
-  </si>
-  <si>
-    <t>פלייר פרסומי (קובץ תמונה או PDF)</t>
   </si>
   <si>
     <t>שחר רונן</t>
@@ -468,6 +462,45 @@
   </si>
   <si>
     <t>0545360592</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nhuHzfsnnM7RX72AfbbW1sIKU9fR4Ybu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hltzyS4wAbTVRGYrc3YhQvp1x-cw-tpr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1k4EfR7sGuYHbftRZceAjswX_HooCbCda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XJugGSuGw9JlJRuiWRFk6yMf-_SztXl5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q-kDZ2F0skqXHGrAeiWb9w9y-6qkO6CQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Chtu34xVhmTFgAe19mZNRQwwne3Z74CJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Vh2lqER50p2tVs9Hx5FFR68JjM14_-La</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uoijCR7pxgZIyXHXkExkHtX9_sx1AxHv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fj-oYfRPCkUKVqn-Mpe9BVzhZ49P-Fgx</t>
+  </si>
+  <si>
+    <t>https://yedidim-il.org/join</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15yv9bc5oNGAazUFEc0xyBp6DVLjtpWDv</t>
+  </si>
+  <si>
+    <t>whatsApp</t>
+  </si>
+  <si>
+    <t>flayer</t>
   </si>
 </sst>
 </file>
@@ -864,7 +897,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -895,534 +928,583 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I13" s="1"/>
+      <c r="J13" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="155" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="155" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
@@ -1453,10 +1535,21 @@
     <hyperlink ref="G17" r:id="rId9" xr:uid="{40F558F9-6485-AE44-9E12-403A80CADD89}"/>
     <hyperlink ref="G20" r:id="rId10" xr:uid="{C3CA7083-28B7-2346-955C-618D32BC6CDA}"/>
     <hyperlink ref="G22" r:id="rId11" display="https://gargi944767058.wordpress.com/" xr:uid="{54247037-3B3C-8148-BAFB-FE7B1E119D16}"/>
-    <hyperlink ref="I4" r:id="rId12" xr:uid="{5F5EB904-3144-6842-9331-C404810CE441}"/>
-    <hyperlink ref="I7" r:id="rId13" xr:uid="{D832D4A0-AEC2-F946-9E23-6A27035F1656}"/>
-    <hyperlink ref="I11" r:id="rId14" xr:uid="{B85EFF5D-76B0-5647-A078-F8FD6B77C369}"/>
-    <hyperlink ref="I15" r:id="rId15" xr:uid="{77994A3D-9E22-BC45-B2B3-A0B3686CA37B}"/>
+    <hyperlink ref="J3" r:id="rId12" xr:uid="{E6085985-41AD-3247-B7E7-9594CBED5403}"/>
+    <hyperlink ref="I4" r:id="rId13" xr:uid="{2ACBF97B-F793-6849-A998-19624B1CA20D}"/>
+    <hyperlink ref="J4" r:id="rId14" xr:uid="{56069194-A0D4-484E-ABC3-F076AF845F80}"/>
+    <hyperlink ref="I7" r:id="rId15" xr:uid="{C97E32DC-347E-B248-A362-9879FA796B15}"/>
+    <hyperlink ref="J9" r:id="rId16" xr:uid="{C6D3E09C-1EE2-CA41-9842-92023B4BCFAD}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{0BC330EE-D02E-614F-B7CD-91B569E16D43}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{5371B159-93F5-124C-8369-EABCAAC0F01B}"/>
+    <hyperlink ref="J13" r:id="rId19" xr:uid="{87F6769A-9412-264A-B58C-C4DE6E06DD6A}"/>
+    <hyperlink ref="I15" r:id="rId20" xr:uid="{0F221C08-CE66-6D47-B78B-D4CB01B19770}"/>
+    <hyperlink ref="J15" r:id="rId21" xr:uid="{C8E2AAB1-8CA5-9C42-BDD3-2A6CDFF84F3A}"/>
+    <hyperlink ref="J20" r:id="rId22" xr:uid="{32C75D63-4436-6347-949A-C43E917D53C5}"/>
+    <hyperlink ref="J21" r:id="rId23" xr:uid="{0278FDA7-836C-9C48-A97E-DACC76717C00}"/>
+    <hyperlink ref="J22" r:id="rId24" xr:uid="{8A11889D-37F7-FB46-98B1-DDADE5B04B4D}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{E502042C-BE46-9747-AB81-83503B98FCCC}"/>
+    <hyperlink ref="J24" r:id="rId26" xr:uid="{DD00EFB5-9652-EC48-8DA5-63C0B2587254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF384DA-CD56-1641-891A-55A68D1D5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971FE168-8D1C-9F48-A26C-C7C82A20482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -501,6 +501,55 @@
   </si>
   <si>
     <t>flayer</t>
+  </si>
+  <si>
+    <t>יאיר וסקר</t>
+  </si>
+  <si>
+    <t>אבי קלבו</t>
+  </si>
+  <si>
+    <t>יניר שוקרון</t>
+  </si>
+  <si>
+    <t>Hen0411@gmail.com</t>
+  </si>
+  <si>
+    <t>kalvo007@gmail.com</t>
+  </si>
+  <si>
+    <t>yanirshukrun@gmail.com</t>
+  </si>
+  <si>
+    <t>לי-בר פירות</t>
+  </si>
+  <si>
+    <t>ידידים - סיוע בדרכים</t>
+  </si>
+  <si>
+    <t>סטודיו בייגלה</t>
+  </si>
+  <si>
+    <t>סיוע בדרכים</t>
+  </si>
+  <si>
+    <t>מגשי פירות מעוצבים לכל סוג של אירוע. החל מ150 שח</t>
+  </si>
+  <si>
+    <t>הארגון מספק עזרה ראשונה לא רפואית ללא כל עלות, בדרכים ובבתים בשלל תחומים, בהם: הנעת הרכב, סיוע בהחלפת גלגל, פתיחת רכב שננעל ועוד.
+הארגון, הפועל בהתנדבות מלאה, מספק עזרה לזולת 24 שעות ביממה, בכל ימות השבוע, למעט שבתות וחגים.</t>
+  </si>
+  <si>
+    <t>הסטודיו מתמקד ומתקמצע בבניית אתרים על פלטפורמת וורדפרס, תחזוקה לאתרים ושיווק דיגיטלי לעסקים קטנים ובינוניים.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lybr.pyrwt?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>https://yedidim-il.org/</t>
+  </si>
+  <si>
+    <t>beigale.co.il</t>
   </si>
 </sst>
 </file>
@@ -896,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,12 +1517,52 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="1">
+        <v>506323751</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="4"/>
+    <row r="24" spans="1:10" ht="294" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1230</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>149</v>
       </c>
@@ -1482,7 +1571,27 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="1">
+        <v>542009876</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
@@ -1550,6 +1659,9 @@
     <hyperlink ref="J22" r:id="rId24" xr:uid="{8A11889D-37F7-FB46-98B1-DDADE5B04B4D}"/>
     <hyperlink ref="I24" r:id="rId25" xr:uid="{E502042C-BE46-9747-AB81-83503B98FCCC}"/>
     <hyperlink ref="J24" r:id="rId26" xr:uid="{DD00EFB5-9652-EC48-8DA5-63C0B2587254}"/>
+    <hyperlink ref="G23" r:id="rId27" xr:uid="{89AFDA41-8392-4944-930B-3F6EA846204B}"/>
+    <hyperlink ref="G24" r:id="rId28" xr:uid="{A1DA4E90-9A6B-8C43-ADF7-0239E640F328}"/>
+    <hyperlink ref="G25" r:id="rId29" display="http://beigale.co.il/" xr:uid="{7CBAEF58-516C-5141-A31D-185016B120DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971FE168-8D1C-9F48-A26C-C7C82A20482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A1D72-31BE-DC4E-8120-B46CC21FD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>beigale.co.il</t>
+  </si>
+  <si>
+    <t>0506323751</t>
+  </si>
+  <si>
+    <t>0542009876</t>
   </si>
 </sst>
 </file>
@@ -600,14 +606,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,13 +958,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="20.83203125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1001,7 +1019,7 @@
         <v>79</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="1"/>
@@ -1023,11 +1041,11 @@
         <v>80</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1045,16 +1063,16 @@
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1077,7 +1095,7 @@
       <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I5" s="1"/>
@@ -1099,10 +1117,10 @@
       <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="1"/>
@@ -1124,13 +1142,13 @@
       <c r="F7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="J7" s="1"/>
@@ -1152,7 +1170,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>126</v>
       </c>
       <c r="I8" s="1"/>
@@ -1175,11 +1193,11 @@
         <v>86</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1199,18 +1217,18 @@
       <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,21 +1241,21 @@
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>118</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,13 +1268,13 @@
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I12" s="1"/>
@@ -1278,14 +1296,14 @@
       <c r="F13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1306,7 +1324,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1330,16 +1348,16 @@
       <c r="F15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1360,7 +1378,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="1"/>
@@ -1382,10 +1400,10 @@
       <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="1"/>
@@ -1408,13 +1426,13 @@
         <v>95</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="155" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1425,11 +1443,11 @@
       <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>136</v>
       </c>
       <c r="I19" s="1"/>
@@ -1451,14 +1469,14 @@
       <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>137</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1481,11 +1499,11 @@
       <c r="G21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1505,14 +1523,14 @@
       <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>139</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1532,16 +1550,16 @@
       <c r="F23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="1">
-        <v>506323751</v>
+      <c r="H23" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="294" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>154</v>
       </c>
@@ -1554,19 +1572,19 @@
       <c r="D24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>1230</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1586,50 +1604,1715 @@
       <c r="F25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="1">
-        <v>542009876</v>
+      <c r="H25" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="4"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="4"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="4"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="4"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H30" s="4"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="4"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="4"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="4"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="4"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="4"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="4"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="4"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H280" s="2"/>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H281" s="2"/>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H282" s="2"/>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H283" s="2"/>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H286" s="2"/>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H287" s="2"/>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H288" s="2"/>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H289" s="2"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H290" s="2"/>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H291" s="2"/>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H292" s="2"/>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H293" s="2"/>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H294" s="2"/>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H295" s="2"/>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H296" s="2"/>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H297" s="2"/>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H298" s="2"/>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H299" s="2"/>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H300" s="2"/>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H301" s="2"/>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H302" s="2"/>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H303" s="2"/>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H304" s="2"/>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H305" s="2"/>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H307" s="2"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H308" s="2"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H309" s="2"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H310" s="2"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H311" s="2"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H312" s="2"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H313" s="2"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H314" s="2"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H315" s="2"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H316" s="2"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H317" s="2"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H318" s="2"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H319" s="2"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H320" s="2"/>
+    </row>
+    <row r="321" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H321" s="2"/>
+    </row>
+    <row r="322" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H322" s="2"/>
+    </row>
+    <row r="323" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H323" s="2"/>
+    </row>
+    <row r="324" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H324" s="2"/>
+    </row>
+    <row r="325" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H325" s="2"/>
+    </row>
+    <row r="326" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H326" s="2"/>
+    </row>
+    <row r="327" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H327" s="2"/>
+    </row>
+    <row r="328" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H328" s="2"/>
+    </row>
+    <row r="329" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H329" s="2"/>
+    </row>
+    <row r="330" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H330" s="2"/>
+    </row>
+    <row r="331" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H331" s="2"/>
+    </row>
+    <row r="332" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H332" s="2"/>
+    </row>
+    <row r="333" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H333" s="2"/>
+    </row>
+    <row r="334" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H334" s="2"/>
+    </row>
+    <row r="335" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H335" s="2"/>
+    </row>
+    <row r="336" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H338" s="2"/>
+    </row>
+    <row r="339" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H339" s="2"/>
+    </row>
+    <row r="340" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H340" s="2"/>
+    </row>
+    <row r="341" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H341" s="2"/>
+    </row>
+    <row r="342" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H342" s="2"/>
+    </row>
+    <row r="343" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H343" s="2"/>
+    </row>
+    <row r="344" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H344" s="2"/>
+    </row>
+    <row r="345" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H345" s="2"/>
+    </row>
+    <row r="346" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H346" s="2"/>
+    </row>
+    <row r="347" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H347" s="2"/>
+    </row>
+    <row r="348" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H348" s="2"/>
+    </row>
+    <row r="349" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H349" s="2"/>
+    </row>
+    <row r="350" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H350" s="2"/>
+    </row>
+    <row r="351" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H351" s="2"/>
+    </row>
+    <row r="352" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H352" s="2"/>
+    </row>
+    <row r="353" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H353" s="2"/>
+    </row>
+    <row r="354" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H354" s="2"/>
+    </row>
+    <row r="355" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H355" s="2"/>
+    </row>
+    <row r="356" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H356" s="2"/>
+    </row>
+    <row r="357" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H357" s="2"/>
+    </row>
+    <row r="358" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H358" s="2"/>
+    </row>
+    <row r="359" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H359" s="2"/>
+    </row>
+    <row r="360" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H360" s="2"/>
+    </row>
+    <row r="361" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H361" s="2"/>
+    </row>
+    <row r="362" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H363" s="2"/>
+    </row>
+    <row r="364" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H365" s="2"/>
+    </row>
+    <row r="366" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H366" s="2"/>
+    </row>
+    <row r="367" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H367" s="2"/>
+    </row>
+    <row r="368" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H368" s="2"/>
+    </row>
+    <row r="369" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H369" s="2"/>
+    </row>
+    <row r="370" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H370" s="2"/>
+    </row>
+    <row r="371" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H371" s="2"/>
+    </row>
+    <row r="372" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H372" s="2"/>
+    </row>
+    <row r="373" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H373" s="2"/>
+    </row>
+    <row r="374" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H374" s="2"/>
+    </row>
+    <row r="375" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H375" s="2"/>
+    </row>
+    <row r="376" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H376" s="2"/>
+    </row>
+    <row r="377" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H377" s="2"/>
+    </row>
+    <row r="378" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H378" s="2"/>
+    </row>
+    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H379" s="2"/>
+    </row>
+    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H380" s="2"/>
+    </row>
+    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H381" s="2"/>
+    </row>
+    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H382" s="2"/>
+    </row>
+    <row r="383" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H383" s="2"/>
+    </row>
+    <row r="384" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H384" s="2"/>
+    </row>
+    <row r="385" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H385" s="2"/>
+    </row>
+    <row r="386" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H386" s="2"/>
+    </row>
+    <row r="387" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H387" s="2"/>
+    </row>
+    <row r="388" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H388" s="2"/>
+    </row>
+    <row r="389" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H389" s="2"/>
+    </row>
+    <row r="390" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H390" s="2"/>
+    </row>
+    <row r="391" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H391" s="2"/>
+    </row>
+    <row r="392" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H392" s="2"/>
+    </row>
+    <row r="393" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H393" s="2"/>
+    </row>
+    <row r="394" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H394" s="2"/>
+    </row>
+    <row r="395" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H395" s="2"/>
+    </row>
+    <row r="396" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H396" s="2"/>
+    </row>
+    <row r="397" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H397" s="2"/>
+    </row>
+    <row r="398" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H398" s="2"/>
+    </row>
+    <row r="399" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H399" s="2"/>
+    </row>
+    <row r="400" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H400" s="2"/>
+    </row>
+    <row r="401" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H401" s="2"/>
+    </row>
+    <row r="402" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H402" s="2"/>
+    </row>
+    <row r="403" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H403" s="2"/>
+    </row>
+    <row r="404" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H404" s="2"/>
+    </row>
+    <row r="405" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H405" s="2"/>
+    </row>
+    <row r="406" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H406" s="2"/>
+    </row>
+    <row r="407" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H407" s="2"/>
+    </row>
+    <row r="408" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H408" s="2"/>
+    </row>
+    <row r="409" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H409" s="2"/>
+    </row>
+    <row r="410" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H410" s="2"/>
+    </row>
+    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H411" s="2"/>
+    </row>
+    <row r="412" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H412" s="2"/>
+    </row>
+    <row r="413" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H413" s="2"/>
+    </row>
+    <row r="414" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H414" s="2"/>
+    </row>
+    <row r="415" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H415" s="2"/>
+    </row>
+    <row r="416" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H416" s="2"/>
+    </row>
+    <row r="417" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H417" s="2"/>
+    </row>
+    <row r="418" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H418" s="2"/>
+    </row>
+    <row r="419" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H419" s="2"/>
+    </row>
+    <row r="420" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H420" s="2"/>
+    </row>
+    <row r="421" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H421" s="2"/>
+    </row>
+    <row r="422" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H422" s="2"/>
+    </row>
+    <row r="423" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H423" s="2"/>
+    </row>
+    <row r="424" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H424" s="2"/>
+    </row>
+    <row r="425" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H425" s="2"/>
+    </row>
+    <row r="426" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H426" s="2"/>
+    </row>
+    <row r="427" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H427" s="2"/>
+    </row>
+    <row r="428" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H428" s="2"/>
+    </row>
+    <row r="429" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H429" s="2"/>
+    </row>
+    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H430" s="2"/>
+    </row>
+    <row r="431" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H431" s="2"/>
+    </row>
+    <row r="432" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H432" s="2"/>
+    </row>
+    <row r="433" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H433" s="2"/>
+    </row>
+    <row r="434" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H434" s="2"/>
+    </row>
+    <row r="435" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H435" s="2"/>
+    </row>
+    <row r="436" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H436" s="2"/>
+    </row>
+    <row r="437" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H437" s="2"/>
+    </row>
+    <row r="438" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H438" s="2"/>
+    </row>
+    <row r="439" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H439" s="2"/>
+    </row>
+    <row r="440" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H440" s="2"/>
+    </row>
+    <row r="441" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H441" s="2"/>
+    </row>
+    <row r="442" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H442" s="2"/>
+    </row>
+    <row r="443" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H443" s="2"/>
+    </row>
+    <row r="444" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H444" s="2"/>
+    </row>
+    <row r="445" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H445" s="2"/>
+    </row>
+    <row r="446" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H446" s="2"/>
+    </row>
+    <row r="447" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H447" s="2"/>
+    </row>
+    <row r="448" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H448" s="2"/>
+    </row>
+    <row r="449" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H449" s="2"/>
+    </row>
+    <row r="450" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H450" s="2"/>
+    </row>
+    <row r="451" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H451" s="2"/>
+    </row>
+    <row r="452" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H452" s="2"/>
+    </row>
+    <row r="453" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H453" s="2"/>
+    </row>
+    <row r="454" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H454" s="2"/>
+    </row>
+    <row r="455" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H455" s="2"/>
+    </row>
+    <row r="456" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H456" s="2"/>
+    </row>
+    <row r="457" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H457" s="2"/>
+    </row>
+    <row r="458" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H458" s="2"/>
+    </row>
+    <row r="459" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H459" s="2"/>
+    </row>
+    <row r="460" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H460" s="2"/>
+    </row>
+    <row r="461" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H461" s="2"/>
+    </row>
+    <row r="462" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H462" s="2"/>
+    </row>
+    <row r="463" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H463" s="2"/>
+    </row>
+    <row r="464" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H464" s="2"/>
+    </row>
+    <row r="465" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H465" s="2"/>
+    </row>
+    <row r="466" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H466" s="2"/>
+    </row>
+    <row r="467" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H467" s="2"/>
+    </row>
+    <row r="468" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H468" s="2"/>
+    </row>
+    <row r="469" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H469" s="2"/>
+    </row>
+    <row r="470" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H470" s="2"/>
+    </row>
+    <row r="471" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H471" s="2"/>
+    </row>
+    <row r="472" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H472" s="2"/>
+    </row>
+    <row r="473" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H473" s="2"/>
+    </row>
+    <row r="474" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H474" s="2"/>
+    </row>
+    <row r="475" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H475" s="2"/>
+    </row>
+    <row r="476" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H476" s="2"/>
+    </row>
+    <row r="477" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H477" s="2"/>
+    </row>
+    <row r="478" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H478" s="2"/>
+    </row>
+    <row r="479" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H479" s="2"/>
+    </row>
+    <row r="480" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H480" s="2"/>
+    </row>
+    <row r="481" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H481" s="2"/>
+    </row>
+    <row r="482" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H482" s="2"/>
+    </row>
+    <row r="483" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H483" s="2"/>
+    </row>
+    <row r="484" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H484" s="2"/>
+    </row>
+    <row r="485" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H485" s="2"/>
+    </row>
+    <row r="486" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H486" s="2"/>
+    </row>
+    <row r="487" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H487" s="2"/>
+    </row>
+    <row r="488" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H488" s="2"/>
+    </row>
+    <row r="489" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H489" s="2"/>
+    </row>
+    <row r="490" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H490" s="2"/>
+    </row>
+    <row r="491" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H491" s="2"/>
+    </row>
+    <row r="492" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H492" s="2"/>
+    </row>
+    <row r="493" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H493" s="2"/>
+    </row>
+    <row r="494" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H494" s="2"/>
+    </row>
+    <row r="495" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H495" s="2"/>
+    </row>
+    <row r="496" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H496" s="2"/>
+    </row>
+    <row r="497" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H497" s="2"/>
+    </row>
+    <row r="498" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H498" s="2"/>
+    </row>
+    <row r="499" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H499" s="2"/>
+    </row>
+    <row r="500" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H500" s="2"/>
+    </row>
+    <row r="501" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H501" s="2"/>
+    </row>
+    <row r="502" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H502" s="2"/>
+    </row>
+    <row r="503" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H503" s="2"/>
+    </row>
+    <row r="504" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H504" s="2"/>
+    </row>
+    <row r="505" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H505" s="2"/>
+    </row>
+    <row r="506" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H506" s="2"/>
+    </row>
+    <row r="507" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H507" s="2"/>
+    </row>
+    <row r="508" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H508" s="2"/>
+    </row>
+    <row r="509" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H509" s="2"/>
+    </row>
+    <row r="510" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H510" s="2"/>
+    </row>
+    <row r="511" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H511" s="2"/>
+    </row>
+    <row r="512" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H512" s="2"/>
+    </row>
+    <row r="513" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H513" s="2"/>
+    </row>
+    <row r="514" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H514" s="2"/>
+    </row>
+    <row r="515" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H515" s="2"/>
+    </row>
+    <row r="516" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H516" s="2"/>
+    </row>
+    <row r="517" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H517" s="2"/>
+    </row>
+    <row r="518" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H518" s="2"/>
+    </row>
+    <row r="519" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H519" s="2"/>
+    </row>
+    <row r="520" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H520" s="2"/>
+    </row>
+    <row r="521" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H521" s="2"/>
+    </row>
+    <row r="522" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H522" s="2"/>
+    </row>
+    <row r="523" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H523" s="2"/>
+    </row>
+    <row r="524" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H524" s="2"/>
+    </row>
+    <row r="525" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H525" s="2"/>
+    </row>
+    <row r="526" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H526" s="2"/>
+    </row>
+    <row r="527" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H527" s="2"/>
+    </row>
+    <row r="528" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H528" s="2"/>
+    </row>
+    <row r="529" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H529" s="2"/>
+    </row>
+    <row r="530" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H530" s="2"/>
+    </row>
+    <row r="531" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H531" s="2"/>
+    </row>
+    <row r="532" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H532" s="2"/>
+    </row>
+    <row r="533" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H533" s="2"/>
+    </row>
+    <row r="534" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H534" s="2"/>
+    </row>
+    <row r="535" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H535" s="2"/>
+    </row>
+    <row r="536" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H536" s="2"/>
+    </row>
+    <row r="537" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H537" s="2"/>
+    </row>
+    <row r="538" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H538" s="2"/>
+    </row>
+    <row r="539" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H539" s="2"/>
+    </row>
+    <row r="540" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H540" s="2"/>
+    </row>
+    <row r="541" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H541" s="2"/>
+    </row>
+    <row r="542" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H542" s="2"/>
+    </row>
+    <row r="543" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H543" s="2"/>
+    </row>
+    <row r="544" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H544" s="2"/>
+    </row>
+    <row r="545" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H545" s="2"/>
+    </row>
+    <row r="546" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H546" s="2"/>
+    </row>
+    <row r="547" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H547" s="2"/>
+    </row>
+    <row r="548" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H548" s="2"/>
+    </row>
+    <row r="549" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H549" s="2"/>
+    </row>
+    <row r="550" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H550" s="2"/>
+    </row>
+    <row r="551" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H551" s="2"/>
+    </row>
+    <row r="552" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H552" s="2"/>
+    </row>
+    <row r="553" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H553" s="2"/>
+    </row>
+    <row r="554" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H554" s="2"/>
+    </row>
+    <row r="555" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H555" s="2"/>
+    </row>
+    <row r="556" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H556" s="2"/>
+    </row>
+    <row r="557" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H557" s="2"/>
+    </row>
+    <row r="558" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H558" s="2"/>
+    </row>
+    <row r="559" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H559" s="2"/>
+    </row>
+    <row r="560" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H560" s="2"/>
+    </row>
+    <row r="561" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H561" s="2"/>
+    </row>
+    <row r="562" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H562" s="2"/>
+    </row>
+    <row r="563" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H563" s="2"/>
+    </row>
+    <row r="564" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H564" s="2"/>
+    </row>
+    <row r="565" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H565" s="2"/>
+    </row>
+    <row r="566" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H566" s="2"/>
+    </row>
+    <row r="567" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H567" s="2"/>
+    </row>
+    <row r="568" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H568" s="2"/>
+    </row>
+    <row r="569" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H569" s="2"/>
+    </row>
+    <row r="570" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H570" s="2"/>
+    </row>
+    <row r="571" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H571" s="2"/>
+    </row>
+    <row r="572" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H572" s="2"/>
+    </row>
+    <row r="573" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H573" s="2"/>
+    </row>
+    <row r="574" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H574" s="2"/>
+    </row>
+    <row r="575" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H575" s="2"/>
+    </row>
+    <row r="576" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H576" s="2"/>
+    </row>
+    <row r="577" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H577" s="2"/>
+    </row>
+    <row r="578" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H578" s="2"/>
+    </row>
+    <row r="579" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H579" s="2"/>
+    </row>
+    <row r="580" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H580" s="2"/>
+    </row>
+    <row r="581" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H581" s="2"/>
+    </row>
+    <row r="582" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H582" s="2"/>
+    </row>
+    <row r="583" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H583" s="2"/>
+    </row>
+    <row r="584" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H584" s="2"/>
+    </row>
+    <row r="585" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H585" s="2"/>
+    </row>
+    <row r="586" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H586" s="2"/>
+    </row>
+    <row r="587" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H587" s="2"/>
+    </row>
+    <row r="588" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H588" s="2"/>
+    </row>
+    <row r="589" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H589" s="2"/>
+    </row>
+    <row r="590" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H590" s="2"/>
+    </row>
+    <row r="591" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H591" s="2"/>
+    </row>
+    <row r="592" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H592" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A1D72-31BE-DC4E-8120-B46CC21FD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FDC82-DC60-3045-A725-C8E4426991D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="292">
   <si>
     <t>name</t>
   </si>
@@ -249,12 +249,6 @@
   </si>
   <si>
     <t>אוכל</t>
-  </si>
-  <si>
-    <t>התחום שלי לא מופיע</t>
-  </si>
-  <si>
-    <t>עיצוב</t>
   </si>
   <si>
     <t>מעבדת סלולר</t>
@@ -325,9 +319,6 @@
     <t>טכנאי שרות שערים,אינטרקום,תריסים חשמליים,חשמל</t>
   </si>
   <si>
-    <t>קליניקה נשית בלבד. מתמחה בגניקולוגיה ופיריון</t>
-  </si>
-  <si>
     <t>אנחנו מטפלים בכל תקלה שקשורה לחשמל ותקשורת דודי חשמל . מטען לרכב .שינויים בלוח ועוד . ניסיון של 30 שנה בתחום .</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>050-2222466</t>
   </si>
   <si>
-    <t>054-4329929</t>
-  </si>
-  <si>
     <t>052-5568161</t>
   </si>
   <si>
@@ -556,6 +544,394 @@
   </si>
   <si>
     <t>0542009876</t>
+  </si>
+  <si>
+    <t>דבי ינקו-חדד</t>
+  </si>
+  <si>
+    <t>גיא מישאל</t>
+  </si>
+  <si>
+    <t>רוטשילד קזיאב</t>
+  </si>
+  <si>
+    <t>ממדוב זאוק</t>
+  </si>
+  <si>
+    <t>סוניה כהן</t>
+  </si>
+  <si>
+    <t>יוליה וולוויץ'</t>
+  </si>
+  <si>
+    <t>בן אמו גדי</t>
+  </si>
+  <si>
+    <t>דנה טמסות</t>
+  </si>
+  <si>
+    <t>אפרת ניימן</t>
+  </si>
+  <si>
+    <t>שלמה סיקוראל</t>
+  </si>
+  <si>
+    <t>תהילה בוקרה</t>
+  </si>
+  <si>
+    <t>איילת הימן</t>
+  </si>
+  <si>
+    <t>עדן איתני</t>
+  </si>
+  <si>
+    <t>בתיה ליברמן לונקר</t>
+  </si>
+  <si>
+    <t>ליאור זיני</t>
+  </si>
+  <si>
+    <t>רבקה אליהו</t>
+  </si>
+  <si>
+    <t>לירון בנישתי</t>
+  </si>
+  <si>
+    <t>שרון מרקוביץ</t>
+  </si>
+  <si>
+    <t>debbie.iancu@gmail.com</t>
+  </si>
+  <si>
+    <t>Guymishael@gmail.com</t>
+  </si>
+  <si>
+    <t>rotshildkaziav@gmail.com</t>
+  </si>
+  <si>
+    <t>zzzaur@gmail.com</t>
+  </si>
+  <si>
+    <t>Cohensonia7@gmail.com</t>
+  </si>
+  <si>
+    <t>Jukavol@gmail.com</t>
+  </si>
+  <si>
+    <t>gadibenamo@gmail.com</t>
+  </si>
+  <si>
+    <t>danatamsout@gmail.com</t>
+  </si>
+  <si>
+    <t>neumannefrat@gmail.com</t>
+  </si>
+  <si>
+    <t>yanay112233@gmail.com</t>
+  </si>
+  <si>
+    <t>5555tehilabooqra@gmail.com</t>
+  </si>
+  <si>
+    <t>dreams@ayelethayman.com</t>
+  </si>
+  <si>
+    <t>Batiali@gmail.com</t>
+  </si>
+  <si>
+    <t>rebecca.eliyahu@gmail.com</t>
+  </si>
+  <si>
+    <t>lironbenishti@gmail.com</t>
+  </si>
+  <si>
+    <t>Sharon.markovich1110@gmail.com</t>
+  </si>
+  <si>
+    <t>מנחה סדנאות. שוקולד, צחוק וכתיבה.</t>
+  </si>
+  <si>
+    <t>שיעורי גיטרה</t>
+  </si>
+  <si>
+    <t>חשמלאי מוסמך</t>
+  </si>
+  <si>
+    <t>ממדוב זכור סוכן ביטוח פנסיוני ואלמנטרי/כללי</t>
+  </si>
+  <si>
+    <t>רפלקסולוגיה ופדיקור רפואי</t>
+  </si>
+  <si>
+    <t>אימון אישי , טיפול פסיכותרפיה( מתמחה) למתבגרים ומבוגרים, הדרכת הורים</t>
+  </si>
+  <si>
+    <t>הגברה ותאורה מוסיקה לאירועים</t>
+  </si>
+  <si>
+    <t>סטודיו בוטיק ליוגה - DIVINE YOGA</t>
+  </si>
+  <si>
+    <t>הנדימן לבית</t>
+  </si>
+  <si>
+    <t>אפרת ניימן עבודה סוציאלית ופסיכותרפיה</t>
+  </si>
+  <si>
+    <t>מכון ינאי</t>
+  </si>
+  <si>
+    <t>שרותי בייבי סיטר</t>
+  </si>
+  <si>
+    <t>מאמנת לאורח חיים בריא</t>
+  </si>
+  <si>
+    <t>סלסה לייף סטייל</t>
+  </si>
+  <si>
+    <t>פיקסלס צילום</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים וקבוצתיים במתמטיקה</t>
+  </si>
+  <si>
+    <t>ייעוץ פנסיוני וייעוץ משכנתאות</t>
+  </si>
+  <si>
+    <t>רבקה אליהו - צילום</t>
+  </si>
+  <si>
+    <t>לירון בנישתי קוסמטיקה וטיפוח</t>
+  </si>
+  <si>
+    <t>כי - שרון</t>
+  </si>
+  <si>
+    <t>טיפול והדרכה ריגשית</t>
+  </si>
+  <si>
+    <t>עיצוב פנים</t>
+  </si>
+  <si>
+    <t>רפואה אלטרנטיבית</t>
+  </si>
+  <si>
+    <t>תזונה ואורח חיים בריא</t>
+  </si>
+  <si>
+    <t>עיצוב שמלות</t>
+  </si>
+  <si>
+    <t>בניית אתרים, פרסום</t>
+  </si>
+  <si>
+    <t>סדנאות ופעילויות</t>
+  </si>
+  <si>
+    <t>מורה פרטי</t>
+  </si>
+  <si>
+    <t>ביטוח</t>
+  </si>
+  <si>
+    <t>הגברה ומוסיקה לאירועים</t>
+  </si>
+  <si>
+    <t>אימון גופני</t>
+  </si>
+  <si>
+    <t>חוג</t>
+  </si>
+  <si>
+    <t>צילום</t>
+  </si>
+  <si>
+    <t>ייעוץ פיננסי</t>
+  </si>
+  <si>
+    <t>מכון יופי וקוסמטיקה</t>
+  </si>
+  <si>
+    <t>רפלקסולוגיה</t>
+  </si>
+  <si>
+    <t>רפואה סינית - דיקור , טווינא , כוסות רוח , צמחים קליניקה נשית בלבד. מתמחה בגניקולוגיה ופיריון</t>
+  </si>
+  <si>
+    <t>מנחה סדנאות למבוגרים וילדים. הפעלות לימי הולדת, ימי גיבוש ואירועים.</t>
+  </si>
+  <si>
+    <t>שיעורים בבית התלמיד, יותר מ-20 שנות נסיון!!</t>
+  </si>
+  <si>
+    <t>ביצוע עבודות חשמל ביתיות, התקנות מכשירי חשמל</t>
+  </si>
+  <si>
+    <t>עצמאי, סוכן ביטוח. בעל רישיון פנסיוני וכללי.</t>
+  </si>
+  <si>
+    <t>טיפול רפלקסולוגי - טיפול בכפות הרגלים לאיזון הגוף ובעיות רפואיות. פדיקור טיפול פרארפואי בבעית פטריות ברגלים, סדקים ועוד</t>
+  </si>
+  <si>
+    <t>טיפול ואימון במתבגרים ומבוגרים. 
+התמחות במאובחני ASD, הדרכת הורים.</t>
+  </si>
+  <si>
+    <t>צליל נודד . קריוקי מוסיקה הגברה ותאורה לאירועים</t>
+  </si>
+  <si>
+    <t>סטודיו בוטיק ליוגה, באוירה קסומה מול יער מיתר. קבוצות קטנטנות וליווי צמוד. 
+היוגה בסטודיו מועברת מסורתית כפי שמועברת בהודו ממורה לתלמיד. התרגול כולל ישיבת מדיטציה, נשימה, תנועה יוגית, הרפיה ועיון בטקסטים מסרותיים. 
+כמו כן, יוגה תרפיה לצרכים ממוקדים, אימונים אישיים, סדנאות , ריטריטים מחוץ ליישוב, הזמנת מורים מבחוץ . הכל כדי לחיות מתוך שימחה, אהבה ובריאות ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>ביצוע כל עבודות השיפוצים
+צבע, אנסטלציה ,וחשמל.</t>
+  </si>
+  <si>
+    <t>טיפול רגשי, פסיכותרפיה, cbt, טיפול בחרדות, דכאון, מטפלת בבני נוער ומבוגרים</t>
+  </si>
+  <si>
+    <t>מטפל, עו"ס לילדים ,נוער ומבוגרים, קב"ן מחוזי במילואים במחוז דרום.</t>
+  </si>
+  <si>
+    <t>שרותי בייבי סיטר מהשעה 17.00 אחר הצהריים לא כולל שישי שבת.</t>
+  </si>
+  <si>
+    <t>בונה תפריטים מותאמים אישית 
+ליווי ומעקב צמוד , עוברים את התהליך יחד 
+קבוצת וואטסאפ מלאה בטיפים ומתכונים קלילים 
+מעקב שקילה שבועי אונליין או אופליין 
+יש לי מועדון תזונה בבאר שבע 
+מוכרת גם קינוחים בריאים וטעימים ללא שמן ללא קמח בנוסף , הזדמנות להכנסה נוספת ללא השקעה לכל מי שאוהב לייפסטייל ובריאות</t>
+  </si>
+  <si>
+    <t>קהילת ריקודי סלסה במיתר - זמן איכות שמכניס שמחה לגוף ולנפש. נפגשים לרקוד סלסה בזוגות. אפשר לבוא לבד, בזוג, עם חברים/ות. 
+* רמת מתחילים - ימי שלישי 20:30 * רמת מתקדמים - ימי חמישי 20:30
+עלות לשיעור ראשון 35 ש״ח, הסטודיו נמצא במקלט ברח׳ עקרב 1 
+להרשמה ופרטים צרו איתי קשר 050-9290893</t>
+  </si>
+  <si>
+    <t>עמדת צילום, צילום בוק בת מצווה, מגנטים באירועים, פיתוח תמונות על בלוקי עץ</t>
+  </si>
+  <si>
+    <t>ייעוץ פנסיוני, ביטוח חיים, ביטוח בריאות, השקעות באפיקים פנסיונים
+ייעוץ משכנתאות</t>
+  </si>
+  <si>
+    <t>צילום. בוק בת מצווה, הריון, משפחות, ניובורן, תדמית, אדריכלות ועיצוב פנים, אירועים, עליה לתורה ועוד</t>
+  </si>
+  <si>
+    <t>מניקור ג׳ל, הסרת שיער בלייזר,פדיקור, עיצוב גבות,איפור קבוע, ג׳ל רגליים</t>
+  </si>
+  <si>
+    <t>טיפול בכפות הרגלים לכאב לסטרס ולאיזון</t>
+  </si>
+  <si>
+    <t>http://www.debbie-iancu.co.il</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16Kp3aZD3OXUjc41VNRUmP9OMwmYoO0cj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DHB5JS04TBUsJKmBHZEowDbASbY8t4xD</t>
+  </si>
+  <si>
+    <t>zaur.co.il</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100001056860074&amp;mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wAvnpPZW5wdm4jlzbUd-yaE_sCva36Zz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/booqra?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>https://wa.me/message/RJGTUDRH4FWZL1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ayelet.hayman</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G9Mcluox2VMHEW0oVcocvm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11oBBNbjsK3MD6AEM9Liwq1uRO_X5WdV8</t>
+  </si>
+  <si>
+    <t>https://instagram.com/pixelsphotographs</t>
+  </si>
+  <si>
+    <t>https://card.ayaladesign.co.il/lior-zini/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UFgOF6iGwOZBAdIe-2rzoNdrmnHjFWlL</t>
+  </si>
+  <si>
+    <t>בפייסבוק: רבקה אליהו -צילום</t>
+  </si>
+  <si>
+    <t>052-5194871</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/liron_benishti?igsh=ZHluZjkyOXV5aWdn&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>0546400043</t>
+  </si>
+  <si>
+    <t>0506875720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052-6797774 </t>
+  </si>
+  <si>
+    <t>0545211856</t>
+  </si>
+  <si>
+    <t>0545889091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054-6661847 </t>
+  </si>
+  <si>
+    <t>0506282797</t>
+  </si>
+  <si>
+    <t>0523667949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054-2516835 </t>
+  </si>
+  <si>
+    <t>0504320682</t>
+  </si>
+  <si>
+    <t>0544329929</t>
+  </si>
+  <si>
+    <t>0529463918</t>
+  </si>
+  <si>
+    <t>0509290893</t>
+  </si>
+  <si>
+    <t>0523950207</t>
+  </si>
+  <si>
+    <t>0529203527</t>
+  </si>
+  <si>
+    <t>0525674631</t>
+  </si>
+  <si>
+    <t>0545333745</t>
   </si>
 </sst>
 </file>
@@ -606,7 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,14 +990,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,13 +1339,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:J592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="20.83203125" style="4" customWidth="1"/>
+    <col min="1" max="7" width="20.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="20.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -977,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -991,747 +1372,1171 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="253" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="211" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="71" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="141" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="211" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="252" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="210" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="70" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="F37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="197" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="183" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="140" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1230</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="2"/>
+      <c r="H45" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="2"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="2"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="2"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="2"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H53" s="2"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H54" s="2"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H55" s="2"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H56" s="2"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H57" s="2"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="2"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="2"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="2"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="2"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="2"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="2"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="2"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="2"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="2"/>
@@ -3316,35 +4121,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{42DA6115-6386-1647-B2B2-E58D2D4D2DB2}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{CF89BE45-827A-9145-81BC-CC699F15A863}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{D45B6071-0AF4-4841-9537-8BE919979030}"/>
-    <hyperlink ref="G10" r:id="rId4" xr:uid="{0A55E943-EFB3-B347-AAC0-8C4BF8B85AAF}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{B0D5D2B1-A6F4-BF4B-B51E-1BCB67384B86}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{630DB797-E7AD-6C48-BCD7-7BD427C8EF2E}"/>
-    <hyperlink ref="G13" r:id="rId7" xr:uid="{BCC4EB0A-1181-C54D-9222-A9B01750E366}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{6664F5C2-8CA7-674A-A6A2-08D7646F0B7D}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{40F558F9-6485-AE44-9E12-403A80CADD89}"/>
-    <hyperlink ref="G20" r:id="rId10" xr:uid="{C3CA7083-28B7-2346-955C-618D32BC6CDA}"/>
-    <hyperlink ref="G22" r:id="rId11" display="https://gargi944767058.wordpress.com/" xr:uid="{54247037-3B3C-8148-BAFB-FE7B1E119D16}"/>
-    <hyperlink ref="J3" r:id="rId12" xr:uid="{E6085985-41AD-3247-B7E7-9594CBED5403}"/>
-    <hyperlink ref="I4" r:id="rId13" xr:uid="{2ACBF97B-F793-6849-A998-19624B1CA20D}"/>
-    <hyperlink ref="J4" r:id="rId14" xr:uid="{56069194-A0D4-484E-ABC3-F076AF845F80}"/>
-    <hyperlink ref="I7" r:id="rId15" xr:uid="{C97E32DC-347E-B248-A362-9879FA796B15}"/>
-    <hyperlink ref="J9" r:id="rId16" xr:uid="{C6D3E09C-1EE2-CA41-9842-92023B4BCFAD}"/>
-    <hyperlink ref="J10" r:id="rId17" xr:uid="{0BC330EE-D02E-614F-B7CD-91B569E16D43}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{5371B159-93F5-124C-8369-EABCAAC0F01B}"/>
-    <hyperlink ref="J13" r:id="rId19" xr:uid="{87F6769A-9412-264A-B58C-C4DE6E06DD6A}"/>
-    <hyperlink ref="I15" r:id="rId20" xr:uid="{0F221C08-CE66-6D47-B78B-D4CB01B19770}"/>
-    <hyperlink ref="J15" r:id="rId21" xr:uid="{C8E2AAB1-8CA5-9C42-BDD3-2A6CDFF84F3A}"/>
-    <hyperlink ref="J20" r:id="rId22" xr:uid="{32C75D63-4436-6347-949A-C43E917D53C5}"/>
-    <hyperlink ref="J21" r:id="rId23" xr:uid="{0278FDA7-836C-9C48-A97E-DACC76717C00}"/>
-    <hyperlink ref="J22" r:id="rId24" xr:uid="{8A11889D-37F7-FB46-98B1-DDADE5B04B4D}"/>
-    <hyperlink ref="I24" r:id="rId25" xr:uid="{E502042C-BE46-9747-AB81-83503B98FCCC}"/>
-    <hyperlink ref="J24" r:id="rId26" xr:uid="{DD00EFB5-9652-EC48-8DA5-63C0B2587254}"/>
-    <hyperlink ref="G23" r:id="rId27" xr:uid="{89AFDA41-8392-4944-930B-3F6EA846204B}"/>
-    <hyperlink ref="G24" r:id="rId28" xr:uid="{A1DA4E90-9A6B-8C43-ADF7-0239E640F328}"/>
-    <hyperlink ref="G25" r:id="rId29" display="http://beigale.co.il/" xr:uid="{7CBAEF58-516C-5141-A31D-185016B120DB}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{021AA2A8-1FFE-AE4A-912F-EF3F50D5AAA3}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{C8C638E3-069D-684B-87E4-348AF57B6615}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{106B0F71-235E-9A43-8CFE-CADB0F13B693}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{429D9B58-C591-104B-AC6F-CF7831CC77AA}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{7776AC5D-0876-0D4B-801D-789F9967EC86}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{0FE0122E-CA32-4949-B0DB-30CB246275B9}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{5D388E30-A6D2-834E-81AB-49C38101190A}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{EE5218B8-E426-9C47-BB3B-F9CAA26DEDA6}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{D795B85B-EB70-A148-B92B-3AA4EF2ED71C}"/>
+    <hyperlink ref="J10" r:id="rId10" xr:uid="{C13CE5E1-19DA-3A48-B782-07E3584FCD5B}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{1C2C3D59-5B3A-3F40-B72C-2EFF170B3694}"/>
+    <hyperlink ref="I11" r:id="rId12" xr:uid="{F51977DE-3EE5-E948-B2AB-BDD5C8FB752A}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{B1CB326D-0934-B94B-91EE-A535C12B0F9A}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{BDAA792B-F1CA-D84D-A558-58D64C2AA475}"/>
+    <hyperlink ref="J13" r:id="rId15" xr:uid="{57B3D5A1-C143-6B4A-8416-31BDE948C2B1}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{8CBB25E0-5AC3-C84F-A9E5-02DC1F15B033}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{E5ECBC4B-E45D-5048-A560-3DE662202E9D}"/>
+    <hyperlink ref="J15" r:id="rId18" xr:uid="{B78D904C-AF44-D246-A142-162E48CF67F3}"/>
+    <hyperlink ref="G17" r:id="rId19" xr:uid="{D06F9A6E-3170-644E-A7A5-CB7C7076BAA2}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{6C15656F-F6F5-294E-B4B7-293C1591ED09}"/>
+    <hyperlink ref="J20" r:id="rId21" xr:uid="{7BD09307-6AFF-AA4A-9A00-404C92FB287E}"/>
+    <hyperlink ref="J21" r:id="rId22" xr:uid="{17BCC98A-FB7E-7244-A4D5-CDFD723E8F98}"/>
+    <hyperlink ref="G22" r:id="rId23" display="https://gargi944767058.wordpress.com/" xr:uid="{2A20C3D0-915D-C846-923A-5B2982203973}"/>
+    <hyperlink ref="J22" r:id="rId24" xr:uid="{FA79AB73-D6BB-D842-B5A6-6554036C0168}"/>
+    <hyperlink ref="G23" r:id="rId25" xr:uid="{296EABA5-A132-234B-8329-D6D14C4A264D}"/>
+    <hyperlink ref="G24" r:id="rId26" xr:uid="{4312B2E2-3D7B-7245-B288-EC9E4F9C7685}"/>
+    <hyperlink ref="I24" r:id="rId27" xr:uid="{0DFC89E6-D3E5-1A4F-AACD-BE203C3382B8}"/>
+    <hyperlink ref="J24" r:id="rId28" xr:uid="{0751F25A-778E-4F44-81BE-11A526014A4C}"/>
+    <hyperlink ref="G25" r:id="rId29" display="http://beigale.co.il/" xr:uid="{C7B63F85-848D-BA4E-BB0D-CB1E219E2E0E}"/>
+    <hyperlink ref="G26" r:id="rId30" display="http://www.debbie-iancu.co.il/" xr:uid="{C94443FF-BECD-EC48-893C-AF1E8C40B6A2}"/>
+    <hyperlink ref="J26" r:id="rId31" xr:uid="{2A86376A-F2FD-614C-9BCE-6201CBA69CC1}"/>
+    <hyperlink ref="J27" r:id="rId32" xr:uid="{A2D18A74-EFF9-824F-B3D1-A10197CB279B}"/>
+    <hyperlink ref="G29" r:id="rId33" display="http://zaur.co.il/" xr:uid="{172E5E87-AD38-D74D-BE98-E7C209BDC4F5}"/>
+    <hyperlink ref="G33" r:id="rId34" xr:uid="{2AD2AAED-0DC1-FF40-955E-5B3AB09E5E8A}"/>
+    <hyperlink ref="J33" r:id="rId35" xr:uid="{28182AFA-D44B-2E4C-908D-54A18D300E20}"/>
+    <hyperlink ref="G38" r:id="rId36" xr:uid="{11BC111C-4F53-764B-8956-4D6CE816C54D}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{218FEFDF-4EFC-D644-896D-39A0DB5CFF47}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{75F08786-B1C1-B94E-956D-A00435F24550}"/>
+    <hyperlink ref="I39" r:id="rId39" xr:uid="{53BEEA2A-73D8-BC41-B295-AAF11BB473C8}"/>
+    <hyperlink ref="J39" r:id="rId40" xr:uid="{E4DB7D6E-DA48-4B43-8AB2-C8639714D94C}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{759671DE-A3F7-1D4C-AEF6-0C3B7CE2B0E1}"/>
+    <hyperlink ref="J42" r:id="rId42" xr:uid="{DE7E6B6C-9EC2-FC41-A237-27F8B4D0ED5B}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{3FA572D9-9520-CD46-BC8A-EF1E32F9B3D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FDC82-DC60-3045-A725-C8E4426991D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506873BC-E75D-0349-B658-AE40E8795C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="299">
   <si>
     <t>name</t>
   </si>
@@ -932,6 +932,27 @@
   </si>
   <si>
     <t>0545333745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אזולאי שלמה </t>
+  </si>
+  <si>
+    <t>adiv1223@walla.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביובית אינסטלציה כללית דודי שמש ואיתורי נזילות טיפול בניאגרות סמויות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שירות ביובית שחרור סתימות אינסטלציה וביובים עיקור שוקשים דודי שמש שירות עיקור שורשים טיפול בקווי ביוב </t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-746-5416 </t>
+  </si>
+  <si>
+    <t>https://wa.link/tup0wo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vb6sOXvkFCuREGfM5cV9YOltwDx8hqQ8</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:J592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,8 +2369,7 @@
       <c r="F40" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>268</v>
       </c>
       <c r="I40" s="4"/>
@@ -2479,7 +2499,30 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H46" s="7"/>
+      <c r="A46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H47" s="7"/>
@@ -4164,6 +4207,8 @@
     <hyperlink ref="I42" r:id="rId41" xr:uid="{759671DE-A3F7-1D4C-AEF6-0C3B7CE2B0E1}"/>
     <hyperlink ref="J42" r:id="rId42" xr:uid="{DE7E6B6C-9EC2-FC41-A237-27F8B4D0ED5B}"/>
     <hyperlink ref="G44" r:id="rId43" xr:uid="{3FA572D9-9520-CD46-BC8A-EF1E32F9B3D4}"/>
+    <hyperlink ref="I46" r:id="rId44" xr:uid="{920DBC24-187D-A94D-9C86-E057129338B3}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{5F2F376C-6FB2-0A4A-BB62-936982CEC624}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506873BC-E75D-0349-B658-AE40E8795C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5049DF-6B5C-D648-8E7A-39C41BD80C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="674">
   <si>
     <t>name</t>
   </si>
@@ -83,12 +83,6 @@
     <t>ליאת גל</t>
   </si>
   <si>
-    <t>הגר טביבזדה</t>
-  </si>
-  <si>
-    <t>לימור סולימני</t>
-  </si>
-  <si>
     <t>מיטל וויס חרזי</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Talieinavtherapy@gmail.com</t>
   </si>
   <si>
-    <t>Bibish29@gmail.com</t>
-  </si>
-  <si>
     <t>magicforme@gmail.com</t>
   </si>
   <si>
@@ -146,18 +137,12 @@
     <t>Hagar3883@gmail.com</t>
   </si>
   <si>
-    <t>אוהד טביבזדה</t>
-  </si>
-  <si>
     <t>גלית אוחיון</t>
   </si>
   <si>
     <t>טלי עינב ספיר</t>
   </si>
   <si>
-    <t>אבי בן דיין</t>
-  </si>
-  <si>
     <t>מלני בר</t>
   </si>
   <si>
@@ -197,33 +182,18 @@
     <t>מנעולן</t>
   </si>
   <si>
-    <t>אבחון פסיכו-דידקטי, מבדק מוקסו והוראה מותאמת</t>
-  </si>
-  <si>
     <t>Sweet4u</t>
   </si>
   <si>
     <t>לימור סולימני- הדרכת הורים ויעוץ זוגי .</t>
   </si>
   <si>
-    <t>סטודיו סטמפה - עיצוב פנים</t>
-  </si>
-  <si>
-    <t>Silver סלולר ומחשבים</t>
-  </si>
-  <si>
     <t>בייבי סיטר</t>
   </si>
   <si>
     <t>טיפול במגע - עיסוי רפואי ואורתופדי שיקומי</t>
   </si>
   <si>
-    <t>אינטרקום</t>
-  </si>
-  <si>
-    <t>מטפלת ברפואה סינית קליניקה נשית בלבד</t>
-  </si>
-  <si>
     <t>י.ב פרוייקטים</t>
   </si>
   <si>
@@ -272,15 +242,9 @@
     <t>טיפול פסיכולוגי בילדים ונוער (חרדה, אובדנות, מיומנויות חברתיות ועוד), אבחונים: פסיכו-דידקטי, פסיכולוגי, הדלגה, הערכות אובדנות, הדרכות הורים</t>
   </si>
   <si>
-    <t>התקנות תיקונים בבית צבע לבית מקלחונים</t>
-  </si>
-  <si>
     <t>שירותי הנדימן, התמחות ברשתות יתושים עמידות בפני בע''ח, דלתות מחמד ועוד</t>
   </si>
   <si>
-    <t>שרות בתחום המחשוב ,שרתים ,מערכת אזעקה ומצלמות . תיכנון ובתים בבניה</t>
-  </si>
-  <si>
     <t>שירות משפטי בתחום המקרקעין, נזיקין ומשפחה</t>
   </si>
   <si>
@@ -288,17 +252,6 @@
   </si>
   <si>
     <t>ותק, נסיון ומקצועיות. מחירים נוחים</t>
-  </si>
-  <si>
-    <t>שמי ליאת גל, מאבחנת דידקטית מוסמכת ללקויות למידה(M.A) ומורת שילוב במשרד החינוך(תעודת הוראה בחינוך מיוחד). מקבלת במיתר: לאבחונים דידקטיים ופסיכו דידקטיים(בשילוב פסיכולוגית), מעבירה מבדק מוקסו לבדיקת תפקודי קשב, מורה להוראה מותאמת לכל הגילאים ומעבירה סדנאות למוכנות לכיתה א'. אשמח לתת שירות ולסייע לכל מה שצריך.</t>
-  </si>
-  <si>
-    <t>עיצוב עוגות בהזמנה אישית , מארזים מתוקים , עוגיות , עוגות לשבת</t>
-  </si>
-  <si>
-    <t>שמי לימור סולימני, ובעלת ניסיון בטיפול במתבגרים מעל 20 שנה. הקליניקה שלי עוסקת בהדרכת הורים למתבגרים, טיפול במתבגרים- עם הפרעת קשב ובעיות התנהגות, יעוץ זוגי וטיפול רגשי לאימהות ליצירת שינוי ביחסים בבית ובמשפחה. 
-השירותים והמוצרים שלי בעסק מגוונים - הרצאות, סדנאות, קבוצת ווטסאפ חינמית, מדרכי וידאו ללא עלות, מפגש חד פעמי ליצירת שינוי, מפגשים לצורך בעיה מסוימת, וטיפול ארוך טווח בין 10-15 פגישות.
-המפגשים יכולים להיות בזום או בקליניקה בבאר שבע.</t>
   </si>
   <si>
     <t>סטודיו לעיצוב פנים שנולד ללוות אנשים, בעלי עסקים וחברות בתהליכי תכנון, עיצוב אבזור וסטיילינג. 
@@ -307,16 +260,7 @@
 אשמח ללוות אתכם בתהליך הייחודי שלכם!</t>
   </si>
   <si>
-    <t>תיקון ומכירה שדרוג סלולר ומחשבים</t>
-  </si>
-  <si>
     <t>שרותי בייביסיטר בשעות אחר הצהריים</t>
-  </si>
-  <si>
-    <t>תרפיסטית במגע - עיסוי רפואי ואורתופדי שיקומי. התמחות בטיפול בכאב כרוני הנובע ממערכת התנועה. כולל עיסוי ספורטאים והריון.</t>
-  </si>
-  <si>
-    <t>טכנאי שרות שערים,אינטרקום,תריסים חשמליים,חשמל</t>
   </si>
   <si>
     <t>אנחנו מטפלים בכל תקלה שקשורה לחשמל ותקשורת דודי חשמל . מטען לרכב .שינויים בלוח ועוד . ניסיון של 30 שנה בתחום .</t>
@@ -326,9 +270,6 @@
 דודי שמש ,תיקון נזילות בבית ובגינה,התקנת ברזים,שחרור סתימות,ניקוי מרזבים ועוד...</t>
   </si>
   <si>
-    <t>קצביית דורין בשרים הנתחים הטובים והמובחרים ביותר בשוק במחירים נוחים!</t>
-  </si>
-  <si>
     <t>מתמחה בבריאות האישה בגיל השלישי- גוף נפש, איזון הורמונאלי, תופעות גיל המעבר, בריאות העצם, דלקות מפרקים, פיברומיאלגיה. המפגש כולל אבחון אירידיולוגי (דרך גלגל העין) ואבחון ע"י שאלון מובנה, בניית תכנית טיפול מותאמת אישית: תזונה, צמחי מרפא ותוספי מזון על פי הצורך.</t>
   </si>
   <si>
@@ -509,9 +450,6 @@
     <t>yanirshukrun@gmail.com</t>
   </si>
   <si>
-    <t>לי-בר פירות</t>
-  </si>
-  <si>
     <t>ידידים - סיוע בדרכים</t>
   </si>
   <si>
@@ -519,9 +457,6 @@
   </si>
   <si>
     <t>סיוע בדרכים</t>
-  </si>
-  <si>
-    <t>מגשי פירות מעוצבים לכל סוג של אירוע. החל מ150 שח</t>
   </si>
   <si>
     <t>הארגון מספק עזרה ראשונה לא רפואית ללא כל עלות, בדרכים ובבתים בשלל תחומים, בהם: הנעת הרכב, סיוע בהחלפת גלגל, פתיחת רכב שננעל ועוד.
@@ -549,9 +484,6 @@
     <t>דבי ינקו-חדד</t>
   </si>
   <si>
-    <t>גיא מישאל</t>
-  </si>
-  <si>
     <t>רוטשילד קזיאב</t>
   </si>
   <si>
@@ -579,9 +511,6 @@
     <t>תהילה בוקרה</t>
   </si>
   <si>
-    <t>איילת הימן</t>
-  </si>
-  <si>
     <t>עדן איתני</t>
   </si>
   <si>
@@ -594,9 +523,6 @@
     <t>רבקה אליהו</t>
   </si>
   <si>
-    <t>לירון בנישתי</t>
-  </si>
-  <si>
     <t>שרון מרקוביץ</t>
   </si>
   <si>
@@ -648,12 +574,6 @@
     <t>Sharon.markovich1110@gmail.com</t>
   </si>
   <si>
-    <t>מנחה סדנאות. שוקולד, צחוק וכתיבה.</t>
-  </si>
-  <si>
-    <t>שיעורי גיטרה</t>
-  </si>
-  <si>
     <t>חשמלאי מוסמך</t>
   </si>
   <si>
@@ -672,21 +592,12 @@
     <t>סטודיו בוטיק ליוגה - DIVINE YOGA</t>
   </si>
   <si>
-    <t>הנדימן לבית</t>
-  </si>
-  <si>
-    <t>אפרת ניימן עבודה סוציאלית ופסיכותרפיה</t>
-  </si>
-  <si>
     <t>מכון ינאי</t>
   </si>
   <si>
     <t>שרותי בייבי סיטר</t>
   </si>
   <si>
-    <t>מאמנת לאורח חיים בריא</t>
-  </si>
-  <si>
     <t>סלסה לייף סטייל</t>
   </si>
   <si>
@@ -726,9 +637,6 @@
     <t>בניית אתרים, פרסום</t>
   </si>
   <si>
-    <t>סדנאות ופעילויות</t>
-  </si>
-  <si>
     <t>מורה פרטי</t>
   </si>
   <si>
@@ -756,34 +664,10 @@
     <t>רפלקסולוגיה</t>
   </si>
   <si>
-    <t>רפואה סינית - דיקור , טווינא , כוסות רוח , צמחים קליניקה נשית בלבד. מתמחה בגניקולוגיה ופיריון</t>
-  </si>
-  <si>
-    <t>מנחה סדנאות למבוגרים וילדים. הפעלות לימי הולדת, ימי גיבוש ואירועים.</t>
-  </si>
-  <si>
     <t>שיעורים בבית התלמיד, יותר מ-20 שנות נסיון!!</t>
   </si>
   <si>
-    <t>ביצוע עבודות חשמל ביתיות, התקנות מכשירי חשמל</t>
-  </si>
-  <si>
-    <t>עצמאי, סוכן ביטוח. בעל רישיון פנסיוני וכללי.</t>
-  </si>
-  <si>
-    <t>טיפול רפלקסולוגי - טיפול בכפות הרגלים לאיזון הגוף ובעיות רפואיות. פדיקור טיפול פרארפואי בבעית פטריות ברגלים, סדקים ועוד</t>
-  </si>
-  <si>
-    <t>טיפול ואימון במתבגרים ומבוגרים. 
-התמחות במאובחני ASD, הדרכת הורים.</t>
-  </si>
-  <si>
     <t>צליל נודד . קריוקי מוסיקה הגברה ותאורה לאירועים</t>
-  </si>
-  <si>
-    <t>סטודיו בוטיק ליוגה, באוירה קסומה מול יער מיתר. קבוצות קטנטנות וליווי צמוד. 
-היוגה בסטודיו מועברת מסורתית כפי שמועברת בהודו ממורה לתלמיד. התרגול כולל ישיבת מדיטציה, נשימה, תנועה יוגית, הרפיה ועיון בטקסטים מסרותיים. 
-כמו כן, יוגה תרפיה לצרכים ממוקדים, אימונים אישיים, סדנאות , ריטריטים מחוץ ליישוב, הזמנת מורים מבחוץ . הכל כדי לחיות מתוך שימחה, אהבה ובריאות ❤️❤️❤️</t>
   </si>
   <si>
     <t>ביצוע כל עבודות השיפוצים
@@ -799,160 +683,1414 @@
     <t>שרותי בייבי סיטר מהשעה 17.00 אחר הצהריים לא כולל שישי שבת.</t>
   </si>
   <si>
-    <t>בונה תפריטים מותאמים אישית 
+    <t>קהילת ריקודי סלסה במיתר - זמן איכות שמכניס שמחה לגוף ולנפש. נפגשים לרקוד סלסה בזוגות. אפשר לבוא לבד, בזוג, עם חברים/ות. 
+* רמת מתחילים - ימי שלישי 20:30 * רמת מתקדמים - ימי חמישי 20:30
+עלות לשיעור ראשון 35 ש״ח, הסטודיו נמצא במקלט ברח׳ עקרב 1 
+להרשמה ופרטים צרו איתי קשר 050-9290893</t>
+  </si>
+  <si>
+    <t>עמדת צילום, צילום בוק בת מצווה, מגנטים באירועים, פיתוח תמונות על בלוקי עץ</t>
+  </si>
+  <si>
+    <t>ייעוץ פנסיוני, ביטוח חיים, ביטוח בריאות, השקעות באפיקים פנסיונים
+ייעוץ משכנתאות</t>
+  </si>
+  <si>
+    <t>צילום. בוק בת מצווה, הריון, משפחות, ניובורן, תדמית, אדריכלות ועיצוב פנים, אירועים, עליה לתורה ועוד</t>
+  </si>
+  <si>
+    <t>טיפול בכפות הרגלים לכאב לסטרס ולאיזון</t>
+  </si>
+  <si>
+    <t>http://www.debbie-iancu.co.il</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16Kp3aZD3OXUjc41VNRUmP9OMwmYoO0cj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DHB5JS04TBUsJKmBHZEowDbASbY8t4xD</t>
+  </si>
+  <si>
+    <t>zaur.co.il</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100001056860074&amp;mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wAvnpPZW5wdm4jlzbUd-yaE_sCva36Zz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/booqra?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>https://wa.me/message/RJGTUDRH4FWZL1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ayelet.hayman</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G9Mcluox2VMHEW0oVcocvm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11oBBNbjsK3MD6AEM9Liwq1uRO_X5WdV8</t>
+  </si>
+  <si>
+    <t>https://instagram.com/pixelsphotographs</t>
+  </si>
+  <si>
+    <t>https://card.ayaladesign.co.il/lior-zini/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UFgOF6iGwOZBAdIe-2rzoNdrmnHjFWlL</t>
+  </si>
+  <si>
+    <t>בפייסבוק: רבקה אליהו -צילום</t>
+  </si>
+  <si>
+    <t>052-5194871</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/liron_benishti?igsh=ZHluZjkyOXV5aWdn&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>יש</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>0546400043</t>
+  </si>
+  <si>
+    <t>0506875720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052-6797774 </t>
+  </si>
+  <si>
+    <t>0545211856</t>
+  </si>
+  <si>
+    <t>0545889091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054-6661847 </t>
+  </si>
+  <si>
+    <t>0506282797</t>
+  </si>
+  <si>
+    <t>0523667949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054-2516835 </t>
+  </si>
+  <si>
+    <t>0504320682</t>
+  </si>
+  <si>
+    <t>0544329929</t>
+  </si>
+  <si>
+    <t>0529463918</t>
+  </si>
+  <si>
+    <t>0509290893</t>
+  </si>
+  <si>
+    <t>0523950207</t>
+  </si>
+  <si>
+    <t>0529203527</t>
+  </si>
+  <si>
+    <t>0525674631</t>
+  </si>
+  <si>
+    <t>0545333745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אזולאי שלמה </t>
+  </si>
+  <si>
+    <t>adiv1223@walla.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-746-5416 </t>
+  </si>
+  <si>
+    <t>https://wa.link/tup0wo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vb6sOXvkFCuREGfM5cV9YOltwDx8hqQ8</t>
+  </si>
+  <si>
+    <t>טכנאי שרות שערים חשמליים, אינטרקום,תריסים חשמליים,חשמל</t>
+  </si>
+  <si>
+    <t>קצביית דורין בשרים הנתחים הטובים והמובחרים ביותר בשוק במחירים נוחים! מוצרי מנגל, מעשנה, מוצרי מטבח</t>
+  </si>
+  <si>
+    <t>סדנאות, פעילויות והרצאות</t>
+  </si>
+  <si>
+    <t>איתני רונית</t>
+  </si>
+  <si>
+    <t>Roniteitani17@gmail.com</t>
+  </si>
+  <si>
+    <t>איפור</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/roniteitanimakeup/#</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Tm58Fjss5ZheHZ_KJwiVkW1T3gd9ro0u</t>
+  </si>
+  <si>
+    <t>alin.adv1984@gmail.com</t>
+  </si>
+  <si>
+    <t>עורכת דין</t>
+  </si>
+  <si>
+    <t>ייצוג חשודים, נאשמים ונפגעי עבירה בתחום הפלילי</t>
+  </si>
+  <si>
+    <t>יניב בן-עטר</t>
+  </si>
+  <si>
+    <t>yanivbenatar@gmail.com</t>
+  </si>
+  <si>
+    <t>טכנאי מזגנים והנדימן</t>
+  </si>
+  <si>
+    <t>מיזוג</t>
+  </si>
+  <si>
+    <t>טכנאי מזגנים, תיקונים בלבד. הנדימן. תיקון דוד שמש, תיקון והפעלת קמין, תיקוני אינסטלציה קטנים, תעודת חשמלאי מעשי.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yanfix.co.il?locale=he_IL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Y5K5XZNpDnVGxUymxpJnPA_LOSLTAsQy</t>
+  </si>
+  <si>
+    <t>Romanplo@gmail.com</t>
+  </si>
+  <si>
+    <t>הנדסה וייעוץ בטיחות</t>
+  </si>
+  <si>
+    <t>חן יונה</t>
+  </si>
+  <si>
+    <t>Yonachen75@gmail.com</t>
+  </si>
+  <si>
+    <t>Nia מורה לניה- שיטת אימון וריקוד</t>
+  </si>
+  <si>
+    <t>Nia
+לעשות כושר בהנאה!
+שעה של כיף בשיטת nia, המשלבת אומנויות ריקוד, ריפוי ולחימה, על רקע מוסיקה סוחפת ויוצרת חווית שחרור, הנאה וחיבור עצמי.
+מתאים לכל גיל, אין צורך בניסיון קודם.</t>
+  </si>
+  <si>
+    <t>אילנית אסרף</t>
+  </si>
+  <si>
+    <t>ilanitasraf77@gmail.com</t>
+  </si>
+  <si>
+    <t>מוקה ספא</t>
+  </si>
+  <si>
+    <t>ספר כלבים</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sEIVf5XVyqAtWPv4CjjUzSuWjyDGa__n</t>
+  </si>
+  <si>
+    <t>ניסים זיני</t>
+  </si>
+  <si>
+    <t>Zini.nisim@gmail.com</t>
+  </si>
+  <si>
+    <t>מעצב שיער</t>
+  </si>
+  <si>
+    <t>ספר</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/ZINIHairSalon</t>
+  </si>
+  <si>
+    <t>משה נוימן</t>
+  </si>
+  <si>
+    <t>נוימן הפקות</t>
+  </si>
+  <si>
+    <t>דיגיי, קריוקי, שירתי קייטרינג, הפעלות, משחקי שולחן ועוד.</t>
+  </si>
+  <si>
+    <t>https://noiman-group.co.il/%D7%A0%D7%95%D7%99%D7%9E%D7%9F-%D7%94%D7%A4%D7%A7%D7%95%D7%AA/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CtFtbJLsRdJJYERAMtLDERMtPvcRiL33</t>
+  </si>
+  <si>
+    <t>נוימן רואים חשבון אחרת</t>
+  </si>
+  <si>
+    <t>הנהלת חשבונות</t>
+  </si>
+  <si>
+    <t>הנהלת חשבונות, פתיחת תיקים ברשויות, דוחות שנתיים, החזרי מס לשכירים, יעוץ עסקי ויעוץ פיננסי.</t>
+  </si>
+  <si>
+    <t>Www.noiman-group.co.il</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OyV-0_SSMTnTDry5d_-MLgHkaM8ELewn</t>
+  </si>
+  <si>
+    <t>ענבל מימוני</t>
+  </si>
+  <si>
+    <t>Inbali210@walla.co.il</t>
+  </si>
+  <si>
+    <t>050-6539746</t>
+  </si>
+  <si>
+    <t>amir.dance@gmail.com</t>
+  </si>
+  <si>
+    <t>A.Dance</t>
+  </si>
+  <si>
+    <t>סטודיו למחול העוסק במגוון רחב של סגנונות ריקוד. שיעורי מחול לכל הגילאים, שמחזיקים את הגוף והנפש , בנוסף הסטודיו עובד על מס' ערכים כמו: ביטחון, ביטוי עצמי , הישגיות , משמעת עצמית, סבלנות , תרבות ועוד......</t>
+  </si>
+  <si>
+    <t>https://www.dancestudioamir.com/</t>
+  </si>
+  <si>
+    <t>https://wa.me/972506539746</t>
+  </si>
+  <si>
+    <t>ביגוד ואביזרים</t>
+  </si>
+  <si>
+    <t>ביגוד ואקססוריס יד 2 לכל הגילאים כל פריט 10 שקלים</t>
+  </si>
+  <si>
+    <t>אלון אלדור</t>
+  </si>
+  <si>
+    <t>ציוד רפואי ושיקומי</t>
+  </si>
+  <si>
+    <t>Www.eldorms.co.il</t>
+  </si>
+  <si>
+    <t>שאול דיוויס</t>
+  </si>
+  <si>
+    <t>saul.davis@gmail.com</t>
+  </si>
+  <si>
+    <t>www.lawinisrael.net</t>
+  </si>
+  <si>
+    <t>לאון לוינסון</t>
+  </si>
+  <si>
+    <t>Leonlev78@gmail.com</t>
+  </si>
+  <si>
+    <t>לוינסון - שמאות מקרקעין</t>
+  </si>
+  <si>
+    <t>נדל"ן ומקרקעין</t>
+  </si>
+  <si>
+    <t>עצמאי עובד עם משרד שמאות מהותיקים בבאר שבע בתחום שמאות מקרקעין אבי נחום- שומה טרום רכישה, שומה לבנק, תקן 19, היטל השבחה</t>
+  </si>
+  <si>
+    <t>רותי אוליבסטאם</t>
+  </si>
+  <si>
+    <t>rutiolivestam@gamil.com</t>
+  </si>
+  <si>
+    <t>מתפרת רותי</t>
+  </si>
+  <si>
+    <t>מתפרה</t>
+  </si>
+  <si>
+    <t>תיקונים של בגדים+מדים
+ביגדי ים,ווילונות,ועוד....</t>
+  </si>
+  <si>
+    <t>מעוניינת</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iQKOhvuvS7i50w26rdxdwLDNElfiu6ib</t>
+  </si>
+  <si>
+    <t>דוד קודיש</t>
+  </si>
+  <si>
+    <t>david.codish@gmail.com</t>
+  </si>
+  <si>
+    <t>דוד קודיש - מתמטיקה</t>
+  </si>
+  <si>
+    <t>https://davidcodish.com/mathkits/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CT2B4SX4hhDWoJIEB_71viFWP-JnARX_</t>
+  </si>
+  <si>
+    <t>שי פינטו</t>
+  </si>
+  <si>
+    <t>Shaypinto.sp@gmail.com</t>
+  </si>
+  <si>
+    <t>שי פינטו נכסי יוקרה ודירות בבאר שבע</t>
+  </si>
+  <si>
+    <t>תיווך נדל"ן ליווי קונים/מוכרים בתהליך מכירה וקניה של נכסי נדל"ן במיתר ובאזור הדרום.ליווי מקצועי ואמין זמינות בכל שעה ולכל מטרה. ייעוץ ופגישה ראשונית ללא התחייבות וללא עלות.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pintoshay?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>אייל סיטרוק</t>
+  </si>
+  <si>
+    <t>Eyalsit@gmail.com</t>
+  </si>
+  <si>
+    <t>שירותי מחשוב בבית הלקוח. תיקון שדרוג ומכירה.</t>
+  </si>
+  <si>
+    <t>https://www.midrag.co.il/SpCard/Sp/14099?sectorId=7&amp;listId=1</t>
+  </si>
+  <si>
+    <t>נוית לוי</t>
+  </si>
+  <si>
+    <t>054-8195789</t>
+  </si>
+  <si>
+    <t>Navit.Levi86@gmail.com</t>
+  </si>
+  <si>
+    <t>PediCare</t>
+  </si>
+  <si>
+    <t>טיפוח ציפורניים</t>
+  </si>
+  <si>
+    <t>אחות מוסמכת, פדיקור פרא-רפואי, כף רגל סכרתית /פטרת/יבלות/ציפורן חודרנית. פדיקור ספא.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/navit.pedicare?igsh=MXAwZmZyejgwc202bQ%3D%3D&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>משי כהן</t>
+  </si>
+  <si>
+    <t>meshibitonn@gmail.com</t>
+  </si>
+  <si>
+    <t>עוגות יום הולדת
+קינוחים מארזים שמרים בכשרות בדץ יוסף</t>
+  </si>
+  <si>
+    <t>‏לשליחת הודעה אל משי כהן meshi cohen ב-WhatsApp. ‏https://wa.me/972525991190</t>
+  </si>
+  <si>
+    <t>יובל פרץ</t>
+  </si>
+  <si>
+    <t>Yuvalperets1@gmail.com</t>
+  </si>
+  <si>
+    <t>אני יובל, עוסקת בעיצוב גבות טבעיות והתאמה אישית לפרצוף של כל לקוחה בצורה העדינה והטבעית ביותר. בנוסף מתחילה בקרוב לקבל להרמת ריסים והרמת גבות❤️</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yp_eyebrows?igsh=MXFyZTQwZ2R6b21xNg%3D%3D&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>צ'יבוטרו יקי</t>
+  </si>
+  <si>
+    <t>050-5306079</t>
+  </si>
+  <si>
+    <t>iritchibotero1@gmail.com</t>
+  </si>
+  <si>
+    <t>שרותי הדרום</t>
+  </si>
+  <si>
+    <t>שרותי הדרום- תיקון והתקנת דוודי שמש/ חשמל, קולטים , תיקון והתקנת מזגנים</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1k-NmFVTkCDmwaCAwKBMnpLDDBaN596OV</t>
+  </si>
+  <si>
+    <t>חן ביטון</t>
+  </si>
+  <si>
+    <t>Henbito@gmail.com</t>
+  </si>
+  <si>
+    <t>כלביטון</t>
+  </si>
+  <si>
+    <t>חומרי בניין וכלי עבודה</t>
+  </si>
+  <si>
+    <t>08-6199200</t>
+  </si>
+  <si>
+    <t>ויקטור חיון</t>
+  </si>
+  <si>
+    <t>okianosplumbing@gmail.com</t>
+  </si>
+  <si>
+    <t>מערכות אינסטלציה חדשות- תיקון פיצוצי צנרת - התקנת ברזים וכלים סניטריים - הארכת צנרת מים - התקנת נקודת מים - התקנת ברזים - התקנת אסלות - התקנת כיורים - תיקון צנרת שיפוץ מקלחות ומערכות ביוב, פתיחת סתימות</t>
+  </si>
+  <si>
+    <t>https://victor.localo.site/?utm_source=google_profile&amp;utm_campaign=localo&amp;utm_medium=mainlink</t>
+  </si>
+  <si>
+    <t>טיפולים פסיכולוגים בנוער: אובדנות, חרדה, דיכאון, מיומנויות חברתיות. בנוסף, גם מאבחנת: הערכת סיכון אובדני, הדלגה, אבחון פסיכולוגי, אבחון פסיכו-דידקטי</t>
+  </si>
+  <si>
+    <t>ציבוטרו יקי</t>
+  </si>
+  <si>
+    <t>דוד שמש וקולטים</t>
+  </si>
+  <si>
+    <t>התקנה, אספקה ותיקון דוודי שמש/ חשמל ומיזוג אוויר</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VQEYzS0YD7eDg8sH15oURxQjNbO7acaL</t>
+  </si>
+  <si>
+    <t>אדוה ברזילי - סטודיו בוטיקה</t>
+  </si>
+  <si>
+    <t>advashalhevet@gmail.com</t>
+  </si>
+  <si>
+    <t>https://studioboutika.com/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nlBSBRWV2k6tO1q3FVoXCxnaC3gbwQb2</t>
+  </si>
+  <si>
+    <t>רם דונל</t>
+  </si>
+  <si>
+    <t>ramdonnell.co.il</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ehZza5NL66kJhZXtzGh6KuUkSlLV8gGp</t>
+  </si>
+  <si>
+    <t>eaty3864@gmail.com</t>
+  </si>
+  <si>
+    <t>כביסה וגיהוץ</t>
+  </si>
+  <si>
+    <t>שרותי כביסה גיהוץ ניקוי יבש וכו</t>
+  </si>
+  <si>
+    <t>דוראל ארזואן</t>
+  </si>
+  <si>
+    <t>dorela201478@gmail.com</t>
+  </si>
+  <si>
+    <t>לוכד נחשים</t>
+  </si>
+  <si>
+    <t>בעלי חיים</t>
+  </si>
+  <si>
+    <t>לכידת נחשים, סריקה, ייעוץ בנושא. 5 שנים וותק. כולל הרצאות ומדריך בתחום</t>
+  </si>
+  <si>
+    <t>sodhadama@gmail.com</t>
+  </si>
+  <si>
+    <t>גינון</t>
+  </si>
+  <si>
+    <t>Sodhadama.co.il</t>
+  </si>
+  <si>
+    <t>הראל תורגמן</t>
+  </si>
+  <si>
+    <t>מיטל פאר</t>
+  </si>
+  <si>
+    <t>meitals1982@gmail.com</t>
+  </si>
+  <si>
+    <t>מורה פרטית ליחידים וקבוצות קטנות במתמטיקה</t>
+  </si>
+  <si>
+    <t>מורה פרטית ליחידים וקבוצות קטנות במתמטיקה. מגיעה לבית התלמיד או מקבלת אצלי בבית. ניתן גם לקבל שיעורים מקוונים.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/meital.shani.7/</t>
+  </si>
+  <si>
+    <t>יניב יוסף וענונו</t>
+  </si>
+  <si>
+    <t>yanivv610@gmail.com</t>
+  </si>
+  <si>
+    <t>יניב יוסף דלתות</t>
+  </si>
+  <si>
+    <t>דלתות ומנעולים</t>
+  </si>
+  <si>
+    <t>שיווק דלתות פנים וחוץ, תיקון כל סוגי הדלתות, מנעולן</t>
+  </si>
+  <si>
+    <t>054-6928801</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ddfCVRqgMO12dZw7dOn9Y_AK1u1ZX-T4</t>
+  </si>
+  <si>
+    <t>איתי קליפר</t>
+  </si>
+  <si>
+    <t>klippersport@gmail.com</t>
+  </si>
+  <si>
+    <t>קליפר</t>
+  </si>
+  <si>
+    <t>חוג רכיבת שטח לילדים, בדגש על חוויה, ערכים ועוד</t>
+  </si>
+  <si>
+    <t>052-6352667</t>
+  </si>
+  <si>
+    <t>קליפר ספורט ותזונה</t>
+  </si>
+  <si>
+    <t>תזונאי קליני וספורט, חבילות ייעוץ וליווי אישי או משפחתי</t>
+  </si>
+  <si>
+    <t>עדי אביב</t>
+  </si>
+  <si>
+    <t>Adidah1@gmail.com</t>
+  </si>
+  <si>
+    <t>פיזיוטרפיה התפתחותית</t>
+  </si>
+  <si>
+    <t>פיזיותרפיה</t>
+  </si>
+  <si>
+    <t>בת אל יוסף</t>
+  </si>
+  <si>
+    <t>bately555@gmail.com</t>
+  </si>
+  <si>
+    <t>ליאל מטבחים</t>
+  </si>
+  <si>
+    <t>נגרות רהיטים</t>
+  </si>
+  <si>
+    <t>נגרייה לייצור מטבחים, מתמחים במטבחים מכל הסוגים</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lielkitchen</t>
+  </si>
+  <si>
+    <t>נאוה אנקרי מלמד</t>
+  </si>
+  <si>
+    <t>Office@calaw.co.il</t>
+  </si>
+  <si>
+    <t>חברת עורכי דין קארו אנקרי ושות' גישור ונוטריון</t>
+  </si>
+  <si>
+    <t>נוטריון</t>
+  </si>
+  <si>
+    <t>https://calaw.co.il/</t>
+  </si>
+  <si>
+    <t>08-9437700</t>
+  </si>
+  <si>
+    <t>נגה פרשני</t>
+  </si>
+  <si>
+    <t>noga.parshani@gmail.com</t>
+  </si>
+  <si>
+    <t>עיצוב והלבשת הבית</t>
+  </si>
+  <si>
+    <t>ליווי ועיצוב הבית משלב התכניות ועד הלבשה מלאה</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/noga.parshani/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CSNxTGEsF-o7yIZJZlMPJ8HsJqrqGZk0</t>
+  </si>
+  <si>
+    <t>יונתן ווקנין</t>
+  </si>
+  <si>
+    <t>yonatanvak100@gmail.com</t>
+  </si>
+  <si>
+    <t>יונתן ווקנין - שיעורים פרטיים במתמטיקה</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים במתמטיקה והכנה לבגרות</t>
+  </si>
+  <si>
+    <t>055-6676649</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YOCaVyaAbpWpU0_HfBsP7BbBhkheUqYf</t>
+  </si>
+  <si>
+    <t>Oshratharari75@gmail.com</t>
+  </si>
+  <si>
+    <t>פיתוח מוצרי השראה מעצימים לנשים</t>
+  </si>
+  <si>
+    <t>https://www.oshratharari.com</t>
+  </si>
+  <si>
+    <t>אפרת לביא</t>
+  </si>
+  <si>
+    <t>Efratba1@gmail.com</t>
+  </si>
+  <si>
+    <t>אפרת לביא- חווית למידה אחרת</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pOK8g1pmIfxBVFcsQAlMHsYoLfyzGgbn</t>
+  </si>
+  <si>
+    <t>רז בר-חי</t>
+  </si>
+  <si>
+    <t>Razbarhai@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61553231823851&amp;mibextid=JRoKGi</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/KXn0BXGTxpX7UuylduhWJO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ysgdVmbeYs7BMhfWEOvDTcKC8agCoLNA</t>
+  </si>
+  <si>
+    <t>ערן תומר</t>
+  </si>
+  <si>
+    <t>050-3717319</t>
+  </si>
+  <si>
+    <t>erantomer45@gmail.com</t>
+  </si>
+  <si>
+    <t>טל אלבז קרויטורו</t>
+  </si>
+  <si>
+    <t>Taloosh170@gnail.com</t>
+  </si>
+  <si>
+    <t>מתמחה בילדים ובנשים מטפלת בגישת הNon diet</t>
+  </si>
+  <si>
+    <t>olgatamarpt@gmail.com</t>
+  </si>
+  <si>
+    <t>רביד כהן</t>
+  </si>
+  <si>
+    <t>ravidicohen@gmail.com</t>
+  </si>
+  <si>
+    <t>סטודיו רבידה</t>
+  </si>
+  <si>
+    <t>עיצוב פנים, ליווי לתהליכי שיפוץ ותכנון מבנים, פגישות ייעוץ ממוקדות, הום סטיילינג</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ravida_interior/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G2Qvfv1yvwRPMZ1ADoiB3fTeFyWn8U1h</t>
+  </si>
+  <si>
+    <t>איילת שץ</t>
+  </si>
+  <si>
+    <t>Ayelet5552@gmail.com</t>
+  </si>
+  <si>
+    <t>מאפרת ומעצבת שיער לאירועים וכלות</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/invites/contact/?i=pz00jm9aaznt&amp;utm_content=q25uvm</t>
+  </si>
+  <si>
+    <t>איריס דגן</t>
+  </si>
+  <si>
+    <t>Iris932@gmail.com</t>
+  </si>
+  <si>
+    <t>קליניקה לרפואה טבעית</t>
+  </si>
+  <si>
+    <t>גיא חיון</t>
+  </si>
+  <si>
+    <t>guy@alonins.co.il</t>
+  </si>
+  <si>
+    <t>אלון סוכנות לביטוח</t>
+  </si>
+  <si>
+    <t>סוכנות ביטוח מתמחה בביטוחי רכב, דירה, עסקים, חו"ל, בריאות וחיים וביטוחים קבוצתיים.</t>
+  </si>
+  <si>
+    <t>www.alonins.co.il</t>
+  </si>
+  <si>
+    <t>08-6231992</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PAIFdgNnN_OAmKKZgNYoAnZHC5pyEf1x</t>
+  </si>
+  <si>
+    <t>צילומי ניובורן בבית הלקוח, צילומי זוגיות/היריון/משפחה בטבע או בסגנון לייפסטייל בבית הלקוח</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/danielle.shay.studio/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1alW6ROEi7VTuLZ_OC3nRASDq0rI8yj1P</t>
+  </si>
+  <si>
+    <t>לינדה מילר</t>
+  </si>
+  <si>
+    <t>lin62miller@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100089214712791&amp;mibextid=JRoKGi</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/D2XUazs8FwM8SaWEeMbVeF</t>
+  </si>
+  <si>
+    <t>הילה דהרי</t>
+  </si>
+  <si>
+    <t>shmila20@gmail.com</t>
+  </si>
+  <si>
+    <t>הילה ביוטי</t>
+  </si>
+  <si>
+    <t>מניקור ולק גל, הרמת ריסים, עיצוב גבות ושפם</t>
+  </si>
+  <si>
+    <t>יוני כהן</t>
+  </si>
+  <si>
+    <t>coheny.ins@gmail.com</t>
+  </si>
+  <si>
+    <t>יוני כהן סוכן ביטוח ופיננסים</t>
+  </si>
+  <si>
+    <t>יובל חדד</t>
+  </si>
+  <si>
+    <t>Yuval.chocoholic@gmail.com</t>
+  </si>
+  <si>
+    <t>סדנאות פרלינים, שוקולד גורמה, בישול איטלקי, בישול איטלקי, פיצות בטאבון, מדע במטבח</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100057511695769&amp;mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tG-oMWol5sFXwuP9V6t-XT0HIvIpeLI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">התקנות  תיקונים בבית צבע לבית מקלחונים  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שרות בתחום המחשוב ,שרתים ,מערכת אזעקה ומצלמות . תיכנון ובתים בבניה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבחון פסיכו-דידקטי, מבדק מוקסו  והוראה מותאמת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמי ליאת גל, מאבחנת דידקטית מוסמכת ללקויות למידה(M.A) ומורת שילוב במשרד החינוך(תעודת הוראה בחינוך מיוחד). מקבלת במיתר: לאבחונים דידקטיים ופסיכו דידקטיים(בשילוב פסיכולוגית), מעבירה מבדק מוקסו לבדיקת תפקודי קשב, מורה להוראה מותאמת לכל הגילאים ומעבירה סדנאות למוכנות לכיתה א'. אשמח לתת שירות ולסייע לכל מה שצריך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגר טביבזדה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קונדיטוריה - עיצוב עוגות בהזמנה אישית , מארזים מתוקים , עוגיות , עוגות לשבת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לימור סולימני </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמי לימור סולימני, ובעלת ניסיון בטיפול במתבגרים מעל 20 שנה. הקליניקה שלי עוסקת בהדרכת הורים למתבגרים, טיפול במתבגרים- עם הפרעת קשב ובעיות התנהגות, יעוץ זוגי וטיפול רגשי לאימהות ליצירת שינוי ביחסים בבית ובמשפחה. 
+השירותים והמוצרים שלי בעסק מגוונים - הרצאות, סדנאות, קבוצת ווטסאפ חינמית, מדרכי וידאו ללא עלות, מפגש חד פעמי ליצירת שינוי, מפגשים לצורך בעיה מסוימת, וטיפול ארוך טווח בין 10-15 פגישות.
+המפגשים יכולים להיות בזום או בקליניקה בבאר שבע. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סטודיו סטמפה - עיצוב פנים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוהד טביבזדה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver סלולר ומחשבים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיקון ומכירה שדרוג סלולר ומחשבים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">galitoh747@walla.co.il </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תרפיסטית במגע - עיסוי רפואי ואורתופדי שיקומי. התמחות בטיפול בכאב כרוני הנובע ממערכת התנועה. כולל עיסוי ספורטאים והריון. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבי בן דיין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibish29@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אינטרקום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטפלת ברפואה סינית קליניקה נשית בלבד </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רפואה סינית - דיקור , טווינא , כוסות רוח , צמחים קליניקה נשית בלבד. מתמחה בגניקולוגיה ופיריון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לי-בר פירות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מגשי פירות מעוצבים לכל סוג של אירוע. החל מ150 שח </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מנחה סדנאות. שוקולד, צחוק וכתיבה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מנחה סדנאות למבוגרים וילדים. הפעלות לימי הולדת, ימי גיבוש ואירועים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">גיא מישאל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיעורי גיטרה </t>
+  </si>
+  <si>
+    <t>ביצוע עבודות חשמל ביתיות,  התקנות מכשירי חשמל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עצמאי, סוכן ביטוח. בעל רישיון פנסיוני וכללי. </t>
+  </si>
+  <si>
+    <t>טיפול רפלקסולוגי - טיפול בכפות הרגלים לאיזון הגוף ובעיות רפואיות.  פדיקור  טיפול פרארפואי בבעית פטריות ברגלים, סדקים ועוד</t>
+  </si>
+  <si>
+    <t>טיפול  ואימון במתבגרים ומבוגרים. 
+התמחות במאובחני ASD, הדרכת הורים.</t>
+  </si>
+  <si>
+    <t>סטודיו בוטיק ליוגה, באוירה קסומה מול יער מיתר. קבוצות קטנטנות וליווי צמוד. 
+היוגה בסטודיו מועברת מסורתית כפי שמועברת בהודו ממורה לתלמיד.  התרגול כולל ישיבת מדיטציה, נשימה, תנועה יוגית, הרפיה ועיון בטקסטים מסרותיים. 
+כמו כן, יוגה תרפיה לצרכים ממוקדים, אימונים אישיים, סדנאות , ריטריטים מחוץ ליישוב, הזמנת מורים מבחוץ . הכל כדי לחיות מתוך שימחה, אהבה ובריאות ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הנדימן לבית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אפרת ניימן עבודה סוציאלית ופסיכותרפיה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מאמנת לאורח חיים בריא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בונה תפריטים מותאמים אישית 
 ליווי ומעקב צמוד , עוברים את התהליך יחד 
 קבוצת וואטסאפ מלאה בטיפים ומתכונים קלילים 
 מעקב שקילה שבועי אונליין או אופליין 
 יש לי מועדון תזונה בבאר שבע 
-מוכרת גם קינוחים בריאים וטעימים ללא שמן ללא קמח בנוסף , הזדמנות להכנסה נוספת ללא השקעה לכל מי שאוהב לייפסטייל ובריאות</t>
-  </si>
-  <si>
-    <t>קהילת ריקודי סלסה במיתר - זמן איכות שמכניס שמחה לגוף ולנפש. נפגשים לרקוד סלסה בזוגות. אפשר לבוא לבד, בזוג, עם חברים/ות. 
-* רמת מתחילים - ימי שלישי 20:30 * רמת מתקדמים - ימי חמישי 20:30
-עלות לשיעור ראשון 35 ש״ח, הסטודיו נמצא במקלט ברח׳ עקרב 1 
-להרשמה ופרטים צרו איתי קשר 050-9290893</t>
-  </si>
-  <si>
-    <t>עמדת צילום, צילום בוק בת מצווה, מגנטים באירועים, פיתוח תמונות על בלוקי עץ</t>
-  </si>
-  <si>
-    <t>ייעוץ פנסיוני, ביטוח חיים, ביטוח בריאות, השקעות באפיקים פנסיונים
-ייעוץ משכנתאות</t>
-  </si>
-  <si>
-    <t>צילום. בוק בת מצווה, הריון, משפחות, ניובורן, תדמית, אדריכלות ועיצוב פנים, אירועים, עליה לתורה ועוד</t>
-  </si>
-  <si>
-    <t>מניקור ג׳ל, הסרת שיער בלייזר,פדיקור, עיצוב גבות,איפור קבוע, ג׳ל רגליים</t>
-  </si>
-  <si>
-    <t>טיפול בכפות הרגלים לכאב לסטרס ולאיזון</t>
-  </si>
-  <si>
-    <t>http://www.debbie-iancu.co.il</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=16Kp3aZD3OXUjc41VNRUmP9OMwmYoO0cj</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1DHB5JS04TBUsJKmBHZEowDbASbY8t4xD</t>
-  </si>
-  <si>
-    <t>zaur.co.il</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100001056860074&amp;mibextid=ZbWKwL</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1wAvnpPZW5wdm4jlzbUd-yaE_sCva36Zz</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/booqra?mibextid=LQQJ4d</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/RJGTUDRH4FWZL1</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ayelet.hayman</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/G9Mcluox2VMHEW0oVcocvm</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=11oBBNbjsK3MD6AEM9Liwq1uRO_X5WdV8</t>
-  </si>
-  <si>
-    <t>https://instagram.com/pixelsphotographs</t>
-  </si>
-  <si>
-    <t>https://card.ayaladesign.co.il/lior-zini/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1UFgOF6iGwOZBAdIe-2rzoNdrmnHjFWlL</t>
-  </si>
-  <si>
-    <t>בפייסבוק: רבקה אליהו -צילום</t>
-  </si>
-  <si>
-    <t>052-5194871</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/liron_benishti?igsh=ZHluZjkyOXV5aWdn&amp;utm_source=qr</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>0546400043</t>
-  </si>
-  <si>
-    <t>0506875720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">052-6797774 </t>
-  </si>
-  <si>
-    <t>0545211856</t>
-  </si>
-  <si>
-    <t>0545889091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">054-6661847 </t>
-  </si>
-  <si>
-    <t>0506282797</t>
-  </si>
-  <si>
-    <t>0523667949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">054-2516835 </t>
-  </si>
-  <si>
-    <t>0504320682</t>
-  </si>
-  <si>
-    <t>0544329929</t>
-  </si>
-  <si>
-    <t>0529463918</t>
-  </si>
-  <si>
-    <t>0509290893</t>
-  </si>
-  <si>
-    <t>0523950207</t>
-  </si>
-  <si>
-    <t>0529203527</t>
-  </si>
-  <si>
-    <t>0525674631</t>
-  </si>
-  <si>
-    <t>0545333745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אזולאי שלמה </t>
-  </si>
-  <si>
-    <t>adiv1223@walla.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ביובית אינסטלציה כללית דודי שמש ואיתורי נזילות טיפול בניאגרות סמויות </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שירות ביובית שחרור סתימות אינסטלציה וביובים עיקור שוקשים דודי שמש שירות עיקור שורשים טיפול בקווי ביוב </t>
-  </si>
-  <si>
-    <t xml:space="preserve">050-746-5416 </t>
-  </si>
-  <si>
-    <t>https://wa.link/tup0wo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1vb6sOXvkFCuREGfM5cV9YOltwDx8hqQ8</t>
+מוכרת גם קינוחים בריאים וטעימים ללא שמן ללא קמח בנוסף , הזדמנות להכנסה נוספת ללא השקעה לכל מי שאוהב לייפסטייל ובריאות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">איילת הימן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיעורים פרטיים וקבוצתיים במתמטיקה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לירון בנישתי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מניקור ג׳ל, הסרת שיער בלייזר,פדיקור, עיצוב גבות,איפור קבוע, ג׳ל רגליים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביובית אינסטלציה כללית דודי שמש ואיתורי נזילות טיפול בניאגרות סמויות  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שירותי ביובית ואינסטלציה ניאגרות סמויות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שירות ביובית שחרור סתימות אינסטלציה וביובים עיקור שוקשים דודי שמש  שירות עיקור שורשים טיפול בקווי ביוב </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רונית איתני מאפרת מקצועית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">איפור ושיער מקצועי לכלות, ארוע ערב, בת מצווה , פרום סטודיו במיתר </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אלין שקאף עבאדי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רומן פלוטקין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ייעוץ בטיחות, ייעוץ התייעלות אנרגטית, בניה ירוקה ומועילה, סיוע בקבלת היתר ותעודת גמר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יועץ בטיחות, ניהול תכנון לפרויקטים בבניה ותעשיה, ייעוץ לבניה ירוקה ומועילה, סיוע בכל הנוגע לקבלת היתר בניה ותעודת גמר. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מספרת כלבים הכוללת יחס מקצועי וסבלני תספורת ועיצוב פנים טיפוח ושיקום פרווה מקלחת מפנקת וגזירת ציפורניים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">עיצוב שיער נשים, גברים וילדים מספרת בוטיק במיתר נותנת שירות ללא המתנה ארוכה יחס אישי ומיוחד </t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-4312-903 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">054-2341059 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ענבל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פדיקוריסטית רפואית מוסמכת. פדיקור כולל רפואי  לק ג'ל  בנייה בג'ל הסרת שיער בלייזר ובשעווה עיצוב ושיקום גבות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמיר בלנק יוסף </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכירה ביגוד יד 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldorms@eldorms.co.il </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלדור שרותי רפואה בעמ </t>
+  </si>
+  <si>
+    <t>יבוא ושיווק ציוד עזרה ראשונה,  ציוד סיעודי ו,
+שיקום , קורסי עזרה ראשונה והחייאה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-6232597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נוטריון, צוואות וירושות, ייפוי כוח מתמשך, זכויות אסירים, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">052-9246685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מארזי המתמטיקה ל- 4 ו- 5 יחידות לימוד מספקות את כל החומר שתלמיד צריך כדי להצליח בבגרות. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-7755517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-775-5517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רום שירותי מחשוב </t>
+  </si>
+  <si>
+    <t xml:space="preserve">משיקה עוגות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">עיצוב גבות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אינסטלציה, חשמל, צבע, כלי עבודה, תאורה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ויקטור אינסטלציה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סטודיו בוטיקה - צילום סטילס </t>
+  </si>
+  <si>
+    <t xml:space="preserve">צלמת סטילס - צילום בוק בת מצווה, בר מצווה משפחות, תינוקות. צילום לעסקים  - מכל סוג, 
+צילום אירועי בוטיק, מחתונות - בריתות, בת/בר מצוות. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramdonnell62@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רם דונל מטפל ברפואה טבעית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רפלקסולוגיה. הקליניקה נמצאת ברחוב נורית 9 מיתר הגעה בתאום תור מראש. ימים א-ד (בוקר עד ערב) , ו בוקר עד כניסת שבת. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">איל יומטוב </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגד נשף </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוד האדמה צחי ואוהד </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוד האדמה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חברת גינון ופיתוח, דשא סינטטי מערכות השקיה, שיקום ותחזוקת גינות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hareltu22@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחים תורג'מן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלומיניום ,אינסטלציה, שיפוצים כלליים. אנחנו נותנים שרות מהלב מחירים לכל כיס </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיסבוק אחים תורג'מן </t>
+  </si>
+  <si>
+    <t>אבחון וטיפול בתינוקות וילדים מגיל לידה, הדרכה  התפתחותית תואמת גיל, התמחות בהערכה וטיפול של ילדים על הרצף האוטיסטי, סדנאות התפתחות ועיסוי תינוקות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050-710-3595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יצוג וליטיגציה בתחום דיני המשפחה, גישור, נוטריון, עריכת ייפוי כוח מתמשך, צוואות, הסכמי ממון, הסכמי גירושין, ליווי משפטי בהליכי גירושין, אימוץ, מימוש צוואות, מכירה / קנייה / העברה במתנה או בירושה של מקרקעין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אושרת הררי כספי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אושרת הררי - פיתוח מוצרי השראה לנשים ,טרילותרפיה הראש והרגש ומה שביניהם </t>
+  </si>
+  <si>
+    <t>הוראה מותאמת. מתן כלים ואסטרטגיות למידה בקשיים לימודיים בתחומי השפה והחשבון.  בניית תכנית למידה דיפרנציאלית בין לומד ולומד תוך שימת דגש לחווית למידה אחרת 😀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיטראק </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פודטראק אשר ממוקם בקיבוץ כרמים ויכול להגיע לאירועים. 
+בנוסף אנו מוכרים גם אוכל מוכן מהמעשנה בהזמנה מראש. </t>
+  </si>
+  <si>
+    <t>ערן תומר  מורה/מאמן שחיה</t>
+  </si>
+  <si>
+    <t>לימוד שחיה ושיפור סגנון בכל גיל (5+)  שעור פרטני בברכת מועדון הספורט מיתר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דיאטנית קלינית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אולגה תמר פלוטקין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אולגה פלוטקין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיזיותרפיסטית, מתמחה בטיפול ושיקום אורטופדי, טיפול לימפתי, טיפול בטורטיקוליס תינוקות </t>
+  </si>
+  <si>
+    <t>שילוב מכל טוב הרפואה הטבעית . נטורופתיה- תזונה, צמחי מרפא,  דיקור , עיסוי רפואי וגוף נפש. תכנית טיפול בהתאמה אישית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דניאל שי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">danielle.shay.studio@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סטודיו דניאל שי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaturaLin - המרכז לרפואה אינטגרטיבית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">טיפול וריפוי בעיות רפואיות ורגשיות שונות, דרך תזונה קלינית מותאמת אישית, צמחי מרפא, רפלקסולוגיה, ארומתרפיה, דמיון מודרך ועוד כלים הוליסטים לאיזון גוף-נפש. הקליניקה מציעה טיפול לכל הגילאים.
+לין מילר N.D נטורופתית ורפלקסולוגית בכירה
+מתמחה בבעיות מע' עיכול ובריאות האישה. </t>
+  </si>
+  <si>
+    <t>שמי יוני כהן ואני יליד מיתר וגר בכרמית 
+בעל רישיון פנסיוני 
+תחום התמקצעות:
+ביטוחי חיים ובריאות  , פיננסים ופנסיוני</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שוקוהוליק </t>
+  </si>
+  <si>
+    <t>0526056936</t>
+  </si>
+  <si>
+    <t>0507061310</t>
+  </si>
+  <si>
+    <t>0523692915</t>
+  </si>
+  <si>
+    <t>0527929631</t>
+  </si>
+  <si>
+    <t>0508804260</t>
+  </si>
+  <si>
+    <t>0522620013</t>
+  </si>
+  <si>
+    <t>0506551122</t>
+  </si>
+  <si>
+    <t>0542866356</t>
+  </si>
+  <si>
+    <t>0547886488</t>
+  </si>
+  <si>
+    <t>086450898</t>
+  </si>
+  <si>
+    <t>0525991190</t>
+  </si>
+  <si>
+    <t>0535444497</t>
+  </si>
+  <si>
+    <t>0548719990</t>
+  </si>
+  <si>
+    <t>0545885671</t>
+  </si>
+  <si>
+    <t>0522833361</t>
+  </si>
+  <si>
+    <t>0509925174</t>
+  </si>
+  <si>
+    <t>0506325688</t>
+  </si>
+  <si>
+    <t>0544202787</t>
+  </si>
+  <si>
+    <t>0526519147</t>
+  </si>
+  <si>
+    <t>0524269043</t>
+  </si>
+  <si>
+    <t>0504406688</t>
+  </si>
+  <si>
+    <t>0544448628</t>
+  </si>
+  <si>
+    <t>0523918098</t>
+  </si>
+  <si>
+    <t>0504300243</t>
+  </si>
+  <si>
+    <t>0549747670</t>
+  </si>
+  <si>
+    <t>0542519112</t>
+  </si>
+  <si>
+    <t>0504401313</t>
+  </si>
+  <si>
+    <t>0546494668</t>
+  </si>
+  <si>
+    <t>0546446621</t>
+  </si>
+  <si>
+    <t>0507245399</t>
+  </si>
+  <si>
+    <t>0543238272</t>
+  </si>
+  <si>
+    <t>0528276782</t>
+  </si>
+  <si>
+    <t>0525397000</t>
+  </si>
+  <si>
+    <t>0525977125</t>
+  </si>
+  <si>
+    <t>0546401090</t>
+  </si>
+  <si>
+    <t>עוז לוי</t>
+  </si>
+  <si>
+    <t>רועי לנקרי</t>
+  </si>
+  <si>
+    <t>אלי ווקספרס</t>
+  </si>
+  <si>
+    <t>יורם כהן</t>
+  </si>
+  <si>
+    <t>דור שלמה חג׳בי</t>
+  </si>
+  <si>
+    <t>oz537527@gmail.com</t>
+  </si>
+  <si>
+    <t>roilankri@gmail.com</t>
+  </si>
+  <si>
+    <t>wowdental@gmail.com</t>
+  </si>
+  <si>
+    <t>Yoramc.cohen@gmail.com</t>
+  </si>
+  <si>
+    <t>Dshagbilaw@gmail.com</t>
+  </si>
+  <si>
+    <t>קורל דלתות</t>
+  </si>
+  <si>
+    <t>בודק חשמל סוג 3</t>
+  </si>
+  <si>
+    <t>וולף-ווקספרס</t>
+  </si>
+  <si>
+    <t>יורם כהן מורה לנהיגה</t>
+  </si>
+  <si>
+    <t>משרד עורכי דין - דור שלמה חג׳בי</t>
+  </si>
+  <si>
+    <t>רופא שיניים</t>
+  </si>
+  <si>
+    <t>לימוד נהיגה</t>
+  </si>
+  <si>
+    <t>שיווק ומכירה דלתות כניסה ופנים שירות מנעולנות</t>
+  </si>
+  <si>
+    <t>בדיקות ואישור מתקני חשמל, בדיקה וחתימה להארכת חשמל זמני ומעבר לחשמל קבוע, בדיקות ואישור עמדות טעינה.</t>
+  </si>
+  <si>
+    <t>מרפאת שיניים פרטית בבאר שבע. מבצעים את כל סוגי הטיפולים, כולל רופאת שיניים מומחית לטיפול בילדים עם חרדה או שיתוף פעולה בעייתי.</t>
+  </si>
+  <si>
+    <t>מורה לנהיגה על רכב אוטומט ורכב ידני בדרגת רשיון b</t>
+  </si>
+  <si>
+    <t>אזרחי מסחרי, תעבורה, מקרקעין, הסכמים משפחתיים</t>
+  </si>
+  <si>
+    <t>08-6424977</t>
+  </si>
+  <si>
+    <t>052-2058698</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dshlawoffice?igsh=MXJ0Z2I2cWs0aXlwMA%3D%3D&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>0523339119</t>
+  </si>
+  <si>
+    <t>0527907980</t>
+  </si>
+  <si>
+    <t>0534303434</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11bibYbRcVKwZ6US-DXrnSIS2IOlT5Xyv</t>
+  </si>
+  <si>
+    <t>0544222892</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,7 +2153,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1023,6 +2161,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1360,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:J592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1397,1329 +2536,2786 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="372" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>529</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>530</v>
+      </c>
+      <c r="G29" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>531</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="323" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33">
+        <v>523667949</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>534</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37">
+        <v>544329929</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" t="s">
+        <v>227</v>
+      </c>
+      <c r="J39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>539</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" t="s">
+        <v>230</v>
+      </c>
+      <c r="J42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>540</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>541</v>
+      </c>
+      <c r="G44" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45" t="s">
+        <v>235</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" t="s">
+        <v>542</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>543</v>
+      </c>
+      <c r="G46" t="s">
+        <v>544</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>545</v>
+      </c>
+      <c r="D47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>546</v>
+      </c>
+      <c r="G47" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>548</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" t="s">
+        <v>549</v>
+      </c>
+      <c r="D50" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>550</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>551</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>301</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" t="s">
+        <v>555</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>556</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>307</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>516</v>
+      </c>
+      <c r="C58" t="s">
+        <v>558</v>
+      </c>
+      <c r="D58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" t="s">
+        <v>559</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
+      <c r="D59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G59" t="s">
+        <v>315</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>563</v>
+      </c>
+      <c r="G60" t="s">
+        <v>318</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="I62" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>565</v>
+      </c>
+      <c r="G63" t="s">
+        <v>334</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" t="s">
+        <v>338</v>
+      </c>
+      <c r="D64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>339</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I64" t="s">
+        <v>566</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" t="s">
+        <v>568</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>343</v>
+      </c>
+      <c r="G65" t="s">
+        <v>344</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>350</v>
+      </c>
+      <c r="G66" t="s">
+        <v>351</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="I67" t="s">
+        <v>355</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>570</v>
+      </c>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>358</v>
+      </c>
+      <c r="G68" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>364</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>367</v>
+      </c>
+      <c r="C70" t="s">
+        <v>368</v>
+      </c>
+      <c r="D70" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>373</v>
+      </c>
+      <c r="G71" t="s">
+        <v>374</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>375</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="253" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="211" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" t="s">
+        <v>573</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>382</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" t="s">
+        <v>575</v>
+      </c>
+      <c r="C75" t="s">
+        <v>576</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>577</v>
+      </c>
+      <c r="G75" t="s">
+        <v>385</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="I75"/>
+      <c r="J75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>578</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" t="s">
+        <v>579</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>580</v>
+      </c>
+      <c r="B78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" t="s">
+        <v>581</v>
+      </c>
+      <c r="D78" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>582</v>
+      </c>
+      <c r="G78" t="s">
+        <v>397</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>398</v>
+      </c>
+      <c r="B79" t="s">
+        <v>583</v>
+      </c>
+      <c r="C79" t="s">
+        <v>584</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>585</v>
+      </c>
+      <c r="G79" t="s">
+        <v>586</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>399</v>
+      </c>
+      <c r="B80" t="s">
+        <v>400</v>
+      </c>
+      <c r="C80" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>402</v>
+      </c>
+      <c r="G80" t="s">
+        <v>403</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" t="s">
+        <v>405</v>
+      </c>
+      <c r="C81" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" t="s">
+        <v>407</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>408</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>411</v>
+      </c>
+      <c r="B82" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" t="s">
+        <v>413</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>414</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>411</v>
+      </c>
+      <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>416</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>417</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" t="s">
+        <v>419</v>
+      </c>
+      <c r="C84" t="s">
+        <v>420</v>
+      </c>
+      <c r="D84" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>587</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>422</v>
+      </c>
+      <c r="B85" t="s">
+        <v>423</v>
+      </c>
+      <c r="C85" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" t="s">
+        <v>425</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" t="s">
+        <v>427</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B86" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" t="s">
+        <v>432</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>434</v>
+      </c>
+      <c r="B87" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>436</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>437</v>
+      </c>
+      <c r="G87" t="s">
+        <v>438</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>440</v>
+      </c>
+      <c r="B88" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" t="s">
+        <v>442</v>
+      </c>
+      <c r="D88" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>443</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>590</v>
+      </c>
+      <c r="B89" t="s">
+        <v>446</v>
+      </c>
+      <c r="C89" t="s">
+        <v>591</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>447</v>
+      </c>
+      <c r="G89" t="s">
+        <v>448</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>449</v>
+      </c>
+      <c r="B90" t="s">
+        <v>450</v>
+      </c>
+      <c r="C90" t="s">
+        <v>451</v>
+      </c>
+      <c r="D90" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>592</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" t="s">
+        <v>454</v>
+      </c>
+      <c r="C91" t="s">
+        <v>593</v>
+      </c>
+      <c r="D91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G91" t="s">
+        <v>455</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="I91" t="s">
+        <v>456</v>
+      </c>
+      <c r="J91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>458</v>
+      </c>
+      <c r="B92" t="s">
+        <v>460</v>
+      </c>
+      <c r="C92" t="s">
+        <v>595</v>
+      </c>
+      <c r="D92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>596</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>461</v>
+      </c>
+      <c r="B93" t="s">
+        <v>462</v>
+      </c>
+      <c r="C93" t="s">
+        <v>597</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>463</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>598</v>
+      </c>
+      <c r="B94" t="s">
+        <v>464</v>
+      </c>
+      <c r="C94" t="s">
+        <v>599</v>
+      </c>
+      <c r="D94" t="s">
+        <v>421</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>600</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>465</v>
+      </c>
+      <c r="B95" t="s">
+        <v>466</v>
+      </c>
+      <c r="C95" t="s">
+        <v>467</v>
+      </c>
+      <c r="D95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>468</v>
+      </c>
+      <c r="G95" t="s">
+        <v>469</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>471</v>
+      </c>
+      <c r="B96" t="s">
+        <v>472</v>
+      </c>
+      <c r="C96" t="s">
+        <v>471</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>473</v>
+      </c>
+      <c r="G96" t="s">
+        <v>474</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>475</v>
+      </c>
+      <c r="B97" t="s">
+        <v>476</v>
+      </c>
+      <c r="C97" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>601</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>478</v>
+      </c>
+      <c r="B98" t="s">
+        <v>479</v>
+      </c>
+      <c r="C98" t="s">
+        <v>480</v>
+      </c>
+      <c r="D98" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>481</v>
+      </c>
+      <c r="G98" t="s">
+        <v>482</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>602</v>
+      </c>
+      <c r="B99" t="s">
+        <v>603</v>
+      </c>
+      <c r="C99" t="s">
+        <v>604</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>485</v>
+      </c>
+      <c r="G99" t="s">
+        <v>486</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" t="s">
+        <v>605</v>
+      </c>
+      <c r="D100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G100" t="s">
+        <v>490</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="I100" t="s">
+        <v>491</v>
+      </c>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>492</v>
+      </c>
+      <c r="B101" t="s">
+        <v>493</v>
+      </c>
+      <c r="C101" t="s">
+        <v>494</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>495</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>496</v>
+      </c>
+      <c r="B102" t="s">
+        <v>497</v>
+      </c>
+      <c r="C102" t="s">
+        <v>498</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>499</v>
+      </c>
+      <c r="B103" t="s">
+        <v>500</v>
+      </c>
+      <c r="C103" t="s">
+        <v>608</v>
+      </c>
+      <c r="D103" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>501</v>
+      </c>
+      <c r="G103" t="s">
+        <v>502</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="71" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="141" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="211" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="197" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="183" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="F108" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.2">
@@ -4164,51 +6760,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{021AA2A8-1FFE-AE4A-912F-EF3F50D5AAA3}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{C8C638E3-069D-684B-87E4-348AF57B6615}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{106B0F71-235E-9A43-8CFE-CADB0F13B693}"/>
-    <hyperlink ref="J4" r:id="rId4" xr:uid="{429D9B58-C591-104B-AC6F-CF7831CC77AA}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{7776AC5D-0876-0D4B-801D-789F9967EC86}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{0FE0122E-CA32-4949-B0DB-30CB246275B9}"/>
-    <hyperlink ref="I7" r:id="rId7" xr:uid="{5D388E30-A6D2-834E-81AB-49C38101190A}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{EE5218B8-E426-9C47-BB3B-F9CAA26DEDA6}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{D795B85B-EB70-A148-B92B-3AA4EF2ED71C}"/>
-    <hyperlink ref="J10" r:id="rId10" xr:uid="{C13CE5E1-19DA-3A48-B782-07E3584FCD5B}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{1C2C3D59-5B3A-3F40-B72C-2EFF170B3694}"/>
-    <hyperlink ref="I11" r:id="rId12" xr:uid="{F51977DE-3EE5-E948-B2AB-BDD5C8FB752A}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{B1CB326D-0934-B94B-91EE-A535C12B0F9A}"/>
-    <hyperlink ref="G13" r:id="rId14" xr:uid="{BDAA792B-F1CA-D84D-A558-58D64C2AA475}"/>
-    <hyperlink ref="J13" r:id="rId15" xr:uid="{57B3D5A1-C143-6B4A-8416-31BDE948C2B1}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{8CBB25E0-5AC3-C84F-A9E5-02DC1F15B033}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{E5ECBC4B-E45D-5048-A560-3DE662202E9D}"/>
-    <hyperlink ref="J15" r:id="rId18" xr:uid="{B78D904C-AF44-D246-A142-162E48CF67F3}"/>
-    <hyperlink ref="G17" r:id="rId19" xr:uid="{D06F9A6E-3170-644E-A7A5-CB7C7076BAA2}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{6C15656F-F6F5-294E-B4B7-293C1591ED09}"/>
-    <hyperlink ref="J20" r:id="rId21" xr:uid="{7BD09307-6AFF-AA4A-9A00-404C92FB287E}"/>
-    <hyperlink ref="J21" r:id="rId22" xr:uid="{17BCC98A-FB7E-7244-A4D5-CDFD723E8F98}"/>
-    <hyperlink ref="G22" r:id="rId23" display="https://gargi944767058.wordpress.com/" xr:uid="{2A20C3D0-915D-C846-923A-5B2982203973}"/>
-    <hyperlink ref="J22" r:id="rId24" xr:uid="{FA79AB73-D6BB-D842-B5A6-6554036C0168}"/>
-    <hyperlink ref="G23" r:id="rId25" xr:uid="{296EABA5-A132-234B-8329-D6D14C4A264D}"/>
-    <hyperlink ref="G24" r:id="rId26" xr:uid="{4312B2E2-3D7B-7245-B288-EC9E4F9C7685}"/>
-    <hyperlink ref="I24" r:id="rId27" xr:uid="{0DFC89E6-D3E5-1A4F-AACD-BE203C3382B8}"/>
-    <hyperlink ref="J24" r:id="rId28" xr:uid="{0751F25A-778E-4F44-81BE-11A526014A4C}"/>
-    <hyperlink ref="G25" r:id="rId29" display="http://beigale.co.il/" xr:uid="{C7B63F85-848D-BA4E-BB0D-CB1E219E2E0E}"/>
-    <hyperlink ref="G26" r:id="rId30" display="http://www.debbie-iancu.co.il/" xr:uid="{C94443FF-BECD-EC48-893C-AF1E8C40B6A2}"/>
-    <hyperlink ref="J26" r:id="rId31" xr:uid="{2A86376A-F2FD-614C-9BCE-6201CBA69CC1}"/>
-    <hyperlink ref="J27" r:id="rId32" xr:uid="{A2D18A74-EFF9-824F-B3D1-A10197CB279B}"/>
-    <hyperlink ref="G29" r:id="rId33" display="http://zaur.co.il/" xr:uid="{172E5E87-AD38-D74D-BE98-E7C209BDC4F5}"/>
-    <hyperlink ref="G33" r:id="rId34" xr:uid="{2AD2AAED-0DC1-FF40-955E-5B3AB09E5E8A}"/>
-    <hyperlink ref="J33" r:id="rId35" xr:uid="{28182AFA-D44B-2E4C-908D-54A18D300E20}"/>
-    <hyperlink ref="G38" r:id="rId36" xr:uid="{11BC111C-4F53-764B-8956-4D6CE816C54D}"/>
-    <hyperlink ref="I38" r:id="rId37" xr:uid="{218FEFDF-4EFC-D644-896D-39A0DB5CFF47}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{75F08786-B1C1-B94E-956D-A00435F24550}"/>
-    <hyperlink ref="I39" r:id="rId39" xr:uid="{53BEEA2A-73D8-BC41-B295-AAF11BB473C8}"/>
-    <hyperlink ref="J39" r:id="rId40" xr:uid="{E4DB7D6E-DA48-4B43-8AB2-C8639714D94C}"/>
-    <hyperlink ref="I42" r:id="rId41" xr:uid="{759671DE-A3F7-1D4C-AEF6-0C3B7CE2B0E1}"/>
-    <hyperlink ref="J42" r:id="rId42" xr:uid="{DE7E6B6C-9EC2-FC41-A237-27F8B4D0ED5B}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{3FA572D9-9520-CD46-BC8A-EF1E32F9B3D4}"/>
-    <hyperlink ref="I46" r:id="rId44" xr:uid="{920DBC24-187D-A94D-9C86-E057129338B3}"/>
-    <hyperlink ref="J46" r:id="rId45" xr:uid="{5F2F376C-6FB2-0A4A-BB62-936982CEC624}"/>
+    <hyperlink ref="G108" r:id="rId1" xr:uid="{4C982D6B-22AF-9A49-A651-F04090BAEE61}"/>
+    <hyperlink ref="J105" r:id="rId2" xr:uid="{AF9712AE-9B47-4146-A06A-F075A6078960}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5049DF-6B5C-D648-8E7A-39C41BD80C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD3A21-B555-3E4B-93D0-8B656D9CFF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$108</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="674">
   <si>
     <t>name</t>
   </si>
@@ -2500,7 +2503,7 @@
   <dimension ref="A1:J592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3375,8 +3378,8 @@
       <c r="H33" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I33">
-        <v>523667949</v>
+      <c r="I33" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="J33" t="s">
         <v>223</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA95C857-B9FE-3E40-A067-A83E94CF2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F908214D-25F0-F046-9CA6-F9F67CDFAE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="749">
   <si>
     <t>name</t>
   </si>
@@ -2189,6 +2189,152 @@
   </si>
   <si>
     <t>0502117098</t>
+  </si>
+  <si>
+    <t>דורית אלקבץ</t>
+  </si>
+  <si>
+    <t>עוז דרורי</t>
+  </si>
+  <si>
+    <t>עידן דרורי</t>
+  </si>
+  <si>
+    <t>עידן כהן</t>
+  </si>
+  <si>
+    <t>לידיה סיון</t>
+  </si>
+  <si>
+    <t>אמיר תיתי</t>
+  </si>
+  <si>
+    <t>מיכל אוריין</t>
+  </si>
+  <si>
+    <t>doritelk@walla.co.il</t>
+  </si>
+  <si>
+    <t>Doritelk@walla.co.il</t>
+  </si>
+  <si>
+    <t>ozdro555@gmail.com</t>
+  </si>
+  <si>
+    <t>idandrori555@gmail.com</t>
+  </si>
+  <si>
+    <t>idan@junam.co</t>
+  </si>
+  <si>
+    <t>lydiasvn@hotmail.com</t>
+  </si>
+  <si>
+    <t>Michalc1989@gmail.com</t>
+  </si>
+  <si>
+    <t>איפור ושיער</t>
+  </si>
+  <si>
+    <t>הג׳חנון של דורית</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים במקצועות מדעי המחשב ומתמטיקה</t>
+  </si>
+  <si>
+    <t>איסוף חבילות מהדואר והגו מרקט</t>
+  </si>
+  <si>
+    <t>משלוח / איסוף</t>
+  </si>
+  <si>
+    <t>ג׳ונם כהן - משרד פרסום ודיגיטל</t>
+  </si>
+  <si>
+    <t>איפור ועיצוב שיער</t>
+  </si>
+  <si>
+    <t>חוגים לאמנות ילדים נוער מסוגרים</t>
+  </si>
+  <si>
+    <t>ברזל, צביעת פרגולות מעץ,צביעת דק</t>
+  </si>
+  <si>
+    <t>צלמת משפחה וילדים</t>
+  </si>
+  <si>
+    <t>איפור ושיער לאירועים בסגנון טבעי ומחמיא</t>
+  </si>
+  <si>
+    <t>גחנון על בסיס נטורינה עבודת יד לשבת בבוקר</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים המועברים על ידי רכז מגמת הנדסת תוכנה בתיכון בב"ש ובוחן חיצוני מטעם משרד החינוך. ניתן לקבל בנוסף שיעורים פרטיים במתמטיקה יסודי והכנה לתיכון לעולים לכיתה ז'.</t>
+  </si>
+  <si>
+    <t>בשעות הבוקר כשאנשים עובדים ולא פנויים, אבצע עבורכם איסוף חבילות מדואר מיתר והגו מרקט וזאת בכפוף לייפוי כוח והעברת פרטי החבילה אליי. בזמנכם הפרטי תוכלו לאסוף אצלי. עלות איסוף כל חבילה 5 ש"ח בלבד</t>
+  </si>
+  <si>
+    <t>חברת פרסום צעירה ובועטת מאז 2014. משרד החברה ממוקמים בב״ש. החברה מתמחה בשירותי אסטרטגיה ומיתוג, קמפיינים, הפקות תוכן וידאו וסטילס, הקמת אתרים, ניהול פעילות ברשתות חברתיות, הפקת פודקאסטים ועוד.</t>
+  </si>
+  <si>
+    <t>איפור ועיצוב שיער לכל אירוע בסטודיו במיתר</t>
+  </si>
+  <si>
+    <t>רואה בלימוד האומנות הליך הכולל מספר מטרות:
+*פיתוח הדמיון.
+*פיתוח יכולת ההתבוננות.
+*יכולת ביטוי אישית תוך חשיפה לעולם האמנות. 
+*חיזוק הביטחון העצמי.</t>
+  </si>
+  <si>
+    <t>מתעסקים עם מעקות ודברים הקשורים בברזל 
+עושה צביעה לפרגולות מעץ ודקים על הרצפה</t>
+  </si>
+  <si>
+    <t>אני מיכל כהן אוריין מצלמת משפחה וילדים בטבע</t>
+  </si>
+  <si>
+    <t>www.junam.co</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/michaloryan_photography?utm_source=qr&amp;igsh=d2Y4bWRmNXdsYTZz</t>
+  </si>
+  <si>
+    <t>0509011125</t>
+  </si>
+  <si>
+    <t>0523668669</t>
+  </si>
+  <si>
+    <t>0587956264</t>
+  </si>
+  <si>
+    <t>086496005</t>
+  </si>
+  <si>
+    <t>0505742027</t>
+  </si>
+  <si>
+    <t>0509208883</t>
+  </si>
+  <si>
+    <t>0547578808</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BfVkFLpMEno-GP1OMpeUMKayKH5PEDpp</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LHgczJdkcpKHXw4UiS9VNu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vzDh0aWtRfi4ciRLD-WhsjHTtA_ZFGrf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xDwh2HWLhIeiH-3CDScEWDPavpTx2CUu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18fIBgINEPSzconFcdBARBwtCONSlmryN</t>
   </si>
 </sst>
 </file>
@@ -2591,12 +2737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:J523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5545,31 +5692,223 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H115" s="6"/>
+      <c r="A115" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="116" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H116" s="6"/>
+      <c r="A116" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="117" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H117" s="6"/>
+      <c r="A117" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H118" s="6"/>
+      <c r="A118" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H119" s="6"/>
+      <c r="A119" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H120" s="6"/>
+      <c r="A120" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="4" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="121" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H121" s="6"/>
+      <c r="A121" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H122" s="6"/>
+      <c r="A122" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H123" s="6"/>
+      <c r="A123" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H124" s="6"/>
@@ -6881,6 +7220,13 @@
     <hyperlink ref="G112" r:id="rId106" xr:uid="{4DD8C42F-F218-C542-BBBC-B898E4230FD6}"/>
     <hyperlink ref="G113" r:id="rId107" xr:uid="{5DFEEB3A-FFE8-4A48-B2D1-E007BB95F404}"/>
     <hyperlink ref="J114" r:id="rId108" xr:uid="{7ACCAD59-F905-E64F-8861-F9310B3E46EE}"/>
+    <hyperlink ref="G119" r:id="rId109" display="http://www.junam.co/" xr:uid="{92BCD2C7-C08B-5C41-B71D-AA31CD6D7C65}"/>
+    <hyperlink ref="G123" r:id="rId110" xr:uid="{1AC31D8B-1969-8640-A733-F99C83150A7C}"/>
+    <hyperlink ref="J115" r:id="rId111" xr:uid="{9366D19B-B78D-BC4A-AAE8-416380833B28}"/>
+    <hyperlink ref="I116" r:id="rId112" xr:uid="{318B02F6-DB16-A043-91AE-D6BF8611A3BE}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{67928542-32E5-624F-BA2E-44F618B81C04}"/>
+    <hyperlink ref="J119" r:id="rId114" xr:uid="{82534870-1AFC-3249-AB00-E6DDE1785B77}"/>
+    <hyperlink ref="J120" r:id="rId115" xr:uid="{FD69EC08-B07D-4C4A-99FE-B38927954E6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0F09D-FEC1-1B4D-B5B0-1ECCC42A7DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139FAA81-2411-7647-925D-5B75BC375CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$134</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="826">
   <si>
     <t>name</t>
   </si>
@@ -1662,9 +1662,6 @@
     <t>רופא שיניים</t>
   </si>
   <si>
-    <t>לימוד נהיגה</t>
-  </si>
-  <si>
     <t>שיווק ומכירה דלתות כניסה ופנים שירות מנעולנות</t>
   </si>
   <si>
@@ -1708,33 +1705,6 @@
   </si>
   <si>
     <t>0559208794</t>
-  </si>
-  <si>
-    <t>שם פרטי ושם משפחה</t>
-  </si>
-  <si>
-    <t>כתובת אימייל</t>
-  </si>
-  <si>
-    <t>שם העסק/ השירות</t>
-  </si>
-  <si>
-    <t>תחום</t>
-  </si>
-  <si>
-    <t>פרטי העסק/השירות (פרט על העסק בכמה מילים, אילו מענים מספק וכו' עד 30 תווים)</t>
-  </si>
-  <si>
-    <t>קישור לאתר או לרשת חברתית של העסק/השירות (במידה ויש)</t>
-  </si>
-  <si>
-    <t>טלפון של העסק/השירות</t>
-  </si>
-  <si>
-    <t>קישור להצטרפות לקבוצת ווצאפ של העסק/השירות</t>
-  </si>
-  <si>
-    <t>פלייר פרסומי (קובץ תמונה או PDF)</t>
   </si>
   <si>
     <t>התקנות תיקונים בבית צבע לבית מקלחונים</t>
@@ -2316,9 +2286,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/shlomir81?mibextid=ZbWKwL</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1WVN1NiyLbE9Q1r1wvhmDbe8gPeuRVeUJ</t>
   </si>
   <si>
     <t>ניסים פלוס</t>
@@ -2580,12 +2547,45 @@
   <si>
     <t>0543339192</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N2BEawUmeZrOV5ROnc6L567Mz-mnd6OP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>צליל שושן</t>
+  </si>
+  <si>
+    <t>tslils5@gmail.com</t>
+  </si>
+  <si>
+    <t>OTB SUSHI</t>
+  </si>
+  <si>
+    <t>פועלים בימים א, ב, ד, ה</t>
+  </si>
+  <si>
+    <t>14:00-22:00</t>
+  </si>
+  <si>
+    <t>תפריט סושי עשיר ומנות מגוונות נוספות , עסקיות צהריים, ערבי שף ועוד .</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/o.t.b_sushi?igsh=MTg1bXVndHlvYml5Zw%3D%3D&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>'0503757474</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/C3nUsUghm339q1w2DCdJ5h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gTXkcHSkkskg2oahWf5L7wmMFxaJaf7U</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2614,6 +2614,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2636,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2653,6 +2665,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2990,13 +3004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,11 +3080,11 @@
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
@@ -3115,7 +3132,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5" t="s">
@@ -3207,13 +3224,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5" t="s">
@@ -3226,7 +3243,7 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3238,7 +3255,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>80</v>
@@ -3253,7 +3270,7 @@
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -3265,7 +3282,7 @@
         <v>186</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>81</v>
@@ -3286,7 +3303,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>187</v>
@@ -3305,19 +3322,19 @@
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>83</v>
@@ -3367,7 +3384,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>84</v>
@@ -3384,13 +3401,13 @@
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>63</v>
@@ -3413,13 +3430,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>85</v>
@@ -3518,7 +3535,7 @@
         <v>75</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>111</v>
@@ -3563,13 +3580,13 @@
         <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>136</v>
@@ -3582,7 +3599,7 @@
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>129</v>
@@ -3600,7 +3617,7 @@
         <v>137</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>122</v>
@@ -3629,7 +3646,7 @@
         <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3642,13 +3659,13 @@
         <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>212</v>
@@ -3663,13 +3680,13 @@
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>192</v>
@@ -3700,7 +3717,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="5" t="s">
@@ -3723,7 +3740,7 @@
         <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>215</v>
@@ -3748,7 +3765,7 @@
         <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5" t="s">
@@ -3771,7 +3788,7 @@
         <v>186</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5" t="s">
@@ -3817,7 +3834,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>216</v>
@@ -3836,7 +3853,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>41</v>
@@ -3859,7 +3876,7 @@
         <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>186</v>
@@ -3928,13 +3945,13 @@
         <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>218</v>
@@ -3949,7 +3966,7 @@
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>166</v>
@@ -3994,7 +4011,7 @@
         <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4038,7 +4055,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="5" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>224</v>
@@ -4064,7 +4081,7 @@
         <v>210</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>226</v>
@@ -4074,7 +4091,7 @@
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>169</v>
@@ -4086,7 +4103,7 @@
         <v>199</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>227</v>
@@ -4124,19 +4141,19 @@
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="5" t="s">
@@ -4157,13 +4174,13 @@
         <v>253</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>255</v>
@@ -4178,7 +4195,7 @@
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>257</v>
@@ -4228,19 +4245,19 @@
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>268</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="5" t="s">
@@ -4286,7 +4303,7 @@
         <v>276</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="5" t="s">
@@ -4311,7 +4328,7 @@
         <v>281</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>282</v>
@@ -4380,13 +4397,13 @@
         <v>294</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="5" t="s">
@@ -4397,7 +4414,7 @@
     </row>
     <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>296</v>
@@ -4421,7 +4438,7 @@
         <v>300</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4432,7 +4449,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>301</v>
@@ -4452,22 +4469,22 @@
         <v>303</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>304</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -4486,13 +4503,13 @@
         <v>58</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -4515,7 +4532,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="5" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -4559,7 +4576,7 @@
         <v>192</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>323</v>
@@ -4605,7 +4622,7 @@
         <v>331</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>57</v>
@@ -4617,7 +4634,7 @@
         <v>333</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -4655,7 +4672,7 @@
         <v>342</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>59</v>
@@ -4680,7 +4697,7 @@
         <v>346</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>199</v>
@@ -4692,7 +4709,7 @@
         <v>348</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4736,11 +4753,11 @@
         <v>358</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="5" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -4753,7 +4770,7 @@
         <v>360</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>65</v>
@@ -4765,7 +4782,7 @@
         <v>362</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -4826,13 +4843,13 @@
         <v>369</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>370</v>
@@ -4850,16 +4867,16 @@
         <v>372</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>373</v>
@@ -4874,13 +4891,13 @@
     </row>
     <row r="76" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>376</v>
@@ -4890,7 +4907,7 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="5" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -4920,19 +4937,19 @@
     </row>
     <row r="78" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>385</v>
@@ -4948,19 +4965,19 @@
         <v>386</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>504</v>
@@ -5011,7 +5028,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="5" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="s">
@@ -5036,7 +5053,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="5" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5059,7 +5076,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="5" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -5078,11 +5095,11 @@
         <v>407</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="5" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5126,13 +5143,13 @@
         <v>417</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -5182,7 +5199,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="5" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="s">
@@ -5191,13 +5208,13 @@
     </row>
     <row r="89" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>186</v>
@@ -5209,7 +5226,7 @@
         <v>432</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -5228,7 +5245,7 @@
         <v>192</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5" t="s">
@@ -5247,19 +5264,19 @@
         <v>438</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>439</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>440</v>
@@ -5276,13 +5293,13 @@
         <v>444</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="5" t="s">
@@ -5299,7 +5316,7 @@
         <v>446</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>189</v>
@@ -5316,19 +5333,19 @@
     </row>
     <row r="94" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>448</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>407</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="5" t="s">
@@ -5403,7 +5420,7 @@
         <v>188</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="5" t="s">
@@ -5432,7 +5449,7 @@
         <v>466</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="4" t="s">
@@ -5441,13 +5458,13 @@
     </row>
     <row r="99" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>197</v>
@@ -5474,13 +5491,13 @@
         <v>472</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>473</v>
@@ -5530,7 +5547,7 @@
         <v>193</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="5" t="s">
@@ -5547,7 +5564,7 @@
         <v>483</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>251</v>
@@ -5580,11 +5597,11 @@
         <v>395</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -5603,15 +5620,15 @@
         <v>64</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5628,11 +5645,11 @@
         <v>534</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="5" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -5648,14 +5665,14 @@
         <v>532</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>535</v>
+        <v>731</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -5674,666 +5691,696 @@
         <v>58</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>535</v>
+        <v>731</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="5" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="5" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="C113" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="5" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="4" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="4" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="5" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="4" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="4" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="5" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="H124" s="3">
-        <v>525499941</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>744</v>
+        <v>805</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="10" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="5" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="4" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="5" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="5" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="4" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="5" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="4" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>241</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="4" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="5" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="4" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="5" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G135" s="6"/>
+      <c r="A135" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="3" t="s">
+        <v>820</v>
+      </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="3" t="s">
+        <v>821</v>
+      </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7492,6 +7539,7 @@
       <c r="G522" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I134" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{0C853E4D-D61D-8040-B75F-8BBD7C3B13D8}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{55EFDE24-38B8-7C46-93AE-BEC95B2A4D9E}"/>
@@ -7610,16 +7658,18 @@
     <hyperlink ref="I120" r:id="rId115" xr:uid="{3EEC702D-6426-1F4A-B36A-0C4B8F857C69}"/>
     <hyperlink ref="F123" r:id="rId116" xr:uid="{812296B9-2CC2-DA4F-9512-3027FC3C1242}"/>
     <hyperlink ref="F124" r:id="rId117" xr:uid="{AC4CCEE8-8C4B-B143-A52E-FA1BE6D66B02}"/>
-    <hyperlink ref="I124" r:id="rId118" xr:uid="{0C6951BB-ED1E-E240-9626-1A2D240BB1D4}"/>
-    <hyperlink ref="I125" r:id="rId119" xr:uid="{3EBBDBB7-4D64-DD48-9B77-07369AD51F95}"/>
-    <hyperlink ref="F128" r:id="rId120" xr:uid="{A689A6D5-7BBD-3548-A8B5-0EE19A5F6078}"/>
-    <hyperlink ref="F129" r:id="rId121" xr:uid="{7E8A719E-1EB3-B246-85B0-DE5749074987}"/>
-    <hyperlink ref="I129" r:id="rId122" xr:uid="{7730CBCF-1FBC-A844-8BB1-0E53F5ED4568}"/>
-    <hyperlink ref="F130" r:id="rId123" display="http://klein-arc.co.il/" xr:uid="{D205669D-7209-1742-A2C3-60C54E4B9B29}"/>
-    <hyperlink ref="I131" r:id="rId124" xr:uid="{95E64180-21BD-444B-B59A-1438EE38AB83}"/>
-    <hyperlink ref="F132" r:id="rId125" display="http://salsacards.com/" xr:uid="{84A9BE71-5655-FE4D-A695-289A9198B3C5}"/>
-    <hyperlink ref="I132" r:id="rId126" xr:uid="{15326B71-DDC1-FE47-A69A-31DFD29681E5}"/>
-    <hyperlink ref="I133" r:id="rId127" xr:uid="{DD5483DD-3904-5240-952A-61361560A90C}"/>
+    <hyperlink ref="I125" r:id="rId118" xr:uid="{3EBBDBB7-4D64-DD48-9B77-07369AD51F95}"/>
+    <hyperlink ref="F128" r:id="rId119" xr:uid="{A689A6D5-7BBD-3548-A8B5-0EE19A5F6078}"/>
+    <hyperlink ref="F129" r:id="rId120" xr:uid="{7E8A719E-1EB3-B246-85B0-DE5749074987}"/>
+    <hyperlink ref="I129" r:id="rId121" xr:uid="{7730CBCF-1FBC-A844-8BB1-0E53F5ED4568}"/>
+    <hyperlink ref="F130" r:id="rId122" display="http://klein-arc.co.il/" xr:uid="{D205669D-7209-1742-A2C3-60C54E4B9B29}"/>
+    <hyperlink ref="I131" r:id="rId123" xr:uid="{95E64180-21BD-444B-B59A-1438EE38AB83}"/>
+    <hyperlink ref="F132" r:id="rId124" display="http://salsacards.com/" xr:uid="{84A9BE71-5655-FE4D-A695-289A9198B3C5}"/>
+    <hyperlink ref="I132" r:id="rId125" xr:uid="{15326B71-DDC1-FE47-A69A-31DFD29681E5}"/>
+    <hyperlink ref="I133" r:id="rId126" xr:uid="{DD5483DD-3904-5240-952A-61361560A90C}"/>
+    <hyperlink ref="F135" r:id="rId127" xr:uid="{62B19C98-4025-9D4B-BABC-D4B91EDF0CD5}"/>
+    <hyperlink ref="H135" r:id="rId128" xr:uid="{5808AF31-24BF-C946-837E-3CE74BCBAAC3}"/>
+    <hyperlink ref="I135" r:id="rId129" xr:uid="{AFEB7091-7080-1D43-AB6E-B15908BABB44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7629,8 +7679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8B3FC4-3BC5-9743-A735-5428038B135C}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:I134"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7639,3463 +7689,1480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>559</v>
-      </c>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>560</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>796</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>561</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>563</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>103</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="155" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="294" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>123</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>798</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>586</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>588</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>589</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="5" t="s">
-        <v>235</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>236</v>
-      </c>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="5" t="s">
-        <v>237</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>219</v>
-      </c>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="372" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>222</v>
-      </c>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>799</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="5" t="s">
-        <v>242</v>
-      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="113" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>152</v>
-      </c>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>226</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>243</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>601</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>490</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>492</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>607</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="225" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>272</v>
-      </c>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="5" t="s">
-        <v>494</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>608</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>496</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>487</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>288</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>487</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>611</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="5" t="s">
-        <v>488</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>795</v>
-      </c>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>313</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="5" t="s">
-        <v>801</v>
-      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="71" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>318</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>498</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>489</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>802</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>335</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>343</v>
-      </c>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>344</v>
-      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>803</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>353</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="5" t="s">
-        <v>350</v>
-      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="5" t="s">
-        <v>804</v>
-      </c>
+      <c r="G70" s="5"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>805</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G72" s="5"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="5" t="s">
-        <v>350</v>
-      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="183" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>500</v>
-      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="4" t="s">
-        <v>371</v>
-      </c>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>501</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="4" t="s">
-        <v>374</v>
-      </c>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="5" t="s">
-        <v>806</v>
-      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="5" t="s">
-        <v>502</v>
-      </c>
+      <c r="G77" s="5"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>503</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>504</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>505</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="5" t="s">
-        <v>807</v>
-      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>401</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="5" t="s">
-        <v>808</v>
-      </c>
+      <c r="G82" s="5"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="5" t="s">
-        <v>808</v>
-      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>638</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="5" t="s">
-        <v>809</v>
-      </c>
+      <c r="G84" s="5"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>507</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="5" t="s">
-        <v>810</v>
-      </c>
+      <c r="G88" s="5"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>811</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>643</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="5" t="s">
-        <v>508</v>
-      </c>
+      <c r="G90" s="5"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="155" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>647</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="5" t="s">
-        <v>443</v>
-      </c>
+      <c r="G92" s="5"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>447</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="5" t="s">
-        <v>509</v>
-      </c>
+      <c r="G93" s="5"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>651</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="5" t="s">
-        <v>510</v>
-      </c>
+      <c r="G94" s="5"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>511</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="4" t="s">
-        <v>454</v>
-      </c>
+      <c r="I95" s="4"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>512</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>652</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="G97" s="5"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>813</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="4" t="s">
-        <v>467</v>
-      </c>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>514</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="359" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="5" t="s">
-        <v>516</v>
-      </c>
+      <c r="G101" s="5"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="155" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>658</v>
-      </c>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="5" t="s">
-        <v>517</v>
-      </c>
+      <c r="G102" s="5"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="4" t="s">
-        <v>486</v>
-      </c>
+      <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="5" t="s">
-        <v>543</v>
-      </c>
+      <c r="G104" s="5"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>537</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="G105" s="5"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="4" t="s">
-        <v>546</v>
-      </c>
+      <c r="I105" s="4"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>538</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="5" t="s">
-        <v>814</v>
-      </c>
+      <c r="G106" s="5"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>539</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="G107" s="5"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>545</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="5"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>660</v>
-      </c>
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>662</v>
-      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="G109" s="5"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>666</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="G110" s="5"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="4" t="s">
-        <v>667</v>
-      </c>
+      <c r="I110" s="4"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>671</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="5" t="s">
-        <v>815</v>
-      </c>
+      <c r="G111" s="5"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="4" t="s">
-        <v>672</v>
-      </c>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="5"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" ht="307" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>550</v>
-      </c>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="5"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>683</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="G114" s="5"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="4" t="s">
-        <v>684</v>
-      </c>
+      <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>714</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="G115" s="5"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="4" t="s">
-        <v>731</v>
-      </c>
+      <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>715</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>733</v>
-      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>716</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="G117" s="5"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>717</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="G118" s="5"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>737</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="5"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="4" t="s">
-        <v>734</v>
-      </c>
+      <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>719</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="G120" s="5"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="183" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>720</v>
-      </c>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="G121" s="5"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="113" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>695</v>
-      </c>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>721</v>
-      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="5" t="s">
-        <v>729</v>
-      </c>
+      <c r="G122" s="5"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="5"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="H124" s="3">
-        <v>525499941</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>748</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="G125" s="5"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="4" t="s">
-        <v>749</v>
-      </c>
+      <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>753</v>
-      </c>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="5" t="s">
-        <v>818</v>
-      </c>
+      <c r="G126" s="5"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>757</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="5" t="s">
-        <v>819</v>
-      </c>
+      <c r="G127" s="5"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>820</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="5"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>821</v>
-      </c>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="5"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="4" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>822</v>
-      </c>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="5"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>780</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="5" t="s">
-        <v>823</v>
-      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="5"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="4" t="s">
-        <v>785</v>
-      </c>
+      <c r="I132" s="4"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>789</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="5" t="s">
-        <v>824</v>
-      </c>
+      <c r="G133" s="5"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="4" t="s">
-        <v>790</v>
-      </c>
+      <c r="I133" s="4"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>794</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="5" t="s">
-        <v>825</v>
-      </c>
+      <c r="G134" s="5"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{BEA314DD-B6C0-1C43-90EF-5925F121B575}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{2C9C0421-0401-C142-89D8-2AD1B667911D}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{EC5B65CF-B8FB-FC43-AD82-63E85FF4A651}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{391827F2-5A09-B94F-9E82-CEADFB280420}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{9B3B3662-6A65-0649-B24F-0AD414DB73E2}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6C4F63C2-F330-0E4E-92B0-597F45CCA2E3}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{61F3E51A-18F7-614A-A7D8-2C11938DCE3B}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{41798597-EB03-9942-9C54-89E3CB37526E}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{4EF21439-3BDE-EB4B-A7B3-BBC158DC163C}"/>
-    <hyperlink ref="I10" r:id="rId10" xr:uid="{8EDD4C95-82BD-2F42-B0F1-2C6413A12BC9}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{B5157801-D467-D84E-9DE6-DF91DD815509}"/>
-    <hyperlink ref="H11" r:id="rId12" xr:uid="{38B671BC-3A08-3046-9420-9791417E230E}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{A2D19D50-ED0A-8F43-9B5E-8DE375AE53A3}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{1009A5EE-1C6B-3E49-94AF-ED04A28E89A4}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{EC766834-FE50-024B-8400-90A8091CE3CD}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{8B3058C3-1992-954B-8D17-AA77E69F5A59}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{76AD5ACB-7506-544A-92E0-0C435AD87D97}"/>
-    <hyperlink ref="I15" r:id="rId18" xr:uid="{F9EF746E-B209-9645-A537-A388D49AFB07}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{32936116-6BBD-DB45-8B90-AD0FB8A1F3E9}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{E63C4A5D-7626-D540-B03C-96E59BBD26DA}"/>
-    <hyperlink ref="I20" r:id="rId21" xr:uid="{F45D67B8-EAB1-154A-B60A-D084BC675ACE}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{733ED9B2-282E-2E40-8F25-D89B9D9B9A1C}"/>
-    <hyperlink ref="I21" r:id="rId23" xr:uid="{D7578F88-B133-5842-9E3A-BE706245EF13}"/>
-    <hyperlink ref="F22" r:id="rId24" display="https://gargi944767058.wordpress.com/" xr:uid="{7BA6A314-A87D-9B49-97DF-CB516CEAC848}"/>
-    <hyperlink ref="I22" r:id="rId25" xr:uid="{F79AC728-4585-F648-B08F-A667A0E5175B}"/>
-    <hyperlink ref="F23" r:id="rId26" xr:uid="{C54758AF-EC01-3F4E-963B-5E62FA39FC85}"/>
-    <hyperlink ref="F24" r:id="rId27" xr:uid="{02348690-E5C3-4E46-B28D-8DE244AA47FC}"/>
-    <hyperlink ref="H24" r:id="rId28" xr:uid="{9048F76D-922B-A149-8BC5-FFFBBE915339}"/>
-    <hyperlink ref="I24" r:id="rId29" xr:uid="{617358BB-EA95-FA4D-9BBD-6C73D4B4332F}"/>
-    <hyperlink ref="F25" r:id="rId30" display="http://beigale.co.il/" xr:uid="{E32C2D23-B1C3-C044-A8C1-C4DB7B119403}"/>
-    <hyperlink ref="F26" r:id="rId31" display="http://www.debbie-iancu.co.il/" xr:uid="{C6663961-9D80-3244-937D-F89507D6A65D}"/>
-    <hyperlink ref="I26" r:id="rId32" xr:uid="{8DC14490-CCA6-C940-A2A1-A6B81D82D908}"/>
-    <hyperlink ref="I27" r:id="rId33" xr:uid="{0249E622-7FC7-DE4C-A1FD-EECB358DF0A6}"/>
-    <hyperlink ref="F29" r:id="rId34" display="http://zaur.co.il/" xr:uid="{09DECE2A-7C76-7844-BF91-B356102D6286}"/>
-    <hyperlink ref="F33" r:id="rId35" xr:uid="{BF97EAB9-90CA-3241-9827-6BB33B34105C}"/>
-    <hyperlink ref="I33" r:id="rId36" xr:uid="{F925ED91-548A-5F4C-B8C6-CB4AE04E807F}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{8B870886-0A66-B846-B8E4-58098B1ACBD7}"/>
-    <hyperlink ref="H38" r:id="rId38" xr:uid="{F5BE2CB9-AFC1-B248-B372-A350911C1473}"/>
-    <hyperlink ref="F39" r:id="rId39" xr:uid="{4848DB36-D73F-4F4E-B50C-46A4F08D740C}"/>
-    <hyperlink ref="H39" r:id="rId40" xr:uid="{EDB1C462-E874-A04E-B862-FB65DF6406B8}"/>
-    <hyperlink ref="I39" r:id="rId41" xr:uid="{07C799F9-7BCF-CD46-8333-42FDDAC5CE18}"/>
-    <hyperlink ref="F40" r:id="rId42" xr:uid="{CD1FEE74-D8AB-0348-8B53-4D468F932D8E}"/>
-    <hyperlink ref="H42" r:id="rId43" xr:uid="{C6FB1A16-4730-3846-B64A-E46A7645009E}"/>
-    <hyperlink ref="I42" r:id="rId44" xr:uid="{8A20969A-9235-AF4D-8D11-F81D93E78D6B}"/>
-    <hyperlink ref="F43" r:id="rId45" xr:uid="{871214E8-3B2A-0648-97FD-919E977836D8}"/>
-    <hyperlink ref="F44" r:id="rId46" xr:uid="{192992C1-74C9-3B48-B124-290FEA67F004}"/>
-    <hyperlink ref="H46" r:id="rId47" xr:uid="{92A7AC08-F411-9042-8412-7CD8CAF638D2}"/>
-    <hyperlink ref="I46" r:id="rId48" xr:uid="{EEBA639A-653D-5942-A353-DB9439C95F14}"/>
-    <hyperlink ref="F47" r:id="rId49" display="https://www.instagram.com/roniteitanimakeup/" xr:uid="{64EAAC4A-D374-834A-8D68-0B6018B57F02}"/>
-    <hyperlink ref="I47" r:id="rId50" xr:uid="{D8B758EA-23D7-F542-98EA-919AE7612054}"/>
-    <hyperlink ref="F49" r:id="rId51" xr:uid="{144D16F4-BAE1-EE45-9EDE-FB4DA01E327D}"/>
-    <hyperlink ref="I49" r:id="rId52" xr:uid="{8561F655-3164-D94F-9985-2AD2CBD04BBB}"/>
-    <hyperlink ref="I52" r:id="rId53" xr:uid="{51313515-0ABD-C143-AF1D-650DF26C1059}"/>
-    <hyperlink ref="F53" r:id="rId54" xr:uid="{B1BB0D86-2FF2-7B43-BD4B-AE1F04216A52}"/>
-    <hyperlink ref="F54" r:id="rId55" xr:uid="{550B09DA-843F-334F-B181-C2BFD5ADCF4C}"/>
-    <hyperlink ref="I54" r:id="rId56" xr:uid="{28751535-181E-6E42-A8B3-50845971D770}"/>
-    <hyperlink ref="F55" r:id="rId57" display="http://www.noiman-group.co.il/" xr:uid="{4C6F920C-3A06-B340-AA6E-D36DBBC12C06}"/>
-    <hyperlink ref="I55" r:id="rId58" xr:uid="{057D1AFF-7247-2B44-8CEC-902228F48B49}"/>
-    <hyperlink ref="F57" r:id="rId59" xr:uid="{5D5A7681-962E-C742-89EC-1E2C299A0EDD}"/>
-    <hyperlink ref="H57" r:id="rId60" xr:uid="{0A51B917-83AF-614D-B261-7377962051F5}"/>
-    <hyperlink ref="I57" r:id="rId61" xr:uid="{AF628884-74EE-CA43-B341-1CB7AAD8672C}"/>
-    <hyperlink ref="F59" r:id="rId62" display="http://www.eldorms.co.il/" xr:uid="{15C9ACB3-B02B-8940-A262-C1E9E2AE8AD9}"/>
-    <hyperlink ref="F60" r:id="rId63" display="http://www.lawinisrael.net/" xr:uid="{D1B9853D-36FA-5C48-8F14-491BF220FBC1}"/>
-    <hyperlink ref="I62" r:id="rId64" xr:uid="{FE8AA875-4D24-6C4F-A479-8A2C14A57DF7}"/>
-    <hyperlink ref="F63" r:id="rId65" xr:uid="{221F1395-0FBD-F04C-9D5A-8F9C65CBCD79}"/>
-    <hyperlink ref="I63" r:id="rId66" xr:uid="{9C7A9200-7DE3-E54A-A4B4-734A2AE3322E}"/>
-    <hyperlink ref="F64" r:id="rId67" xr:uid="{E938B8DE-F52B-8F48-9897-6B59BF88F4BA}"/>
-    <hyperlink ref="F65" r:id="rId68" xr:uid="{89BE7555-E1C6-0A4D-8F70-215B51D8EAE1}"/>
-    <hyperlink ref="F66" r:id="rId69" xr:uid="{73F5D009-02EB-544C-B0C3-39CC2F05D162}"/>
-    <hyperlink ref="F68" r:id="rId70" xr:uid="{9ACE0109-C97C-7B48-9E78-29EB0F8FB9C5}"/>
-    <hyperlink ref="I69" r:id="rId71" xr:uid="{C0BCED38-05FE-2242-A840-5B749AF6904B}"/>
-    <hyperlink ref="F71" r:id="rId72" xr:uid="{6B65BE12-88D5-BC4D-B1F0-9FDFBF2A3584}"/>
-    <hyperlink ref="I73" r:id="rId73" xr:uid="{EFA86DF3-E836-9D40-8D4A-4AC8D6AE8515}"/>
-    <hyperlink ref="F74" r:id="rId74" xr:uid="{DB73E8FD-DBE4-AB45-8CE3-5A1861E6C7C1}"/>
-    <hyperlink ref="I74" r:id="rId75" xr:uid="{B89FEF81-E72F-0A41-A46B-1DDD5537F706}"/>
-    <hyperlink ref="F75" r:id="rId76" display="http://ramdonnell.co.il/" xr:uid="{92B43A7F-192F-2149-BD85-0368701E308F}"/>
-    <hyperlink ref="I75" r:id="rId77" xr:uid="{A3CBD5EA-8F26-214B-AAF4-6EEC5A5229CE}"/>
-    <hyperlink ref="F78" r:id="rId78" display="http://sodhadama.co.il/" xr:uid="{C65F1A7D-E753-9440-8113-54D86AA4BFD2}"/>
-    <hyperlink ref="F79" r:id="rId79" xr:uid="{5A3D2044-41DC-4E47-9952-CDE4C976B890}"/>
-    <hyperlink ref="F80" r:id="rId80" xr:uid="{6793F8E2-9587-1F45-8F62-63583807E65D}"/>
-    <hyperlink ref="I81" r:id="rId81" xr:uid="{02AB749D-676E-7A44-AF25-A560428F68C5}"/>
-    <hyperlink ref="F85" r:id="rId82" xr:uid="{E02609ED-620D-B040-A3FF-9DC4A3B20288}"/>
-    <hyperlink ref="F86" r:id="rId83" xr:uid="{BE6CC2EC-6F87-F345-AFD9-2AA6A9CF8745}"/>
-    <hyperlink ref="F87" r:id="rId84" xr:uid="{1500EC69-CD0F-1745-829B-C5B6D6D7FC30}"/>
-    <hyperlink ref="I87" r:id="rId85" xr:uid="{075E13AC-463C-BD4A-8C88-5384179B80CF}"/>
-    <hyperlink ref="I88" r:id="rId86" xr:uid="{43CD2AD8-132A-E944-BAD1-EE27B22E2BE8}"/>
-    <hyperlink ref="F89" r:id="rId87" display="https://www.oshratharari.com/" xr:uid="{EF25C9C6-6DD5-0749-943C-17C137B66F6B}"/>
-    <hyperlink ref="I90" r:id="rId88" xr:uid="{A69F5603-0C67-6540-8777-9D72A460C303}"/>
-    <hyperlink ref="F91" r:id="rId89" xr:uid="{BE4AD835-2E21-EB45-8628-653C087D5C08}"/>
-    <hyperlink ref="H91" r:id="rId90" xr:uid="{34C6084C-D3A2-1048-83C3-0C97A92D61C0}"/>
-    <hyperlink ref="I91" r:id="rId91" xr:uid="{7B3B2AB0-29DB-4A4F-AC43-2A251413E92F}"/>
-    <hyperlink ref="F95" r:id="rId92" xr:uid="{BC3026B3-0FAC-BC40-947C-7051E23C9436}"/>
-    <hyperlink ref="I95" r:id="rId93" xr:uid="{B76E2031-1704-B949-8CDD-E6640A41B990}"/>
-    <hyperlink ref="F96" r:id="rId94" xr:uid="{844EEDF7-4297-D546-BD3C-6BB29ACB52BB}"/>
-    <hyperlink ref="F98" r:id="rId95" display="http://www.alonins.co.il/" xr:uid="{BA9AA2A9-D9BA-AF41-8F1E-358AF2CAAD8B}"/>
-    <hyperlink ref="I98" r:id="rId96" xr:uid="{3C8EB3CB-2431-FA45-B0B2-58376A9A514B}"/>
-    <hyperlink ref="F99" r:id="rId97" xr:uid="{67A78F92-F509-C14F-A4A8-51134E161083}"/>
-    <hyperlink ref="I99" r:id="rId98" xr:uid="{0B8A21DD-A9CE-8B47-8FD8-49A3596397A2}"/>
-    <hyperlink ref="F100" r:id="rId99" xr:uid="{A5F4CAAC-F2EF-FA47-BA7C-33F6C0348ACA}"/>
-    <hyperlink ref="H100" r:id="rId100" xr:uid="{806D381D-2F3F-F243-B53D-D6D3E4A9A529}"/>
-    <hyperlink ref="F103" r:id="rId101" xr:uid="{5E66D388-B9D4-1745-8A94-1C652E70CE06}"/>
-    <hyperlink ref="I103" r:id="rId102" xr:uid="{9BDE6748-D45B-E64F-957D-94FB3E311796}"/>
-    <hyperlink ref="I105" r:id="rId103" xr:uid="{BC85D6C1-12AF-6E41-88A0-72376BF27E6D}"/>
-    <hyperlink ref="F108" r:id="rId104" xr:uid="{C74DD6C4-48A6-644F-AC88-B3FA1EC44E51}"/>
-    <hyperlink ref="I110" r:id="rId105" xr:uid="{FFF7164C-29DD-5E4A-B55E-D2B35ABCE7CE}"/>
-    <hyperlink ref="I111" r:id="rId106" xr:uid="{A0D19B52-15C2-154C-9E62-D2E761EFE632}"/>
-    <hyperlink ref="F112" r:id="rId107" xr:uid="{32CAE435-71ED-8B49-9427-806924AC3B97}"/>
-    <hyperlink ref="F113" r:id="rId108" xr:uid="{D467AE0F-F363-324A-9384-E137B0582D8A}"/>
-    <hyperlink ref="I114" r:id="rId109" xr:uid="{96C422CF-C912-9544-AA0A-1405B867F2B0}"/>
-    <hyperlink ref="I115" r:id="rId110" xr:uid="{EAF63472-76BE-B146-98FC-842CD63C34F6}"/>
-    <hyperlink ref="H116" r:id="rId111" xr:uid="{6363A27C-8C6A-5543-800A-774F65175171}"/>
-    <hyperlink ref="I116" r:id="rId112" xr:uid="{D849716E-8D2C-994E-8DDF-BBFBB7DAB193}"/>
-    <hyperlink ref="F119" r:id="rId113" display="http://www.junam.co/" xr:uid="{F1A8BACA-F305-E64E-B1FD-B075CD4FCCC5}"/>
-    <hyperlink ref="I119" r:id="rId114" xr:uid="{9F9941E1-9D34-5A4B-8556-62C1FECB6E3A}"/>
-    <hyperlink ref="I120" r:id="rId115" xr:uid="{A4077B0B-CA73-8042-9E75-E53320361713}"/>
-    <hyperlink ref="F123" r:id="rId116" xr:uid="{61163FC7-B0F7-B04C-8A35-1F7A191F7281}"/>
-    <hyperlink ref="F124" r:id="rId117" xr:uid="{9F2E12B9-F640-4D43-AC03-816E29B08366}"/>
-    <hyperlink ref="I124" r:id="rId118" xr:uid="{E5F0539B-583A-EB4C-B04D-87C81FE727C9}"/>
-    <hyperlink ref="I125" r:id="rId119" xr:uid="{F4A87E1A-843C-5F4D-BD97-409E5CBE2F8C}"/>
-    <hyperlink ref="F128" r:id="rId120" xr:uid="{86A3EE9B-9388-A544-9ACC-37AF3F5EB5B0}"/>
-    <hyperlink ref="F129" r:id="rId121" xr:uid="{675E4EF4-8323-7548-B0BE-CEC275B9EB41}"/>
-    <hyperlink ref="I129" r:id="rId122" xr:uid="{045A01C4-7AF6-5D4F-9322-EDA923075386}"/>
-    <hyperlink ref="F130" r:id="rId123" display="http://klein-arc.co.il/" xr:uid="{F7B31CD3-FA18-4B46-A9F0-EA8988114279}"/>
-    <hyperlink ref="I131" r:id="rId124" xr:uid="{EF38EC49-C81F-534C-9A9E-A5FDF0F53129}"/>
-    <hyperlink ref="F132" r:id="rId125" display="http://salsacards.com/" xr:uid="{71ABE8F9-E6BE-8941-B999-4C9DA712ACCD}"/>
-    <hyperlink ref="I132" r:id="rId126" xr:uid="{0D7ED2B4-8E56-674A-97DF-031AA9CBFC27}"/>
-    <hyperlink ref="I133" r:id="rId127" xr:uid="{E3380F3C-4DFA-C345-A87F-89E67EC77004}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139FAA81-2411-7647-925D-5B75BC375CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A062ABB-BCD5-AE46-8ACE-4248ED264CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="831">
   <si>
     <t>name</t>
   </si>
@@ -2560,15 +2560,6 @@
     <t>OTB SUSHI</t>
   </si>
   <si>
-    <t>פועלים בימים א, ב, ד, ה</t>
-  </si>
-  <si>
-    <t>14:00-22:00</t>
-  </si>
-  <si>
-    <t>תפריט סושי עשיר ומנות מגוונות נוספות , עסקיות צהריים, ערבי שף ועוד .</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/o.t.b_sushi?igsh=MTg1bXVndHlvYml5Zw%3D%3D&amp;utm_source=qr</t>
   </si>
   <si>
@@ -2579,6 +2570,30 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1gTXkcHSkkskg2oahWf5L7wmMFxaJaf7U</t>
+  </si>
+  <si>
+    <t>עמית נחום</t>
+  </si>
+  <si>
+    <t>Amitamnim@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit fit</t>
+  </si>
+  <si>
+    <t>פועלים בימים א, ב, ד, ה - 14:00-22:00-תפריט סושי עשיר ומנות מגוונות נוספות , עסקיות צהריים, ערבי שף ועוד .</t>
+  </si>
+  <si>
+    <t>מכון כושר המתמחה בחיטוב וירידה במשקל ושיקום פציעות פריצות דיסק,ברכיים וכו..</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3m6Ndu6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q1rHCNWPsek9jAD1MULPY5AgwnmpVAoK</t>
+  </si>
+  <si>
+    <t>0545256944</t>
   </si>
 </sst>
 </file>
@@ -2648,7 +2663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2667,6 +2682,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3004,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135:I135"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6356,31 +6372,52 @@
         <v>59</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="G135" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I135" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="G135" s="11" t="s">
+    </row>
+    <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="B136" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="I135" s="4" t="s">
+      <c r="C136" s="11" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E136" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="G136" s="6"/>
+      <c r="D136" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E137" s="3" t="s">
-        <v>821</v>
-      </c>
+      <c r="E137" s="3"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,6 +7707,9 @@
     <hyperlink ref="F135" r:id="rId127" xr:uid="{62B19C98-4025-9D4B-BABC-D4B91EDF0CD5}"/>
     <hyperlink ref="H135" r:id="rId128" xr:uid="{5808AF31-24BF-C946-837E-3CE74BCBAAC3}"/>
     <hyperlink ref="I135" r:id="rId129" xr:uid="{AFEB7091-7080-1D43-AB6E-B15908BABB44}"/>
+    <hyperlink ref="F136" r:id="rId130" xr:uid="{0CD4BA66-4C81-0946-A8E8-25791ABD7217}"/>
+    <hyperlink ref="H136" r:id="rId131" xr:uid="{B472C7CF-913A-1548-87F2-E6CF9B0F4017}"/>
+    <hyperlink ref="I136" r:id="rId132" xr:uid="{599F4899-DCF5-E04F-A482-7778E000DA91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7679,7 +7719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8B3FC4-3BC5-9743-A735-5428038B135C}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B38" sqref="A1:I134"/>
     </sheetView>
   </sheetViews>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A062ABB-BCD5-AE46-8ACE-4248ED264CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464415B4-1D06-584F-A207-2D812AB0EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="865">
   <si>
     <t>name</t>
   </si>
@@ -2104,9 +2104,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1XtrcRU26S7N1P3Rb7xxHC_N9eAuA7ZTw</t>
-  </si>
-  <si>
-    <t>544222892</t>
   </si>
   <si>
     <t>0522702170</t>
@@ -2594,6 +2591,111 @@
   </si>
   <si>
     <t>0545256944</t>
+  </si>
+  <si>
+    <t>זאב זיוון</t>
+  </si>
+  <si>
+    <t>פירות וירקות מיתר</t>
+  </si>
+  <si>
+    <t>אדוארד אפשטיין</t>
+  </si>
+  <si>
+    <t>דורית זוננשיין</t>
+  </si>
+  <si>
+    <t>עו"ד טל ניסים</t>
+  </si>
+  <si>
+    <t>כרמל מזוז</t>
+  </si>
+  <si>
+    <t>zeev.zivan@gmail.com</t>
+  </si>
+  <si>
+    <t>Bestfruit10@gmail.com</t>
+  </si>
+  <si>
+    <t>Eduardep@gmail.com</t>
+  </si>
+  <si>
+    <t>Dorithom@gmail.com</t>
+  </si>
+  <si>
+    <t>office@nissim-adv.com</t>
+  </si>
+  <si>
+    <t>mcarmel70@gmail.com</t>
+  </si>
+  <si>
+    <t>מרצה ומדריך טיולים</t>
+  </si>
+  <si>
+    <t>Good Wood</t>
+  </si>
+  <si>
+    <t>טל ניסים - משרד עורכי דין</t>
+  </si>
+  <si>
+    <t>הדרכת טיולים ומסעות</t>
+  </si>
+  <si>
+    <t>ירקנייה</t>
+  </si>
+  <si>
+    <t>נגרות פרגולות ודקים</t>
+  </si>
+  <si>
+    <t>מטייל ומרצה בתחומי הנגב הישראלי מזה שנים רבות מאוד</t>
+  </si>
+  <si>
+    <t>פירות וירקות מיתר- מביאים פירות וירקות טריים באיכות גבוה מאוד עד אלינו למיתר. הזמנות עד הבית או איסוף עצמי. הצטרפו לקבוצת הווטסאפ שלנו 0586787720</t>
+  </si>
+  <si>
+    <t>בניית פרגולות עץ ואלומיניום, התקנת סנטף, בניית דקים, סאונות יבשות, גדרות</t>
+  </si>
+  <si>
+    <t>עיצוב והלבשת בתים. עיצוב קליניקות ומשרדים. שדרוג נכסים לקראת מכירה או השכרה.</t>
+  </si>
+  <si>
+    <t>נזקי גוף,רשלנות רפואית, תאונות דרכים, תאונות עבודה, תאונות תלמידים, אובדן כושר, תאונות במרחב הציבורי</t>
+  </si>
+  <si>
+    <t>משרד עורכי דין שמתעסק בדיני משפחה צוואת ירושות ונזיקין ביטוח לאומי תאונות עבודה</t>
+  </si>
+  <si>
+    <t>Www.good-wood.co.il</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dorithom?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://nissim-adv.com</t>
+  </si>
+  <si>
+    <t>08-9900088</t>
+  </si>
+  <si>
+    <t>08-6270141, 08-623099</t>
+  </si>
+  <si>
+    <t>0508625111</t>
+  </si>
+  <si>
+    <t>0586787720</t>
+  </si>
+  <si>
+    <t>0585855050</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JhKmiNVD3BJES8LKs_PKkopumlpAUhjD</t>
+  </si>
+  <si>
+    <t>0544222892</t>
+  </si>
+  <si>
+    <t>0523380379</t>
   </si>
 </sst>
 </file>
@@ -3020,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3100,7 +3202,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
@@ -3633,7 +3735,7 @@
         <v>137</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>122</v>
@@ -3662,7 +3764,7 @@
         <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4027,7 +4129,7 @@
         <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4071,7 +4173,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>224</v>
@@ -4454,7 +4556,7 @@
         <v>300</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4500,7 +4602,7 @@
         <v>305</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -4525,7 +4627,7 @@
         <v>308</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -4548,7 +4650,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -4650,7 +4752,7 @@
         <v>333</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -4725,7 +4827,7 @@
         <v>348</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4773,7 +4875,7 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -4798,7 +4900,7 @@
         <v>362</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -4923,7 +5025,7 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -5044,7 +5146,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="s">
@@ -5069,7 +5171,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5092,7 +5194,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -5115,7 +5217,7 @@
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5215,7 +5317,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="s">
@@ -5242,7 +5344,7 @@
         <v>432</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -5292,7 +5394,7 @@
         <v>439</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>440</v>
@@ -5465,7 +5567,7 @@
         <v>466</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="4" t="s">
@@ -5665,7 +5767,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -5681,7 +5783,7 @@
         <v>532</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>538</v>
@@ -5727,14 +5829,14 @@
         <v>651</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>652</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -5757,7 +5859,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="4" t="s">
@@ -5782,7 +5884,7 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="4" t="s">
@@ -5809,7 +5911,7 @@
         <v>667</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -5857,7 +5959,7 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="4" t="s">
@@ -5866,421 +5968,421 @@
     </row>
     <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H116" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>733</v>
-      </c>
       <c r="G124" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>752</v>
-      </c>
       <c r="G128" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="E129" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="F129" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>758</v>
-      </c>
       <c r="G129" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="F130" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>765</v>
-      </c>
       <c r="G130" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6291,149 +6393,265 @@
         <v>166</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E132" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>241</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>818</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="H135" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="I135" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="C136" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>825</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E136" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="G136" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="I136" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="G136" s="12" t="s">
+    </row>
+    <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E137" s="3"/>
-      <c r="G137" s="6"/>
+      <c r="B137" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G138" s="6"/>
+      <c r="A138" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="6" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G139" s="6"/>
+      <c r="A139" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="6"/>
+      <c r="A140" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G141" s="6"/>
+      <c r="A141" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G142" s="6"/>
+      <c r="A142" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="6" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G143" s="6"/>
@@ -7710,6 +7928,10 @@
     <hyperlink ref="F136" r:id="rId130" xr:uid="{0CD4BA66-4C81-0946-A8E8-25791ABD7217}"/>
     <hyperlink ref="H136" r:id="rId131" xr:uid="{B472C7CF-913A-1548-87F2-E6CF9B0F4017}"/>
     <hyperlink ref="I136" r:id="rId132" xr:uid="{599F4899-DCF5-E04F-A482-7778E000DA91}"/>
+    <hyperlink ref="I137" r:id="rId133" xr:uid="{A4B1AFFD-DE45-7A46-9A17-6A3B237B3D31}"/>
+    <hyperlink ref="F141" r:id="rId134" display="https://nissim-adv.com/" xr:uid="{1B7E09CB-E636-5C4C-BE16-33E5E385EE57}"/>
+    <hyperlink ref="F140" r:id="rId135" xr:uid="{A116B735-6BCA-E541-A6FA-F75D791F02D7}"/>
+    <hyperlink ref="F139" r:id="rId136" display="http://www.good-wood.co.il/" xr:uid="{6AAFA761-39EB-F243-BA17-8719C2A59E48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464415B4-1D06-584F-A207-2D812AB0EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2463B2C6-2098-924E-B6A3-6CD64D3351A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="929">
   <si>
     <t>name</t>
   </si>
@@ -2696,6 +2695,204 @@
   </si>
   <si>
     <t>0523380379</t>
+  </si>
+  <si>
+    <t>כרמלה אלון</t>
+  </si>
+  <si>
+    <t>אביב בצרי טפר</t>
+  </si>
+  <si>
+    <t>קרן בן צבי</t>
+  </si>
+  <si>
+    <t>שלומית גילאור</t>
+  </si>
+  <si>
+    <t>דביר מלכא</t>
+  </si>
+  <si>
+    <t>טלי פורת</t>
+  </si>
+  <si>
+    <t>ג׳קי ג׳לדטי</t>
+  </si>
+  <si>
+    <t>מרכז הבמה- בית לקבוצות חברתיות בדרמה תרפיה</t>
+  </si>
+  <si>
+    <t>יהודית קרנר</t>
+  </si>
+  <si>
+    <t>מוטי אדלשטיין</t>
+  </si>
+  <si>
+    <t>carmela.alon@gmail.com</t>
+  </si>
+  <si>
+    <t>Aviv.batsri@gmail.com</t>
+  </si>
+  <si>
+    <t>keren16b@gamil.cim</t>
+  </si>
+  <si>
+    <t>shlomitgilor1@gmail.com</t>
+  </si>
+  <si>
+    <t>Dvirmalka18@gmail.com</t>
+  </si>
+  <si>
+    <t>taliporat9@gmail.com</t>
+  </si>
+  <si>
+    <t>jacky.jaldeti@gmail.com</t>
+  </si>
+  <si>
+    <t>Tamar69@gmail.com</t>
+  </si>
+  <si>
+    <t>Kernerjud@gmail.com</t>
+  </si>
+  <si>
+    <t>Motti.mcw@gmail.com</t>
+  </si>
+  <si>
+    <t>כרמלה אלון - למידה מגוונת</t>
+  </si>
+  <si>
+    <t>מטפלת במשחק , טיפול רגשי ממוקד בילד המלווה בהדרכה הורית</t>
+  </si>
+  <si>
+    <t>שיאצו פרחי באך טיפולי מגע</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים באנגלית ליחידים ולקבוצות</t>
+  </si>
+  <si>
+    <t>התקנת דלתות חוץ , פנים ופרגולות</t>
+  </si>
+  <si>
+    <t>שעורים פרטיים</t>
+  </si>
+  <si>
+    <t>אספקטיב - הצלחה ממבט אחר</t>
+  </si>
+  <si>
+    <t>תמר וייס</t>
+  </si>
+  <si>
+    <t>JUDIO - Ceramic studio &amp; Workshop</t>
+  </si>
+  <si>
+    <t>מורה דרך</t>
+  </si>
+  <si>
+    <t>רפלקסולוגית לגוף ולנפש</t>
+  </si>
+  <si>
+    <t>הוראה מותאמת בשפה וחשבון. מפגשים חווייתיים 
+ולימודיים בהם נתרגל מיומנויות בתחום הרגשי, השפתי והחשבוני. בסביבה נעימה. הלימוד פרטני או קבוצתי.</t>
+  </si>
+  <si>
+    <t>טיפול בקליניקה פרטית לילדים בטווחי גילאים 3-12</t>
+  </si>
+  <si>
+    <t>עסק בהקמה בנושאי הטפול בנוער ובמבוגרים</t>
+  </si>
+  <si>
+    <t>שיעורים פרטיים באנגלית לצמצום פערים והקניית מיומנויות למידה ממורה מוסמכת בעלת ותק של 23 שנה בתחום הוראת האנגלית. בעלת תואר שני ומנחת השתלמויות למורים לאנגלית.
+60 דק' בעלות של 150 ש"ח.
+45 דק' בעלות של 120 ש"ח</t>
+  </si>
+  <si>
+    <t>מכירה , פירוק והתקנת דלתות פנים וחוץ, פרגולות .</t>
+  </si>
+  <si>
+    <t>מורה ותיקה מאוד, בעלת נסיון עשיר בהוראת מקצועות השפה והוראה מתקנת.</t>
+  </si>
+  <si>
+    <t>למידה פרטנית מתקדמת במתמטיקה, אסטרטגיות למידה והכנה ל׳צו ראשון׳</t>
+  </si>
+  <si>
+    <t>המענה המדוייק לקשיים חברתיים- אימון וחשיפה בסביבה מוגנת עם תיווך צמוד. 
+מתאים לחרדה חברתית</t>
+  </si>
+  <si>
+    <t>סטודיו בוטיק בו ניתן לרכוש כלים שימושיים וכלי נוי שהוכנו בעבודת אובניים.
+בסטודיו מתקיימות סדנאות מגוונות, חוויתיות פרטיות (עד 4 אנשים) בהן יוצרים בחימר במגוון אפשרויות וטכניקות - הנאה מובטחת. 
+הסדנאות מתאימות כמתנת יום הולדת, בילוי זוגי, בילוי הורה-ילד, מפגש חברות או חברים ועוד).</t>
+  </si>
+  <si>
+    <t>מארגן אירועי תוכן ,מפגשי פרידה ,אירועים משפחתיים עם תוכן אקטואלי ורלוונטי</t>
+  </si>
+  <si>
+    <t>רפלקסולוגית בעלת ניסיון רב עם גישה המחברת בין גוף לנפש</t>
+  </si>
+  <si>
+    <t>https://65658520e9fd4.site123.me/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Nw7dC41</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/aspectiveSkills?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>בבניה</t>
+  </si>
+  <si>
+    <t>0546599966</t>
+  </si>
+  <si>
+    <t>0504062298</t>
+  </si>
+  <si>
+    <t>052-5217120</t>
+  </si>
+  <si>
+    <t>0522918240</t>
+  </si>
+  <si>
+    <t>054-4254004</t>
+  </si>
+  <si>
+    <t>0544676380</t>
+  </si>
+  <si>
+    <t>0509050678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052-8782625 </t>
+  </si>
+  <si>
+    <t>0506264330</t>
+  </si>
+  <si>
+    <t>0527510777</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WUeQbrlULFrfeU8NuK6PTgd_MD9DaBhR</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DJOgCA4lx63Gp5IVYrJNuq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1N7i2rz9GMedGOf45Saqc8zEuxDn3cFUH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-4PUckUMGipLBrlCvIzS-Wr7aSIT9g8h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YhxPtoEXfGHCav5sy0UDGwzWQEhJ2rFd</t>
+  </si>
+  <si>
+    <t>https://wa.me/c/972528782625</t>
+  </si>
+  <si>
+    <t>כנ״ל</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jffGFdJD0u3HtjKumUd1wx9FyETLb1z1</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3320,7 @@
   <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6654,57 +6851,301 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G143" s="6"/>
+      <c r="A143" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="4" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H152" s="3"/>
+      <c r="I152" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7932,6 +8373,16 @@
     <hyperlink ref="F141" r:id="rId134" display="https://nissim-adv.com/" xr:uid="{1B7E09CB-E636-5C4C-BE16-33E5E385EE57}"/>
     <hyperlink ref="F140" r:id="rId135" xr:uid="{A116B735-6BCA-E541-A6FA-F75D791F02D7}"/>
     <hyperlink ref="F139" r:id="rId136" display="http://www.good-wood.co.il/" xr:uid="{6AAFA761-39EB-F243-BA17-8719C2A59E48}"/>
+    <hyperlink ref="F144" r:id="rId137" xr:uid="{AB95FAA5-2D52-DC45-BD6D-DA8812EA6CBB}"/>
+    <hyperlink ref="F147" r:id="rId138" xr:uid="{52AFE2BE-F2D1-C546-91BA-67F05A2332FD}"/>
+    <hyperlink ref="F149" r:id="rId139" xr:uid="{FA597EE6-7F33-974D-8B5B-9B9C1291A566}"/>
+    <hyperlink ref="I143" r:id="rId140" xr:uid="{7524A4C8-DC8A-8945-B2F1-14980B43165D}"/>
+    <hyperlink ref="H146" r:id="rId141" xr:uid="{7475EFF0-76A0-F943-B09B-1A650B1B7D7B}"/>
+    <hyperlink ref="I147" r:id="rId142" xr:uid="{349E066F-B830-3643-BD45-DC4732A7F169}"/>
+    <hyperlink ref="I148" r:id="rId143" xr:uid="{8B96FC08-ED8A-B54E-89D9-C163F5487BC0}"/>
+    <hyperlink ref="I149" r:id="rId144" xr:uid="{1D53A941-5F35-1E49-8F46-629DA8DA66F6}"/>
+    <hyperlink ref="H150" r:id="rId145" xr:uid="{4CD275B0-2341-9545-8828-EA7007F5F27A}"/>
+    <hyperlink ref="I152" r:id="rId146" xr:uid="{A9AEFECC-1020-1D4E-ADFF-5C46766B8549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2463B2C6-2098-924E-B6A3-6CD64D3351A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A70E0A-C201-3F45-B320-8DFCA65797FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1030">
   <si>
     <t>name</t>
   </si>
@@ -2893,6 +2893,317 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1jffGFdJD0u3HtjKumUd1wx9FyETLb1z1</t>
+  </si>
+  <si>
+    <t>שני שמעוני</t>
+  </si>
+  <si>
+    <t>תהילה בורג</t>
+  </si>
+  <si>
+    <t>ולדימיר זוברוב</t>
+  </si>
+  <si>
+    <t>טל רוימי</t>
+  </si>
+  <si>
+    <t>גליה גל</t>
+  </si>
+  <si>
+    <t>רבקה אביטל</t>
+  </si>
+  <si>
+    <t>שלמה בניסטי</t>
+  </si>
+  <si>
+    <t>אפי כהן</t>
+  </si>
+  <si>
+    <t>אמיר חן</t>
+  </si>
+  <si>
+    <t>דנה ברזין אליעז</t>
+  </si>
+  <si>
+    <t>רינת כהן</t>
+  </si>
+  <si>
+    <t>דנה שני רדיו דנה</t>
+  </si>
+  <si>
+    <t>לילך אהל מסנר</t>
+  </si>
+  <si>
+    <t>דוד גומס דה מסקיטה</t>
+  </si>
+  <si>
+    <t>שרון רווח</t>
+  </si>
+  <si>
+    <t>Shanishimoni2505@gmail.com</t>
+  </si>
+  <si>
+    <t>tehila_m@hotmail.com</t>
+  </si>
+  <si>
+    <t>vova@lotem-eng.co.il</t>
+  </si>
+  <si>
+    <t>Tal.ruimi@gmail.com</t>
+  </si>
+  <si>
+    <t>yossi8711@,gmail.com</t>
+  </si>
+  <si>
+    <t>design.galya@gmail.com</t>
+  </si>
+  <si>
+    <t>Rivk1986@gmail.com</t>
+  </si>
+  <si>
+    <t>S.bproperties.b@gmail.com</t>
+  </si>
+  <si>
+    <t>Fecon8@gmail.com</t>
+  </si>
+  <si>
+    <t>shifrahen1@walla.com</t>
+  </si>
+  <si>
+    <t>Rinatelb@gmail.com</t>
+  </si>
+  <si>
+    <t>Dshechtman@gmail.com</t>
+  </si>
+  <si>
+    <t>lilachom3@gmail.com</t>
+  </si>
+  <si>
+    <t>Gomesd75@gmail.com</t>
+  </si>
+  <si>
+    <t>info@refresh-event.co.il</t>
+  </si>
+  <si>
+    <t>Limited edition</t>
+  </si>
+  <si>
+    <t>קלינאית תקשורת</t>
+  </si>
+  <si>
+    <t>לוטם - שירותי הנדסה</t>
+  </si>
+  <si>
+    <t>טכנאי מחשבים</t>
+  </si>
+  <si>
+    <t>עיצוב גרפי ועריכת וידאו</t>
+  </si>
+  <si>
+    <t>משרד עורכי דין</t>
+  </si>
+  <si>
+    <t>ש.ב נכסים</t>
+  </si>
+  <si>
+    <t>F.e network&amp;project</t>
+  </si>
+  <si>
+    <t>א.חן דלתות באהבה</t>
+  </si>
+  <si>
+    <t>שירותי אדריכלות ועיצוב פנים</t>
+  </si>
+  <si>
+    <t>רדיו דנה</t>
+  </si>
+  <si>
+    <t>גיא-שיעורי גיטרה</t>
+  </si>
+  <si>
+    <t>לילך אהל מסנר משרד עורכי דין</t>
+  </si>
+  <si>
+    <t>דוד גומס תיקון מזגנים</t>
+  </si>
+  <si>
+    <t>סוכנות נסיעות לחו"ל</t>
+  </si>
+  <si>
+    <t>א.ש הנדימן</t>
+  </si>
+  <si>
+    <t>מיתוג / פרסום / שיווק</t>
+  </si>
+  <si>
+    <t>קלינאות תקשורת</t>
+  </si>
+  <si>
+    <t>עיצוב גרפי</t>
+  </si>
+  <si>
+    <t>סוכנות נסיעות</t>
+  </si>
+  <si>
+    <t>מיתוג נכון יכול להפוך אירוע למרשים ובלתי נשכח, ליצור חוויות ייחודיות, ולחזק את הקשר בין המשתתפים לאירוע עצמו. מתאים לאירועים פרטיים ואינטימיים ולאירועי חברות שרואות את העובדים שלהן.</t>
+  </si>
+  <si>
+    <t>קלינאית תקשורת מומחית בהתפתחות הילד בגיל הרך. טיפולי שפה, דיבור ותקשורת לפעוטות וילדים. תחומי הטיפול: קשיי שפה ודיבור, עיכוב התפתחותי, אוטיזם, אפרקסיה.</t>
+  </si>
+  <si>
+    <t>חוות דעת הנדסיות, בדק בית, ניהול ופיקוח בניה</t>
+  </si>
+  <si>
+    <t>תיקוני תוכנה והתקנת מערכות הפעלה
+ניקוי מחשב והסרת וירוסים
+אבטחת מידע וגיבוי מלא למידע
+התקנת תוכנות ועדכונים
+ביצוע טיפולי תוכנה בסמארטפונים וטאבלטים
+שירותי תמיכה 24/7</t>
+  </si>
+  <si>
+    <t>ביצים,שמן זית משק אחיה,גלידות,דבש נגוהות,יין,פתיון לנמלים,זייבקס זייבקס מנטרל ריחות ,סטרילי לחיטוי ירקות ופירות</t>
+  </si>
+  <si>
+    <t>עיצוב גרפי לאונליין ולדפוס, אלבומי שמחות, הנצחה וזיכרון; עיצוב אתרים, דפי נחיתה ומדיה חברתית. שירות מהיר ואדיב.</t>
+  </si>
+  <si>
+    <t>ייצוג זוכים וחייבים בהליכי הוצאה לפועל, חתימות על תצהירים ו</t>
+  </si>
+  <si>
+    <t>שיווק ומכירת נכסים מיתר וכרמית</t>
+  </si>
+  <si>
+    <t>תיקון מחשבים, מכירת מחשבים, ציוד קצה, תקשורת ואבטחת מידע</t>
+  </si>
+  <si>
+    <t>מכירה והתקנת דלתות פנים איכותיות ומעוצבות תוצרת כחול לבן.</t>
+  </si>
+  <si>
+    <t>שיקום לאחר ניתוחים,נפילות,שיקום אורטופדי, נאורולוגי, גריאטרי,פציעות ספורט</t>
+  </si>
+  <si>
+    <t>מתן שירותי אדריכלות ועיצוב פנים לבתים פרטיים ולעסקים מקניית המגרש עד בחירות הפרטים הקטנים.</t>
+  </si>
+  <si>
+    <t>שיעורי פיתוח קול, עמידה מום קהל, הקלטות שירה לארועים, אולפן ביתי, הנחיה, הפקות, בימוי, עריכת וידאו</t>
+  </si>
+  <si>
+    <t>‎🎸 גלו את הצליל הפנימי שלכם עם המורה לגיטרה המוביל באזור! 🎸
+‎✨ לימודים מותאמים אישית – בין אם אתם מתחילים או מנוסים, תקבלו תוכנית לימודים שמותאמת בדיוק לצרכים ולרצונות שלכם. 🎶 כל הסגנונות – רוק, בלוז, ג'אז, קלאסי, פופ ועוד. תלמדו לנגן את המוזיקה שאתם אוהבים! ניסיון והכשרה – מורה עם מעל ל 20 שנות ניסיון בהוראה לכל הגילאים. 📈 התקדמות מהירה – שיטות לימוד מתקדמות שמבטיחות שתראו תוצאות במהירות.
+‎צרו קשר עכשיו והתחילו את המסע המוזיקלי שלכם</t>
+  </si>
+  <si>
+    <t>עורכת דין עם ותק של שלושים שנה. עוסקת בדיני משפחה, חוזים ועבודה. מגשרת ותיקה שעובדת שנים עם בתי משפט. עורכת צוואות, ייפוי כוח מתמשך. ניתנת הנחה לתושבי מיתר.</t>
+  </si>
+  <si>
+    <t>שירותי תיקון והתקנת מזגנים .
+תושב מיתר</t>
+  </si>
+  <si>
+    <t>ריפרש הפקות ותיירות חברה המתמחה בהפקת אירועי חברה בארץ ובחו"ל ומפעילה את ריפרש תיירות מכירת כרטיסי טיסה ומבחר בתי מלון בכל העולם</t>
+  </si>
+  <si>
+    <t>תיקונים קטנים תאורה סניטרי וכל התיקונים לבית, כל השירות לבית לחצר ולגג דודי שמש מיזוג אוויר</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61560300115652&amp;mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>https://lotem-eng.co.il/</t>
+  </si>
+  <si>
+    <t>0524767340 086517043</t>
+  </si>
+  <si>
+    <t>galgalya.co.il</t>
+  </si>
+  <si>
+    <t>Rivka-law.co.il</t>
+  </si>
+  <si>
+    <t>https://get-marketing.co.il/sb-properties/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11m3DqgC5zNhqCDcLfVv95vo9ZKatO_KC</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100082998169075&amp;mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>0505378144. 08-6280004</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rinatcohen.arc/</t>
+  </si>
+  <si>
+    <t>052-6053899</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rc5oDEZxiLe7kl1Hbqz3Z4ChhXyO7hgH</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RadioDana2020?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JDApXqEuPTs7AezaGmT88g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GTkFkgjBGiCXLqIuOVc6Mo8zBoUpwwfa</t>
+  </si>
+  <si>
+    <t>https://refresh-event.co.il/</t>
+  </si>
+  <si>
+    <t>https://wa.me/972533324316</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1F_R-rIA7zQjWI78QP-cxf2Jeiggzmgze</t>
+  </si>
+  <si>
+    <t>050-746-5416</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fNXqAN0FkxhkaCPeElPNhMEKv-Iq5nFJ</t>
+  </si>
+  <si>
+    <t>0529458324</t>
+  </si>
+  <si>
+    <t>0549949127</t>
+  </si>
+  <si>
+    <t>0545990403</t>
+  </si>
+  <si>
+    <t>0524574926</t>
+  </si>
+  <si>
+    <t>0512264684</t>
+  </si>
+  <si>
+    <t>0542606565</t>
+  </si>
+  <si>
+    <t>0524493358</t>
+  </si>
+  <si>
+    <t>0509909649</t>
+  </si>
+  <si>
+    <t>0546788700</t>
+  </si>
+  <si>
+    <t>0543339411</t>
+  </si>
+  <si>
+    <t>0507540088</t>
+  </si>
+  <si>
+    <t>0547976906</t>
+  </si>
+  <si>
+    <t>053332416</t>
   </si>
 </sst>
 </file>
@@ -3319,16 +3630,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7128,72 +7442,462 @@
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G154" s="6"/>
+      <c r="A154" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G155" s="6"/>
+      <c r="A155" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="G155" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G156" s="6"/>
+      <c r="A156" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G157" s="6"/>
+      <c r="A157" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="G157" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G158" s="6"/>
+      <c r="A158" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G159" s="6"/>
+      <c r="A159" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H165" s="3"/>
+      <c r="I165" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="F169" s="3"/>
+      <c r="G169" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F171" s="3"/>
+      <c r="G171" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8383,6 +9087,22 @@
     <hyperlink ref="I149" r:id="rId144" xr:uid="{1D53A941-5F35-1E49-8F46-629DA8DA66F6}"/>
     <hyperlink ref="H150" r:id="rId145" xr:uid="{4CD275B0-2341-9545-8828-EA7007F5F27A}"/>
     <hyperlink ref="I152" r:id="rId146" xr:uid="{A9AEFECC-1020-1D4E-ADFF-5C46766B8549}"/>
+    <hyperlink ref="F154" r:id="rId147" xr:uid="{D6E769A9-ACA3-C547-B7A7-FD24A0DAB132}"/>
+    <hyperlink ref="F156" r:id="rId148" xr:uid="{AD574C74-671F-434A-8DF1-DC9A6C099AB5}"/>
+    <hyperlink ref="F159" r:id="rId149" display="http://galgalya.co.il/" xr:uid="{04600C18-BACA-864E-8D78-96A5D0D0DE9A}"/>
+    <hyperlink ref="F160" r:id="rId150" display="http://rivka-law.co.il/" xr:uid="{83B88391-F0BC-3047-810C-DD67283DD6CE}"/>
+    <hyperlink ref="F161" r:id="rId151" xr:uid="{08FB9BB5-D6AD-3548-9036-0B68428E6740}"/>
+    <hyperlink ref="I161" r:id="rId152" xr:uid="{D6BAE05E-BC63-F143-B2DC-5D40DBDEEA4B}"/>
+    <hyperlink ref="F163" r:id="rId153" xr:uid="{BB37BEE7-7755-D94A-B9C9-63EC20ECC57C}"/>
+    <hyperlink ref="F165" r:id="rId154" xr:uid="{8123DAF4-774A-8F48-B9E7-A9572B5DE834}"/>
+    <hyperlink ref="I165" r:id="rId155" xr:uid="{E0AAF076-8FA1-3D49-9F8B-BCC67D50F8A5}"/>
+    <hyperlink ref="F166" r:id="rId156" xr:uid="{67C76DE8-A4F2-A042-84CD-BAF4932D26CB}"/>
+    <hyperlink ref="H166" r:id="rId157" xr:uid="{BAFDFD69-CCB2-8E4E-A3D0-DEB6344760CD}"/>
+    <hyperlink ref="I167" r:id="rId158" xr:uid="{63BDC6D0-146A-1A4A-831F-F4A16DCE5EDB}"/>
+    <hyperlink ref="F170" r:id="rId159" xr:uid="{DC8CAC76-F0F9-6640-96F2-C10B1A7224EA}"/>
+    <hyperlink ref="H170" r:id="rId160" xr:uid="{915F5DB3-83A1-BB46-8FB1-0E3AE012688B}"/>
+    <hyperlink ref="I170" r:id="rId161" xr:uid="{99958B62-E1A0-2A46-81E7-3456DAC2E882}"/>
+    <hyperlink ref="I171" r:id="rId162" xr:uid="{3392D28A-F9DE-D745-8EBE-040C31076734}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A70E0A-C201-3F45-B320-8DFCA65797FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A14315-6E8C-6D40-BFB3-7E5BAA83FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$171</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1062">
   <si>
     <t>name</t>
   </si>
@@ -2097,9 +2097,6 @@
   </si>
   <si>
     <t>שלומית שפט טיפול ריגשי</t>
-  </si>
-  <si>
-    <t>טיפול רגשי באמצאות אומניות , מינפולנס, תאתרון פלייבק.</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1XtrcRU26S7N1P3Rb7xxHC_N9eAuA7ZTw</t>
@@ -3204,6 +3201,106 @@
   </si>
   <si>
     <t>053332416</t>
+  </si>
+  <si>
+    <t>טיפול נפשיי באמצעות אומנויות ,מיינדפולנס , תיאטרון פלייבק . הכנת יומן ויזואלי.</t>
+  </si>
+  <si>
+    <t>ירון חיים</t>
+  </si>
+  <si>
+    <t>yaroni449@gmail.com</t>
+  </si>
+  <si>
+    <t>שף ירון חיים</t>
+  </si>
+  <si>
+    <t>שף מארח במיתר, אירועים פרטיים וארוחות בוטיק</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yaronihaim_chef?igsh=Y3A3cWd2eWg0b3dm&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HsD1xxVXL7MHr3v9yBCOgz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GaeSQr5f3tAewsASffyY3Kyfs1DggClc</t>
+  </si>
+  <si>
+    <t>0523223326</t>
+  </si>
+  <si>
+    <t>עו"ד ונוטריון מלי שטרן</t>
+  </si>
+  <si>
+    <t>sternemen@gmail.com</t>
+  </si>
+  <si>
+    <t>משרד עו"ד ונוטריון מלי שטרן</t>
+  </si>
+  <si>
+    <t>וותק של כ 15 שנים,מספקת שירותי נוטריון, עוסקת בתחום אזרחי מסחרי ומיצוי זכויות רפואיות, הוצאה לפועל והסדרי חובות, מוסמכת כמגשרת, עורכת ייפוי כוח מתמשך, צוואות והסכמים משפחתיים</t>
+  </si>
+  <si>
+    <t>052-8187818</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wLwYszoWQh3DqDqUenLHQ-g3Y81SvBnT</t>
+  </si>
+  <si>
+    <t>רחלי מדינה</t>
+  </si>
+  <si>
+    <t>יאיר אלון</t>
+  </si>
+  <si>
+    <t>חן טורדזמן</t>
+  </si>
+  <si>
+    <t>rachelsa79@gmail.com</t>
+  </si>
+  <si>
+    <t>Yairalon6@gmail.com</t>
+  </si>
+  <si>
+    <t>בינדו יוגה רחלי מדינה</t>
+  </si>
+  <si>
+    <t>Alon</t>
+  </si>
+  <si>
+    <t>CHEN TORDJMAN BEAUTY. SKIN. CARE</t>
+  </si>
+  <si>
+    <t>תרגולי יוגה ויוגה תרפיה לכל רמות היכולת. 
+טיפולים פרטניים ביוגה לבעיות במע' השלד, מע' העצבים, מע' נשימה, רצפת אגן, סטרס ועוד.</t>
+  </si>
+  <si>
+    <t>עבודות עץ ואלומניום חוץ חוץ בנייה הצעות מחיר התקנות סנטף ועוד . .</t>
+  </si>
+  <si>
+    <t>איפור, עיצוב שיער, מכון יופי וקוסמטיקה, עיצוב גבות, טיפולי פנים</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rachel.s.medina?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>054-4702780</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G365ErkTi5E3UDAfLZ7LvG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gMtljCipk-AES00BuCVIw8M4x4S1Kt1H</t>
+  </si>
+  <si>
+    <t>https://did.li/CHENTORDJMAN-</t>
+  </si>
+  <si>
+    <t>0544421176</t>
+  </si>
+  <si>
+    <t>0526513661</t>
   </si>
 </sst>
 </file>
@@ -3630,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,7 +3810,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
@@ -4246,7 +4343,7 @@
         <v>137</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>122</v>
@@ -4275,7 +4372,7 @@
         <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4640,7 +4737,7 @@
         <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4684,7 +4781,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>224</v>
@@ -5067,7 +5164,7 @@
         <v>300</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5113,7 +5210,7 @@
         <v>305</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -5138,7 +5235,7 @@
         <v>308</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -5161,7 +5258,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -5263,7 +5360,7 @@
         <v>333</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -5338,7 +5435,7 @@
         <v>348</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -5386,7 +5483,7 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -5411,7 +5508,7 @@
         <v>362</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -5536,7 +5633,7 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -5657,7 +5754,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="s">
@@ -5682,7 +5779,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5705,7 +5802,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -5728,7 +5825,7 @@
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5828,7 +5925,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="s">
@@ -5855,7 +5952,7 @@
         <v>432</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -5905,7 +6002,7 @@
         <v>439</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>440</v>
@@ -6078,7 +6175,7 @@
         <v>466</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="4" t="s">
@@ -6278,7 +6375,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6294,7 +6391,7 @@
         <v>532</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>538</v>
@@ -6340,14 +6437,14 @@
         <v>651</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>652</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -6370,7 +6467,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="4" t="s">
@@ -6395,7 +6492,7 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="4" t="s">
@@ -6422,7 +6519,7 @@
         <v>667</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -6466,434 +6563,434 @@
         <v>186</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>673</v>
+        <v>1029</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H116" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>697</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="G124" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>744</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>751</v>
-      </c>
       <c r="G128" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="E129" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="F129" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>757</v>
-      </c>
       <c r="G129" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="F130" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="G130" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6904,251 +7001,251 @@
         <v>166</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E132" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>241</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="H135" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="I135" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="C136" s="11" t="s">
         <v>823</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>824</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E136" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="G136" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="I136" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F141" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>258</v>
@@ -7157,265 +7254,265 @@
         <v>417</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>395</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7426,13 +7523,13 @@
         <v>170</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="6" t="s">
@@ -7443,320 +7540,320 @@
     </row>
     <row r="154" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>395</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F163" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>1005</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>407</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F165" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F166" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H166" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="I166" s="3"/>
     </row>
@@ -7768,13 +7865,13 @@
         <v>156</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="5" t="s">
@@ -7782,82 +7879,82 @@
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F170" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H170" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="G170" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H170" s="4" t="s">
+      <c r="I170" s="4" t="s">
         <v>1013</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7868,37 +7965,150 @@
         <v>245</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G172" s="6"/>
+      <c r="A172" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="173" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G173" s="6"/>
+      <c r="A173" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H173" s="3"/>
+      <c r="I173" s="4" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="174" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G174" s="6"/>
+      <c r="A174" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G175" s="6"/>
+      <c r="A175" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H175" s="3"/>
+      <c r="I175" s="4" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="176" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G176" s="6"/>
+      <c r="A176" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
     </row>
     <row r="177" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G177" s="6"/>
@@ -8939,7 +9149,7 @@
       <c r="G522" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I134" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}"/>
+  <autoFilter ref="A1:I171" xr:uid="{198A5D74-ED44-D349-8BB8-B5302800B7E0}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{0C853E4D-D61D-8040-B75F-8BBD7C3B13D8}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{55EFDE24-38B8-7C46-93AE-BEC95B2A4D9E}"/>
@@ -9103,6 +9313,14 @@
     <hyperlink ref="H170" r:id="rId160" xr:uid="{915F5DB3-83A1-BB46-8FB1-0E3AE012688B}"/>
     <hyperlink ref="I170" r:id="rId161" xr:uid="{99958B62-E1A0-2A46-81E7-3456DAC2E882}"/>
     <hyperlink ref="I171" r:id="rId162" xr:uid="{3392D28A-F9DE-D745-8EBE-040C31076734}"/>
+    <hyperlink ref="F172" r:id="rId163" xr:uid="{CA3FD486-87F8-AD4B-A72F-E3FD719CA95E}"/>
+    <hyperlink ref="H172" r:id="rId164" xr:uid="{F5BF540B-751C-4647-A3EA-9F243D58F1EF}"/>
+    <hyperlink ref="I172" r:id="rId165" xr:uid="{CF951C02-A951-A345-AE14-6A15C9ADC3AE}"/>
+    <hyperlink ref="I173" r:id="rId166" xr:uid="{FF021C50-B9AF-C141-B328-9F6D4F268790}"/>
+    <hyperlink ref="F174" r:id="rId167" xr:uid="{AE8C1E70-1411-8046-8C0A-3399F321F088}"/>
+    <hyperlink ref="H174" r:id="rId168" xr:uid="{37F9F31E-F912-2847-80BD-ACFC9A0028A6}"/>
+    <hyperlink ref="I175" r:id="rId169" xr:uid="{9CE4BCCF-073A-EB43-B28F-ACE209B274AA}"/>
+    <hyperlink ref="F176" r:id="rId170" xr:uid="{AA7B0342-C9AE-4448-8B1A-C5CB073D8DD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9113,7 +9331,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="A1:I134"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A14315-6E8C-6D40-BFB3-7E5BAA83FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82239F9C-D5A4-454E-8482-1EFEE7D9EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1067">
   <si>
     <t>name</t>
   </si>
@@ -3301,6 +3301,21 @@
   </si>
   <si>
     <t>0526513661</t>
+  </si>
+  <si>
+    <t>ליאת מזרחי</t>
+  </si>
+  <si>
+    <t>פסיכותרפיסטית לילדים ונוער</t>
+  </si>
+  <si>
+    <t xml:space="preserve">טיפול רגשי בשיטת ה CBT לילדים ונוער במיתר. מטפלת במגוון רחב של קשיים כגון: קשיים בויסות רגשי, חרדות, חרדת בחינות, ocd, דימוי עצמי ועוד. מוזמנים להתקשר ולהתייעץ. </t>
+  </si>
+  <si>
+    <t>0527547222</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pXYCQjsClLeeZetFF6lgrhBfiDntAzVT</t>
   </si>
 </sst>
 </file>
@@ -3728,7 +3743,7 @@
   <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+      <selection activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8110,52 +8125,73 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="3"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G192" s="6"/>
     </row>
     <row r="193" spans="7:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9321,6 +9357,7 @@
     <hyperlink ref="H174" r:id="rId168" xr:uid="{37F9F31E-F912-2847-80BD-ACFC9A0028A6}"/>
     <hyperlink ref="I175" r:id="rId169" xr:uid="{9CE4BCCF-073A-EB43-B28F-ACE209B274AA}"/>
     <hyperlink ref="F176" r:id="rId170" xr:uid="{AA7B0342-C9AE-4448-8B1A-C5CB073D8DD6}"/>
+    <hyperlink ref="I177" r:id="rId171" xr:uid="{CA9C3BE1-F325-8F47-BF70-8CC6539C37BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/meitar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barvax/Desktop/My Desktop/meitar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82239F9C-D5A4-454E-8482-1EFEE7D9EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC780F0-91FD-9941-8F69-DC9B2DB37FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{60D6CE5C-09EC-3B4C-B9E3-692DC5D2A00F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1106">
   <si>
     <t>name</t>
   </si>
@@ -3316,6 +3316,129 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1pXYCQjsClLeeZetFF6lgrhBfiDntAzVT</t>
+  </si>
+  <si>
+    <t>אלי כפיר</t>
+  </si>
+  <si>
+    <t>הילה כהן רוזן</t>
+  </si>
+  <si>
+    <t>קובי הלד</t>
+  </si>
+  <si>
+    <t>אורן שוורץ</t>
+  </si>
+  <si>
+    <t>טל ויינר שוורץ</t>
+  </si>
+  <si>
+    <t>Kfirelidiet@gmail.com</t>
+  </si>
+  <si>
+    <t>nnrozen@gmail.com</t>
+  </si>
+  <si>
+    <t>kobiheld01@gmail.com</t>
+  </si>
+  <si>
+    <t>Schwartzwood@outlook.co.il</t>
+  </si>
+  <si>
+    <t>Talink4u@gmail.com</t>
+  </si>
+  <si>
+    <t>עורך דין לענייני משפחה, מקרקעין וחברות</t>
+  </si>
+  <si>
+    <t>אלי כפיר תזונאי קליני</t>
+  </si>
+  <si>
+    <t>הדרכת הורים ואימון ילדי קשב ו-ASD</t>
+  </si>
+  <si>
+    <t>NATURALIN</t>
+  </si>
+  <si>
+    <t>VR GAME מציאות מדומה לאירועים</t>
+  </si>
+  <si>
+    <t>שיפוצים ובנייה קלה</t>
+  </si>
+  <si>
+    <t>שיווק ותוכן דיגיטלי</t>
+  </si>
+  <si>
+    <t>התחום שלי לא מופיע</t>
+  </si>
+  <si>
+    <t>חברת עורכי הדין שלנו קארו אנקרי ושות' מנוסים בתחום דיני משפחה, דיני חברות ומקרקעין.</t>
+  </si>
+  <si>
+    <t>תזונאי קליני לתינוקות ילדים בני נוער ומבוגרים</t>
+  </si>
+  <si>
+    <t>הילה כהן רוזן - מדריכת הורים🌸
+מוסמכת הדרכת הורים בגישת אדלר. אימון וליווי ילדי קשב, ASD ולקויות התפתחותיות.
+מנחה להבנת עולם הילדים ולקשר אוהב, איכותי ובריא בין ההורים לילדיהם.
+מובילה ליחסים טובים ולאווירה משפחתית נעימה, פתוחה וחיובית.
+מוזמנים באהבה לשיחת ייעוץ על מאבקים, התנהגויות והתמודדויות אם אתגרי היומיום🌸💕</t>
+  </si>
+  <si>
+    <t>נטורופתית - תזונה קלינית מותאמת אישית, טיפול הוליסטי במחלות נפוצות דרך תזונה טבעית, צמחי מרפא, תוספים, ארומתרפיה, פרחי באך, דימיון מודרך ועוד. רפלקסולוגית בכירה - טיפול פיזי ורגשי דרך כף הרגל.</t>
+  </si>
+  <si>
+    <t>עמדות מציאות מדומה לאירועים
+חוויה ייחודית ומרתקת, חדשנית ובלתי נשכחת.
+מתאים לכל גיל ללא הבדל בנים בנות</t>
+  </si>
+  <si>
+    <t>שיפוצים בנייה קלה ונגרות חוץ . עבודה עברית עם אחריות מידי מקצוענים</t>
+  </si>
+  <si>
+    <t>מלווה עסקים כבר 15 שנה משלב הלוגו לאתר משגשג . מענה מקיף לשיווק ותוכן עבור בעלי עסקים</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/15iRb7V1Vm/</t>
+  </si>
+  <si>
+    <t>Naturalin בפייסבוק</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vrgame1/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/oranswood</t>
+  </si>
+  <si>
+    <t>08-9437700</t>
+  </si>
+  <si>
+    <t>0505782577</t>
+  </si>
+  <si>
+    <t>0523699544</t>
+  </si>
+  <si>
+    <t>0526000654</t>
+  </si>
+  <si>
+    <t>0544738354</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XtDsWMcl5wBMBRIrzme35c17UWHzHo1E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UM4lAsOX16B69BN4NoFlHfOCT4jykMph</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hMm9ZIPQY8mSoHl_VuVteYDq7_qczeDu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RHFI8ET4ZzDPUB09K9VIvQsLHYrjgB0L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qprNORFM0P14cEAKeG0iLYRjRj-90MJX</t>
   </si>
 </sst>
 </file>
@@ -3385,7 +3508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3405,6 +3528,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3743,7 +3870,7 @@
   <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:XFD177"/>
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8125,50 +8252,202 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="13" t="s">
         <v>1064</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="I177" s="16" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E178" s="3"/>
-      <c r="G178" s="6"/>
+      <c r="A178" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G179" s="6"/>
+      <c r="A179" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="180" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G180" s="6"/>
+      <c r="A180" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="181" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G181" s="6"/>
+      <c r="A181" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="182" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G182" s="6"/>
+      <c r="A182" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="183" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G183" s="6"/>
+      <c r="A183" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="184" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G184" s="6"/>
+      <c r="A184" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G185" s="6"/>
@@ -9358,6 +9637,15 @@
     <hyperlink ref="I175" r:id="rId169" xr:uid="{9CE4BCCF-073A-EB43-B28F-ACE209B274AA}"/>
     <hyperlink ref="F176" r:id="rId170" xr:uid="{AA7B0342-C9AE-4448-8B1A-C5CB073D8DD6}"/>
     <hyperlink ref="I177" r:id="rId171" xr:uid="{CA9C3BE1-F325-8F47-BF70-8CC6539C37BA}"/>
+    <hyperlink ref="F178" r:id="rId172" xr:uid="{EE9756EE-B8B8-6747-92A7-FAB11528C242}"/>
+    <hyperlink ref="F179" r:id="rId173" xr:uid="{54085492-7369-9444-AF23-C86DD54FEF07}"/>
+    <hyperlink ref="F182" r:id="rId174" xr:uid="{FB0AE546-97D9-6449-9DBA-3725E8FEF862}"/>
+    <hyperlink ref="F183" r:id="rId175" xr:uid="{CDB369F8-565B-BE4D-A214-FEC988B9ACC2}"/>
+    <hyperlink ref="I179" r:id="rId176" xr:uid="{A3AFED85-69F1-804E-8D9A-23355E856111}"/>
+    <hyperlink ref="I180" r:id="rId177" xr:uid="{B45C3137-C813-5A47-AFCF-FB99B0B1B7C9}"/>
+    <hyperlink ref="I181" r:id="rId178" xr:uid="{C646BA36-201D-9B40-A622-8C5D91CA99E4}"/>
+    <hyperlink ref="I182" r:id="rId179" xr:uid="{0BB474DC-2FE6-A44C-9A08-31D7DFB7FF5B}"/>
+    <hyperlink ref="I183" r:id="rId180" xr:uid="{2861F32F-A97A-0A41-82C2-E01C5A6ADB70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
